--- a/ПКМ/Обработка ПКМ.xlsx
+++ b/ПКМ/Обработка ПКМ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\maximov\py\Github\GZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NaumovVY\Documents\GitHub\GZ\ПКМ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F70793-4757-4498-B88F-8D4039D8DC75}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618626CB-AC3D-4DBA-9855-9D4592CD6362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Без ПКМ" sheetId="3" r:id="rId1"/>
@@ -26,8 +26,9 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029" iterate="1" iterateCount="30" iterateDelta="0.1" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -381,43 +382,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -448,6 +413,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4214,16 +4215,16 @@
       <sheetName val="GTU_input_razryad"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="13">
           <cell r="E13">
             <v>0.71179308682891296</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1">
         <row r="2">
           <cell r="C2">
             <v>2.5708384804011462</v>
@@ -4253,7 +4254,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4">
+      <sheetData sheetId="4" refreshError="1">
         <row r="8">
           <cell r="B8">
             <v>18.63368673341121</v>
@@ -4275,17 +4276,17 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1">
         <row r="3">
           <cell r="B3">
             <v>0.74632571563585115</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1">
         <row r="9">
           <cell r="E9">
             <v>3.2997870354208629</v>
@@ -4297,7 +4298,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10">
+      <sheetData sheetId="10" refreshError="1">
         <row r="2">
           <cell r="C2">
             <v>0.95641570387463903</v>
@@ -4337,7 +4338,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="11">
+      <sheetData sheetId="11" refreshError="1">
         <row r="8">
           <cell r="B8">
             <v>25.360655953409221</v>
@@ -4359,20 +4360,35 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12">
+      <sheetData sheetId="12" refreshError="1">
         <row r="3">
           <cell r="E3">
             <v>23.54273504191962</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="13">
+      <sheetData sheetId="13" refreshError="1">
         <row r="3">
           <cell r="B3">
             <v>1</v>
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="gas_streams_zaryad"/>
+      <sheetName val="electric_zaryad"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4585,7 +4601,7 @@
       <sheetData sheetId="0">
         <row r="13">
           <cell r="E13">
-            <v>0.71063142544819813</v>
+            <v>0.71134101782417591</v>
           </cell>
         </row>
       </sheetData>
@@ -4594,52 +4610,52 @@
       <sheetData sheetId="3">
         <row r="2">
           <cell r="C2">
-            <v>2.2454277846408042</v>
+            <v>2.2701754270331391</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>125.5550869940141</v>
+            <v>127.339747452835</v>
           </cell>
           <cell r="E5">
-            <v>31.29944166031521</v>
+            <v>31.458731191661371</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>6.2162872366974886</v>
+            <v>6.2200738927341543</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>39.052440069068602</v>
+            <v>37.23191676958821</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>4.5276953195570388E-2</v>
+            <v>4.5285748950354733E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="8">
           <cell r="B8">
-            <v>31.167319721717451</v>
+            <v>26.064457090350022</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>91.216028486830311</v>
+            <v>96.358985522808126</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>7.8882429162743186</v>
+            <v>8.3297047434973699</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>37760.524606367093</v>
+            <v>37500.811256093039</v>
           </cell>
         </row>
       </sheetData>
@@ -4647,7 +4663,7 @@
       <sheetData sheetId="6">
         <row r="3">
           <cell r="B3">
-            <v>0.75790828802374832</v>
+            <v>0.76868131988914024</v>
           </cell>
         </row>
       </sheetData>
@@ -4668,7 +4684,7 @@
       <sheetData sheetId="10">
         <row r="2">
           <cell r="C2">
-            <v>0.67213483113811467</v>
+            <v>0.75083222444895148</v>
           </cell>
         </row>
         <row r="5">
@@ -4676,7 +4692,7 @@
             <v>165.66</v>
           </cell>
           <cell r="E5">
-            <v>34.086911016241331</v>
+            <v>34.094845350390223</v>
           </cell>
         </row>
         <row r="6">
@@ -4686,44 +4702,44 @@
         </row>
         <row r="7">
           <cell r="B7">
-            <v>52.9828103218236</v>
+            <v>50.964653816995209</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>0.16830757799976401</v>
+            <v>0.1673227525155109</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>46906.656904943753</v>
+            <v>46872.93802369092</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>70376.450574922987</v>
+            <v>70328.115386403413</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="8">
           <cell r="B8">
-            <v>43.651463736241517</v>
+            <v>36.237761261398433</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>80.830694793148695</v>
+            <v>88.539377581739132</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>7.0883928814862873</v>
+            <v>7.7741525158646239</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>36458.587320236467</v>
+            <v>35696.780361733843</v>
           </cell>
         </row>
       </sheetData>
@@ -4769,7 +4785,7 @@
       <sheetData sheetId="0">
         <row r="13">
           <cell r="E13">
-            <v>0.70993860893911531</v>
+            <v>0.71063142544819813</v>
           </cell>
         </row>
       </sheetData>
@@ -4778,52 +4794,52 @@
       <sheetData sheetId="3">
         <row r="2">
           <cell r="C2">
-            <v>2.1398318723075911</v>
+            <v>2.2454277846408042</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>124.7145130668581</v>
+            <v>125.5550869940141</v>
           </cell>
           <cell r="E5">
-            <v>31.205021333878399</v>
+            <v>31.29944166031521</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>6.2145037241420358</v>
+            <v>6.2162872366974886</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>40.964032612645241</v>
+            <v>39.052440069068602</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>4.5159035280647797E-2</v>
+            <v>4.5276953195570388E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="8">
           <cell r="B8">
-            <v>37.504893479603169</v>
+            <v>31.167319721717451</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>84.912752550054662</v>
+            <v>91.216028486830311</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>7.3420635794609836</v>
+            <v>7.8882429162743186</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>38054.15160346339</v>
+            <v>37760.524606367093</v>
           </cell>
         </row>
       </sheetData>
@@ -4831,7 +4847,7 @@
       <sheetData sheetId="6">
         <row r="3">
           <cell r="B3">
-            <v>0.75283419695073128</v>
+            <v>0.75790828802374832</v>
           </cell>
         </row>
       </sheetData>
@@ -4840,7 +4856,7 @@
       <sheetData sheetId="9">
         <row r="9">
           <cell r="E9">
-            <v>3.299969266969438</v>
+            <v>3.2997870354208629</v>
           </cell>
         </row>
         <row r="10">
@@ -4852,7 +4868,7 @@
       <sheetData sheetId="10">
         <row r="2">
           <cell r="C2">
-            <v>0.68227028424089209</v>
+            <v>0.67213483113811467</v>
           </cell>
         </row>
         <row r="5">
@@ -4860,7 +4876,7 @@
             <v>165.66</v>
           </cell>
           <cell r="E5">
-            <v>34.061064584346838</v>
+            <v>34.086911016241331</v>
           </cell>
         </row>
         <row r="6">
@@ -4870,51 +4886,51 @@
         </row>
         <row r="7">
           <cell r="B7">
-            <v>55.1345308840027</v>
+            <v>52.9828103218236</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>0.17496310407698751</v>
+            <v>0.16830757799976401</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>46940.901942022218</v>
+            <v>46906.656904943753</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>70425.696351193052</v>
+            <v>70376.450574922987</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="8">
           <cell r="B8">
-            <v>52.806188804744309</v>
+            <v>43.651463736241517</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>71.531359508734809</v>
+            <v>80.830694793148695</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>6.2535765942739463</v>
+            <v>7.0883928814862873</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>37221.556971155369</v>
+            <v>36458.587320236467</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="3">
           <cell r="E3">
-            <v>23.541755779113611</v>
+            <v>23.54273504191962</v>
           </cell>
         </row>
       </sheetData>
@@ -4953,7 +4969,7 @@
       <sheetData sheetId="0">
         <row r="13">
           <cell r="E13">
-            <v>0.70901733759693952</v>
+            <v>0.70993860893911531</v>
           </cell>
         </row>
       </sheetData>
@@ -4962,52 +4978,52 @@
       <sheetData sheetId="3">
         <row r="2">
           <cell r="C2">
-            <v>2.1096670661759429</v>
+            <v>2.1398318723075911</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>123.2677674554277</v>
+            <v>124.7145130668581</v>
           </cell>
           <cell r="E5">
-            <v>31.124278891401509</v>
+            <v>31.205021333878399</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>6.2114340489127979</v>
+            <v>6.2145037241420358</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>42.438703038134733</v>
+            <v>40.964032612645241</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>4.526098854146849E-2</v>
+            <v>4.5159035280647797E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="8">
           <cell r="B8">
-            <v>44.823008190549032</v>
+            <v>37.504893479603169</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>77.748785912801054</v>
+            <v>84.912752550054662</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>6.7112028459728013</v>
+            <v>7.3420635794609836</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>38316.010878021007</v>
+            <v>38054.15160346339</v>
           </cell>
         </row>
       </sheetData>
@@ -5015,7 +5031,7 @@
       <sheetData sheetId="6">
         <row r="3">
           <cell r="B3">
-            <v>0.75023929613308304</v>
+            <v>0.75283419695073128</v>
           </cell>
         </row>
       </sheetData>
@@ -5024,7 +5040,7 @@
       <sheetData sheetId="9">
         <row r="9">
           <cell r="E9">
-            <v>3.3021674120840272</v>
+            <v>3.299969266969438</v>
           </cell>
         </row>
         <row r="10">
@@ -5036,69 +5052,69 @@
       <sheetData sheetId="10">
         <row r="2">
           <cell r="C2">
-            <v>0.68637606977659871</v>
+            <v>0.68227028424089209</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>164.30459999999999</v>
+            <v>165.66</v>
           </cell>
           <cell r="E5">
-            <v>34.012096926621403</v>
+            <v>34.061064584346838</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>6.2985051603460569</v>
+            <v>6.3013810203264402</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>56.270696192646021</v>
+            <v>55.1345308840027</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>0.18210954190544321</v>
+            <v>0.17496310407698751</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>46980.4884467429</v>
+            <v>46940.901942022218</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>70484.328694481112</v>
+            <v>70425.696351193052</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="8">
           <cell r="B8">
-            <v>62.775052202136543</v>
+            <v>52.806188804744309</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>61.494723626158979</v>
+            <v>71.531359508734809</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>5.3384663770733489</v>
+            <v>6.2535765942739463</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>37990.554441752858</v>
+            <v>37221.556971155369</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="3">
           <cell r="E3">
-            <v>23.529949959524259</v>
+            <v>23.541755779113611</v>
           </cell>
         </row>
       </sheetData>
@@ -5137,7 +5153,7 @@
       <sheetData sheetId="0">
         <row r="13">
           <cell r="E13">
-            <v>0.70785990635028306</v>
+            <v>0.70901733759693952</v>
           </cell>
         </row>
       </sheetData>
@@ -5146,52 +5162,52 @@
       <sheetData sheetId="3">
         <row r="2">
           <cell r="C2">
-            <v>2.1476495720356961</v>
+            <v>2.1096670661759429</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>120.89017911163479</v>
+            <v>123.2677674554277</v>
           </cell>
           <cell r="E5">
-            <v>31.045227993859861</v>
+            <v>31.124278891401509</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>6.2063893306246607</v>
+            <v>6.2114340489127979</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>43.266955643958177</v>
+            <v>42.438703038134733</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>4.528821887511094E-2</v>
+            <v>4.526098854146849E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="8">
           <cell r="B8">
-            <v>52.716748612278799</v>
+            <v>44.823008190549032</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>70.094284208258841</v>
+            <v>77.748785912801054</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>6.0236950035889212</v>
+            <v>6.7112028459728013</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>38552.905210983678</v>
+            <v>38316.010878021007</v>
           </cell>
         </row>
       </sheetData>
@@ -5199,7 +5215,7 @@
       <sheetData sheetId="6">
         <row r="3">
           <cell r="B3">
-            <v>0.75657269828405382</v>
+            <v>0.75023929613308304</v>
           </cell>
         </row>
       </sheetData>
@@ -5208,7 +5224,7 @@
       <sheetData sheetId="9">
         <row r="9">
           <cell r="E9">
-            <v>3.3046748619762809</v>
+            <v>3.3021674120840272</v>
           </cell>
         </row>
         <row r="10">
@@ -5220,69 +5236,69 @@
       <sheetData sheetId="10">
         <row r="2">
           <cell r="C2">
-            <v>0.68210216419822856</v>
+            <v>0.68637606977659871</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>159.78659999999999</v>
+            <v>164.30459999999999</v>
           </cell>
           <cell r="E5">
-            <v>33.830241541168107</v>
+            <v>34.012096926621403</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>6.2889189604114444</v>
+            <v>6.2985051603460569</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>56.418946753975092</v>
+            <v>56.270696192646021</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>0.18436488325896899</v>
+            <v>0.18210954190544321</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>47020.960838040402</v>
+            <v>46980.4884467429</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>70544.4962427422</v>
+            <v>70484.328694481112</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="8">
           <cell r="B8">
-            <v>54.68365135312699</v>
+            <v>62.775052202136543</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>68.068271325910587</v>
+            <v>61.494723626158979</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>5.8743657685470749</v>
+            <v>5.3384663770733489</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>38761.340808871377</v>
+            <v>37990.554441752858</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="3">
           <cell r="E3">
-            <v>23.516497371811869</v>
+            <v>23.529949959524259</v>
           </cell>
         </row>
       </sheetData>
@@ -5319,93 +5335,80 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="4">
-          <cell r="C4">
-            <v>0.1</v>
-          </cell>
-          <cell r="E4">
-            <v>13.57297754204483</v>
-          </cell>
-        </row>
         <row r="13">
           <cell r="E13">
-            <v>0.70702938668410387</v>
+            <v>0.70785990635028306</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="C2">
-            <v>2.218992303191158</v>
+            <v>2.1476495720356961</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>118.90644625711199</v>
+            <v>120.89017911163479</v>
           </cell>
           <cell r="E5">
-            <v>30.932710161276461</v>
+            <v>31.045227993859861</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>6.2021802868530109</v>
+            <v>6.2063893306246607</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>43.197073067345393</v>
+            <v>43.266955643958177</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>4.5203828953687838E-2</v>
+            <v>4.528821887511094E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="8">
           <cell r="B8">
-            <v>54.274291142549203</v>
+            <v>52.716748612278799</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>68.057172114173198</v>
+            <v>70.094284208258841</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>5.8243396666219551</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>34723.390365586492</v>
+            <v>6.0236950035889212</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>38575.430000910041</v>
+            <v>38552.905210983678</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6">
         <row r="3">
           <cell r="B3">
-            <v>0.7570004179963562</v>
+            <v>0.75657269828405382</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
       <sheetData sheetId="9">
         <row r="9">
           <cell r="E9">
-            <v>3.3063876685570008</v>
+            <v>3.3046748619762809</v>
           </cell>
         </row>
         <row r="10">
@@ -5417,69 +5420,69 @@
       <sheetData sheetId="10">
         <row r="2">
           <cell r="C2">
-            <v>0.67826093050990566</v>
+            <v>0.68210216419822856</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>157.07579999999999</v>
+            <v>159.78659999999999</v>
           </cell>
           <cell r="E5">
-            <v>33.701191319931901</v>
+            <v>33.830241541168107</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>6.2831672404506769</v>
+            <v>6.2889189604114444</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>56.218297357186671</v>
+            <v>56.418946753975092</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>0.18422182343673671</v>
+            <v>0.18436488325896899</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>47045.827872736598</v>
+            <v>47020.960838040402</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>70581.612049136616</v>
+            <v>70544.4962427422</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="8">
           <cell r="B8">
-            <v>51.744344524636027</v>
+            <v>54.68365135312699</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>70.038534104258559</v>
+            <v>68.068271325910587</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>6.0195429881068963</v>
+            <v>5.8743657685470749</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>38928.75692369217</v>
+            <v>38761.340808871377</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="3">
           <cell r="E3">
-            <v>23.507316922203401</v>
+            <v>23.516497371811869</v>
           </cell>
         </row>
       </sheetData>
@@ -5516,80 +5519,93 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="4">
+          <cell r="C4">
+            <v>0.1</v>
+          </cell>
+          <cell r="E4">
+            <v>13.57297754204483</v>
+          </cell>
+        </row>
         <row r="13">
           <cell r="E13">
-            <v>0.71134101782417591</v>
+            <v>0.70702938668410387</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="C2">
-            <v>2.2701754270331391</v>
+            <v>2.218992303191158</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>127.339747452835</v>
+            <v>118.90644625711199</v>
           </cell>
           <cell r="E5">
-            <v>31.458731191661371</v>
+            <v>30.932710161276461</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>6.2200738927341543</v>
+            <v>6.2021802868530109</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>37.23191676958821</v>
+            <v>43.197073067345393</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>4.5285748950354733E-2</v>
+            <v>4.5203828953687838E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="8">
           <cell r="B8">
-            <v>26.064457090350022</v>
+            <v>54.274291142549203</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>96.358985522808126</v>
+            <v>68.057172114173198</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>8.3297047434973699</v>
+            <v>5.8243396666219551</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>34723.390365586492</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>37500.811256093039</v>
+            <v>38575.430000910041</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6">
         <row r="3">
           <cell r="B3">
-            <v>0.76868131988914024</v>
+            <v>0.7570004179963562</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9">
         <row r="9">
           <cell r="E9">
-            <v>3.2997870354208629</v>
+            <v>3.3063876685570008</v>
           </cell>
         </row>
         <row r="10">
@@ -5601,69 +5617,69 @@
       <sheetData sheetId="10">
         <row r="2">
           <cell r="C2">
-            <v>0.75083222444895148</v>
+            <v>0.67826093050990566</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>165.66</v>
+            <v>157.07579999999999</v>
           </cell>
           <cell r="E5">
-            <v>34.094845350390223</v>
+            <v>33.701191319931901</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>6.3013810203264402</v>
+            <v>6.2831672404506769</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>50.964653816995209</v>
+            <v>56.218297357186671</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>0.1673227525155109</v>
+            <v>0.18422182343673671</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>46872.93802369092</v>
+            <v>47045.827872736598</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>70328.115386403413</v>
+            <v>70581.612049136616</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="8">
           <cell r="B8">
-            <v>36.237761261398433</v>
+            <v>51.744344524636027</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>88.539377581739132</v>
+            <v>70.038534104258559</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>7.7741525158646239</v>
+            <v>6.0195429881068963</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>35696.780361733843</v>
+            <v>38928.75692369217</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="3">
           <cell r="E3">
-            <v>23.54273504191962</v>
+            <v>23.507316922203401</v>
           </cell>
         </row>
       </sheetData>
@@ -5684,6 +5700,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
+      <sheetName val="CoolProp"/>
     </sheetNames>
     <definedNames>
       <definedName name="MixtureString"/>
@@ -5691,6 +5708,7 @@
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5965,194 +5983,194 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="33"/>
-    <col min="2" max="2" width="12" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="9.1796875" style="21"/>
+    <col min="2" max="2" width="12" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="27"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
         <v>-29</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="19">
         <v>175.06425550511426</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="20">
         <v>0.63051292317147878</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="19">
         <v>205.13768958891018</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="20">
         <v>0.62325556396576853</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
         <v>-25</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="19">
         <v>187.45722067174907</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="20">
         <v>0.64701713584893716</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="19">
         <v>205.12811200461454</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="20">
         <v>0.63615415876698722</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="18">
         <v>-20</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="19">
         <v>197.85202699937264</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="20">
         <v>0.66122196160902258</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="19">
         <v>206.94935951134502</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="20">
         <v>0.65157412488013533</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="18">
         <v>-15</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="19">
         <v>198.48648515336524</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="20">
         <v>0.67130130649635533</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="19">
         <v>209.69488283053695</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="20">
         <v>0.65993888017537883</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
         <v>-10</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="19">
         <v>198.83285532277509</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="20">
         <v>0.68073926798168138</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="19">
         <v>212.3005749713769</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="20">
         <v>0.66751247292528593</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="18">
         <v>-5</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="19">
         <v>199.70820992674109</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="20">
         <v>0.68802044051979483</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="19">
         <v>214.41340557814991</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="20">
         <v>0.67298351536860157</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="18">
         <v>0</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="19">
         <v>198.73947885409888</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="20">
         <v>0.69554448470388708</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="19">
         <v>214.17359702034025</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="20">
         <v>0.67883262410718481</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="18">
         <v>5</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="19">
         <v>194.29244468757045</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="20">
         <v>0.7042625250155683</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="19">
         <v>209.09347165135563</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="20">
         <v>0.68570725290387591</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
+    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="18">
         <v>8</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="19">
         <v>191.17246153573632</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="20">
         <v>0.70722919011666807</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="19">
         <v>205.95308292677296</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="20">
         <v>0.6880089886857067</v>
       </c>
     </row>
@@ -6172,118 +6190,118 @@
   <dimension ref="A1:AW11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="13.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="4" customWidth="1"/>
-    <col min="15" max="16" width="13.7109375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" style="4" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" style="5" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" style="5" customWidth="1"/>
+    <col min="2" max="9" width="13.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13.7265625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="13.7265625" style="4" customWidth="1"/>
+    <col min="15" max="16" width="13.7265625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.7265625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="13.7265625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="13.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7265625" style="5" customWidth="1"/>
     <col min="21" max="24" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="30" max="34" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="15" style="3" customWidth="1"/>
     <col min="37" max="37" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.81640625" style="4" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="15" style="5" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="15" style="2" customWidth="1"/>
     <col min="45" max="46" width="15" style="3" customWidth="1"/>
-    <col min="47" max="47" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="9.140625" style="1"/>
+    <col min="47" max="47" width="16.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="48" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="21"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="34"/>
       <c r="O1" s="12"/>
       <c r="P1" s="11"/>
       <c r="Q1" s="9"/>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="15" t="s">
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AM1" s="17" t="s">
+      <c r="AM1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AN1" s="19" t="s">
+      <c r="AN1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="AO1" s="21" t="s">
+      <c r="AO1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="AP1" s="21" t="s">
+      <c r="AP1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="AQ1" s="15" t="s">
+      <c r="AQ1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AR1" s="17" t="s">
+      <c r="AR1" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="AS1" s="19" t="s">
+      <c r="AS1" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="19" t="s">
+      <c r="AT1" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AU1" s="21" t="s">
+      <c r="AU1" s="34" t="s">
         <v>37</v>
       </c>
       <c r="AV1" s="7" t="s">
@@ -6293,8 +6311,8 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="2" spans="1:49" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
+    <row r="2" spans="1:49" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="37"/>
       <c r="B2" s="14" t="s">
         <v>24</v>
       </c>
@@ -6343,9 +6361,9 @@
       <c r="Q2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="16"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="16"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="37"/>
       <c r="U2" s="14" t="s">
         <v>25</v>
       </c>
@@ -6397,16 +6415,16 @@
       <c r="AK2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="20"/>
-      <c r="AT2" s="20"/>
-      <c r="AU2" s="22"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="35"/>
       <c r="AV2" s="7" t="s">
         <v>12</v>
       </c>
@@ -6414,10 +6432,62 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>-29</v>
       </c>
+      <c r="B3" s="22" t="e">
+        <f ca="1">[10]gas_streams_zaryad!$E$13</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" s="22" t="e">
+        <f ca="1">[10]electric_zaryad!$E$5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D3" s="22">
+        <f>[1]GTU_input_zaryad!$B$3</f>
+        <v>0.74632571563585115</v>
+      </c>
+      <c r="E3" s="22">
+        <f>[1]electric_zaryad!$C$5</f>
+        <v>123.6363180522351</v>
+      </c>
+      <c r="F3" s="22">
+        <f>[1]electric_zaryad!$B$7</f>
+        <v>32.868026301754483</v>
+      </c>
+      <c r="G3" s="22">
+        <f>[1]electric_zaryad!$C$12</f>
+        <v>4.5191560832078398E-2</v>
+      </c>
+      <c r="H3" s="22">
+        <f>[1]electric_zaryad!$C$6</f>
+        <v>6.2122160320263484</v>
+      </c>
+      <c r="I3" s="22">
+        <f>[1]electric_zaryad!$C$2</f>
+        <v>2.5708384804011462</v>
+      </c>
+      <c r="J3" s="22">
+        <f>[1]heaters_zaryad!$B$9</f>
+        <v>99.924468427339818</v>
+      </c>
+      <c r="K3" s="22">
+        <f>[1]heaters_zaryad!$B$8</f>
+        <v>18.63368673341121</v>
+      </c>
+      <c r="L3" s="22">
+        <f>[1]heaters_zaryad!$B$10</f>
+        <v>8.4426705895773377</v>
+      </c>
+      <c r="M3" s="22">
+        <f t="shared" ref="M3" si="0">J3+K3+L3</f>
+        <v>127.00082575032836</v>
+      </c>
+      <c r="N3" s="23">
+        <f>[1]heaters_zaryad!$B$17</f>
+        <v>36802.306036441099</v>
+      </c>
       <c r="AV3" s="8" t="s">
         <v>13</v>
       </c>
@@ -6425,193 +6495,193 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="4" spans="1:49" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+    <row r="4" spans="1:49" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
         <v>-25</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="22">
         <f>[1]gas_streams_zaryad!$E$13</f>
         <v>0.71179308682891296</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="22">
         <f>[1]electric_zaryad!$E$5</f>
         <v>31.134656321012919</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="22">
         <f>[1]GTU_input_zaryad!$B$3</f>
         <v>0.74632571563585115</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="22">
         <f>[1]electric_zaryad!$C$5</f>
         <v>123.6363180522351</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="22">
         <f>[1]electric_zaryad!$B$7</f>
         <v>32.868026301754483</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="22">
         <f>[1]electric_zaryad!$C$12</f>
         <v>4.5191560832078398E-2</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="22">
         <f>[1]electric_zaryad!$C$6</f>
         <v>6.2122160320263484</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="22">
         <f>[1]electric_zaryad!$C$2</f>
         <v>2.5708384804011462</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="22">
         <f>[1]heaters_zaryad!$B$9</f>
         <v>99.924468427339818</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="22">
         <f>[1]heaters_zaryad!$B$8</f>
         <v>18.63368673341121</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="22">
         <f>[1]heaters_zaryad!$B$10</f>
         <v>8.4426705895773377</v>
       </c>
-      <c r="M4" s="34">
-        <f t="shared" ref="M4:M10" si="0">J4+K4+L4</f>
+      <c r="M4" s="22">
+        <f t="shared" ref="M4:M10" si="1">J4+K4+L4</f>
         <v>127.00082575032836</v>
       </c>
-      <c r="N4" s="35">
+      <c r="N4" s="23">
         <f>[1]heaters_zaryad!$B$17</f>
         <v>36802.306036441099</v>
       </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="30">
-        <f>S4/((100*E4)/C4-M4)</f>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="18">
+        <f t="shared" ref="R4:R11" si="2">S4/((100*E4)/C4-M4)</f>
         <v>0.54250476242189571</v>
       </c>
-      <c r="S4" s="34">
-        <f>E4+F4*$AW$2*$AW$3-G4/$AW$1/$AW$2-H4-I4/$AW$1/$AW$2</f>
+      <c r="S4" s="22">
+        <f t="shared" ref="S4:S11" si="3">E4+F4*$AW$2*$AW$3-G4/$AW$1/$AW$2-H4-I4/$AW$1/$AW$2</f>
         <v>146.53112999385064</v>
       </c>
-      <c r="T4" s="30">
-        <f t="shared" ref="T4" si="1">J4+K4+N4/1000</f>
+      <c r="T4" s="18">
+        <f t="shared" ref="T4" si="4">J4+K4+N4/1000</f>
         <v>155.36046119719214</v>
       </c>
-      <c r="U4" s="34">
+      <c r="U4" s="22">
         <f>[1]syngas_streams_razryad!$E$10</f>
         <v>1.0811111111111109</v>
       </c>
-      <c r="V4" s="34">
+      <c r="V4" s="22">
         <f>[1]syngas_streams_razryad!$E$9</f>
         <v>3.2997870354208629</v>
       </c>
-      <c r="W4" s="34">
+      <c r="W4" s="22">
         <f>[1]accumulation_razryad!$E$3</f>
         <v>23.54273504191962</v>
       </c>
-      <c r="X4" s="34">
+      <c r="X4" s="22">
         <f>[1]electric_razryad!$E$5</f>
         <v>34.082383064645562</v>
       </c>
-      <c r="Y4" s="34">
+      <c r="Y4" s="22">
         <f>[1]GTU_input_razryad!$B$3</f>
         <v>1</v>
       </c>
-      <c r="Z4" s="34">
+      <c r="Z4" s="22">
         <f>[1]electric_razryad!$C$5</f>
         <v>165.66</v>
       </c>
-      <c r="AA4" s="34">
+      <c r="AA4" s="22">
         <f>[1]electric_razryad!$B$7</f>
         <v>45.903223080099522</v>
       </c>
-      <c r="AB4" s="34">
+      <c r="AB4" s="22">
         <f>[1]electric_razryad!$C$12</f>
         <v>0.16680220982633959</v>
       </c>
-      <c r="AC4" s="34">
+      <c r="AC4" s="22">
         <f>[1]electric_razryad!$C$6</f>
         <v>6.3013810203264402</v>
       </c>
-      <c r="AD4" s="34">
+      <c r="AD4" s="22">
         <f>[1]electric_razryad!$C$2</f>
         <v>0.95641570387463903</v>
       </c>
-      <c r="AE4" s="34">
+      <c r="AE4" s="22">
         <f>[1]electric_razryad!$B$13</f>
         <v>46805.650471372763</v>
       </c>
-      <c r="AF4" s="34">
+      <c r="AF4" s="22">
         <f>[1]electric_razryad!$B$14</f>
         <v>70231.660312158536</v>
       </c>
-      <c r="AG4" s="34">
+      <c r="AG4" s="22">
         <f>[1]heaters_razryad!$B$9</f>
         <v>96.001088418326788</v>
       </c>
-      <c r="AH4" s="34">
+      <c r="AH4" s="22">
         <f>[1]heaters_razryad!$B$8</f>
         <v>25.360655953409221</v>
       </c>
-      <c r="AI4" s="34">
+      <c r="AI4" s="22">
         <f>[1]heaters_razryad!$B$10</f>
         <v>8.2522045847275081</v>
       </c>
-      <c r="AJ4" s="34">
-        <f t="shared" ref="AJ4:AJ10" si="2">AI4+AH4+AG4</f>
+      <c r="AJ4" s="22">
+        <f t="shared" ref="AJ4:AJ10" si="5">AI4+AH4+AG4</f>
         <v>129.6139489564635</v>
       </c>
-      <c r="AK4" s="34">
+      <c r="AK4" s="22">
         <f>[1]heaters_razryad!$B$18</f>
         <v>34175.183802657841</v>
       </c>
-      <c r="AL4" s="30">
-        <f t="shared" ref="AL4:AL10" si="3">AM4/((100*Z4)/X4-AJ4)</f>
+      <c r="AL4" s="18">
+        <f t="shared" ref="AL4:AL10" si="6">AM4/((100*Z4)/X4-AJ4)</f>
         <v>0.56867241128893453</v>
       </c>
-      <c r="AM4" s="36">
-        <f>Z4+AA4*$AW$2*$AW$3-AB4/$AW$1/$AW$2-AC4-AD4/$AW$1/$AW$2</f>
+      <c r="AM4" s="24">
+        <f t="shared" ref="AM4:AM11" si="7">Z4+AA4*$AW$2*$AW$3-AB4/$AW$1/$AW$2-AC4-AD4/$AW$1/$AW$2</f>
         <v>202.69964859178305</v>
       </c>
-      <c r="AN4" s="34">
-        <f>(-AE4/1000/$AW$2+AF4/1000)*$AW$2*$AW$3</f>
+      <c r="AN4" s="22">
+        <f t="shared" ref="AN4:AN11" si="8">(-AE4/1000/$AW$2+AF4/1000)*$AW$2*$AW$3</f>
         <v>22.269219372910904</v>
       </c>
-      <c r="AO4" s="35">
-        <f t="shared" ref="AO4:AO5" si="4">AM4+AN4</f>
+      <c r="AO4" s="23">
+        <f t="shared" ref="AO4:AO5" si="9">AM4+AN4</f>
         <v>224.96886796469394</v>
       </c>
-      <c r="AP4" s="35">
-        <f>AG4+AH4+AK4/1000</f>
+      <c r="AP4" s="23">
+        <f t="shared" ref="AP4:AP11" si="10">AG4+AH4+AK4/1000</f>
         <v>155.53692817439384</v>
       </c>
-      <c r="AQ4" s="30">
-        <f>ABS(AP4-T4)/T4*100</f>
+      <c r="AQ4" s="18">
+        <f t="shared" ref="AQ4:AQ11" si="11">ABS(AP4-T4)/T4*100</f>
         <v>0.1135855132263781</v>
       </c>
-      <c r="AR4" s="36">
+      <c r="AR4" s="24">
         <f>S4-'Без ПКМ'!B4</f>
         <v>-40.926090677898429</v>
       </c>
-      <c r="AS4" s="34">
+      <c r="AS4" s="22">
         <f>AO4-'Без ПКМ'!D4</f>
         <v>19.840755960079406</v>
       </c>
-      <c r="AT4" s="34">
+      <c r="AT4" s="22">
         <f>R4-'Без ПКМ'!C4</f>
         <v>-0.10451237342704145</v>
       </c>
-      <c r="AU4" s="35">
+      <c r="AU4" s="23">
         <f>AL4-'Без ПКМ'!E4</f>
         <v>-6.7481747478052689E-2</v>
       </c>
-      <c r="AV4" s="37" t="s">
+      <c r="AV4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AW4" s="37">
+      <c r="AW4" s="25">
         <v>50.2</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>-20</v>
       </c>
@@ -6660,7 +6730,7 @@
         <v>8.6880516496333708</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>131.23222600488484</v>
       </c>
       <c r="N5" s="4">
@@ -6668,15 +6738,15 @@
         <v>37247.253901891207</v>
       </c>
       <c r="R5" s="5">
-        <f>S5/((100*E5)/C5-M5)</f>
+        <f t="shared" si="2"/>
         <v>0.55842472246477093</v>
       </c>
       <c r="S5" s="3">
-        <f>E5+F5*$AW$2*$AW$3-G5/$AW$1/$AW$2-H5-I5/$AW$1/$AW$2</f>
+        <f t="shared" si="3"/>
         <v>154.85002702075624</v>
       </c>
       <c r="T5" s="5">
-        <f t="shared" ref="T5:T6" si="5">J5+K5+N5/1000</f>
+        <f t="shared" ref="T5:T6" si="12">J5+K5+N5/1000</f>
         <v>159.79142825714268</v>
       </c>
       <c r="U5" s="3">
@@ -6740,7 +6810,7 @@
         <v>8.3522753761501871</v>
       </c>
       <c r="AJ5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>133.53376997364813</v>
       </c>
       <c r="AK5" s="3">
@@ -6748,27 +6818,27 @@
         <v>34935.651089683932</v>
       </c>
       <c r="AL5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58349366712159445</v>
       </c>
       <c r="AM5" s="2">
-        <f>Z5+AA5*$AW$2*$AW$3-AB5/$AW$1/$AW$2-AC5-AD5/$AW$1/$AW$2</f>
+        <f t="shared" si="7"/>
         <v>205.62189260257009</v>
       </c>
       <c r="AN5" s="3">
-        <f>(-AE5/1000/$AW$2+AF5/1000)*$AW$2*$AW$3</f>
+        <f t="shared" si="8"/>
         <v>22.28302842899441</v>
       </c>
       <c r="AO5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>227.9049210315645</v>
       </c>
       <c r="AP5" s="4">
-        <f>AG5+AH5+AK5/1000</f>
+        <f t="shared" si="10"/>
         <v>160.11714568718187</v>
       </c>
       <c r="AQ5" s="5">
-        <f>ABS(AP5-T5)/T5*100</f>
+        <f t="shared" si="11"/>
         <v>0.20383911301864927</v>
       </c>
       <c r="AR5" s="2">
@@ -6788,152 +6858,152 @@
         <v>-6.808045775854088E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>-15</v>
       </c>
       <c r="B6" s="3">
-        <f>[8]gas_streams_zaryad!$E$13</f>
+        <f>[3]gas_streams_zaryad!$E$13</f>
         <v>0.71134101782417591</v>
       </c>
       <c r="C6" s="3">
-        <f>[8]electric_zaryad!$E$5</f>
+        <f>[3]electric_zaryad!$E$5</f>
         <v>31.458731191661371</v>
       </c>
       <c r="D6" s="3">
-        <f>[8]GTU_input_zaryad!$B$3</f>
+        <f>[3]GTU_input_zaryad!$B$3</f>
         <v>0.76868131988914024</v>
       </c>
       <c r="E6" s="3">
-        <f>[8]electric_zaryad!$C$5</f>
+        <f>[3]electric_zaryad!$C$5</f>
         <v>127.339747452835</v>
       </c>
       <c r="F6" s="3">
-        <f>[8]electric_zaryad!$B$7</f>
+        <f>[3]electric_zaryad!$B$7</f>
         <v>37.23191676958821</v>
       </c>
       <c r="G6" s="3">
-        <f>[8]electric_zaryad!$C$12</f>
+        <f>[3]electric_zaryad!$C$12</f>
         <v>4.5285748950354733E-2</v>
       </c>
       <c r="H6" s="3">
-        <f>[8]electric_zaryad!$C$6</f>
+        <f>[3]electric_zaryad!$C$6</f>
         <v>6.2200738927341543</v>
       </c>
       <c r="I6" s="3">
-        <f>[8]electric_zaryad!$C$2</f>
+        <f>[3]electric_zaryad!$C$2</f>
         <v>2.2701754270331391</v>
       </c>
       <c r="J6" s="3">
-        <f>[8]heaters_zaryad!$B$9</f>
+        <f>[3]heaters_zaryad!$B$9</f>
         <v>96.358985522808126</v>
       </c>
       <c r="K6" s="3">
-        <f>[8]heaters_zaryad!$B$8</f>
+        <f>[3]heaters_zaryad!$B$8</f>
         <v>26.064457090350022</v>
       </c>
       <c r="L6" s="3">
-        <f>[8]heaters_zaryad!$B$10</f>
+        <f>[3]heaters_zaryad!$B$10</f>
         <v>8.3297047434973699</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130.75314735665552</v>
       </c>
       <c r="N6" s="4">
-        <f>[8]heaters_zaryad!$B$17</f>
+        <f>[3]heaters_zaryad!$B$17</f>
         <v>37500.811256093039</v>
       </c>
       <c r="R6" s="5">
-        <f>S6/((100*E6)/C6-M6)</f>
+        <f t="shared" si="2"/>
         <v>0.56482846138644383</v>
       </c>
       <c r="S6" s="3">
-        <f>E6+F6*$AW$2*$AW$3-G6/$AW$1/$AW$2-H6-I6/$AW$1/$AW$2</f>
+        <f t="shared" si="3"/>
         <v>154.78013218604946</v>
       </c>
       <c r="T6" s="5">
+        <f t="shared" si="12"/>
+        <v>159.92425386925117</v>
+      </c>
+      <c r="U6" s="3">
+        <f>[3]syngas_streams_razryad!$E$10</f>
+        <v>1.0811111111111109</v>
+      </c>
+      <c r="V6" s="3">
+        <f>[3]syngas_streams_razryad!$E$9</f>
+        <v>3.2997870354208629</v>
+      </c>
+      <c r="W6" s="3">
+        <f>[3]accumulation_razryad!$E$3</f>
+        <v>23.54273504191962</v>
+      </c>
+      <c r="X6" s="3">
+        <f>[3]electric_razryad!$E$5</f>
+        <v>34.094845350390223</v>
+      </c>
+      <c r="Y6" s="3">
+        <f>[3]GTU_input_razryad!$B$3</f>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="3">
+        <f>[3]electric_razryad!$C$5</f>
+        <v>165.66</v>
+      </c>
+      <c r="AA6" s="3">
+        <f>[3]electric_razryad!$B$7</f>
+        <v>50.964653816995209</v>
+      </c>
+      <c r="AB6" s="3">
+        <f>[3]electric_razryad!$C$12</f>
+        <v>0.1673227525155109</v>
+      </c>
+      <c r="AC6" s="3">
+        <f>[3]electric_razryad!$C$6</f>
+        <v>6.3013810203264402</v>
+      </c>
+      <c r="AD6" s="3">
+        <f>[3]electric_razryad!$C$2</f>
+        <v>0.75083222444895148</v>
+      </c>
+      <c r="AE6" s="3">
+        <f>[3]electric_razryad!$B$13</f>
+        <v>46872.93802369092</v>
+      </c>
+      <c r="AF6" s="3">
+        <f>[3]electric_razryad!$B$14</f>
+        <v>70328.115386403413</v>
+      </c>
+      <c r="AG6" s="3">
+        <f>[3]heaters_razryad!$B$9</f>
+        <v>88.539377581739132</v>
+      </c>
+      <c r="AH6" s="3">
+        <f>[3]heaters_razryad!$B$8</f>
+        <v>36.237761261398433</v>
+      </c>
+      <c r="AI6" s="3">
+        <f>[3]heaters_razryad!$B$10</f>
+        <v>7.7741525158646239</v>
+      </c>
+      <c r="AJ6" s="3">
         <f t="shared" si="5"/>
-        <v>159.92425386925117</v>
-      </c>
-      <c r="U6" s="3">
-        <f>[8]syngas_streams_razryad!$E$10</f>
-        <v>1.0811111111111109</v>
-      </c>
-      <c r="V6" s="3">
-        <f>[8]syngas_streams_razryad!$E$9</f>
-        <v>3.2997870354208629</v>
-      </c>
-      <c r="W6" s="3">
-        <f>[8]accumulation_razryad!$E$3</f>
-        <v>23.54273504191962</v>
-      </c>
-      <c r="X6" s="3">
-        <f>[8]electric_razryad!$E$5</f>
-        <v>34.094845350390223</v>
-      </c>
-      <c r="Y6" s="3">
-        <f>[8]GTU_input_razryad!$B$3</f>
-        <v>1</v>
-      </c>
-      <c r="Z6" s="3">
-        <f>[8]electric_razryad!$C$5</f>
-        <v>165.66</v>
-      </c>
-      <c r="AA6" s="3">
-        <f>[8]electric_razryad!$B$7</f>
-        <v>50.964653816995209</v>
-      </c>
-      <c r="AB6" s="3">
-        <f>[8]electric_razryad!$C$12</f>
-        <v>0.1673227525155109</v>
-      </c>
-      <c r="AC6" s="3">
-        <f>[8]electric_razryad!$C$6</f>
-        <v>6.3013810203264402</v>
-      </c>
-      <c r="AD6" s="3">
-        <f>[8]electric_razryad!$C$2</f>
-        <v>0.75083222444895148</v>
-      </c>
-      <c r="AE6" s="3">
-        <f>[8]electric_razryad!$B$13</f>
-        <v>46872.93802369092</v>
-      </c>
-      <c r="AF6" s="3">
-        <f>[8]electric_razryad!$B$14</f>
-        <v>70328.115386403413</v>
-      </c>
-      <c r="AG6" s="3">
-        <f>[8]heaters_razryad!$B$9</f>
-        <v>88.539377581739132</v>
-      </c>
-      <c r="AH6" s="3">
-        <f>[8]heaters_razryad!$B$8</f>
-        <v>36.237761261398433</v>
-      </c>
-      <c r="AI6" s="3">
-        <f>[8]heaters_razryad!$B$10</f>
-        <v>7.7741525158646239</v>
-      </c>
-      <c r="AJ6" s="3">
-        <f t="shared" si="2"/>
         <v>132.55129135900219</v>
       </c>
       <c r="AK6" s="3">
-        <f>[8]heaters_razryad!$B$18</f>
+        <f>[3]heaters_razryad!$B$18</f>
         <v>35696.780361733843</v>
       </c>
       <c r="AL6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58820112650207035</v>
       </c>
       <c r="AM6" s="2">
-        <f>Z6+AA6*$AW$2*$AW$3-AB6/$AW$1/$AW$2-AC6-AD6/$AW$1/$AW$2</f>
+        <f t="shared" si="7"/>
         <v>207.82828477643699</v>
       </c>
       <c r="AN6" s="3">
-        <f>(-AE6/1000/$AW$2+AF6/1000)*$AW$2*$AW$3</f>
+        <f t="shared" si="8"/>
         <v>22.296858284671487</v>
       </c>
       <c r="AO6" s="4">
@@ -6941,11 +7011,11 @@
         <v>230.12514306110847</v>
       </c>
       <c r="AP6" s="4">
-        <f>AG6+AH6+AK6/1000</f>
+        <f t="shared" si="10"/>
         <v>160.47391920487141</v>
       </c>
       <c r="AQ6" s="5">
-        <f>ABS(AP6-T6)/T6*100</f>
+        <f t="shared" si="11"/>
         <v>0.3437035485997148</v>
       </c>
       <c r="AR6" s="2">
@@ -6965,152 +7035,152 @@
         <v>-7.173775367330848E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>-10</v>
       </c>
       <c r="B7" s="3">
-        <f>[3]gas_streams_zaryad!$E$13</f>
+        <f>[4]gas_streams_zaryad!$E$13</f>
         <v>0.71063142544819813</v>
       </c>
       <c r="C7" s="3">
-        <f>[3]electric_zaryad!$E$5</f>
+        <f>[4]electric_zaryad!$E$5</f>
         <v>31.29944166031521</v>
       </c>
       <c r="D7" s="3">
-        <f>[3]GTU_input_zaryad!$B$3</f>
+        <f>[4]GTU_input_zaryad!$B$3</f>
         <v>0.75790828802374832</v>
       </c>
       <c r="E7" s="3">
-        <f>[3]electric_zaryad!$C$5</f>
+        <f>[4]electric_zaryad!$C$5</f>
         <v>125.5550869940141</v>
       </c>
       <c r="F7" s="3">
-        <f>[3]electric_zaryad!$B$7</f>
+        <f>[4]electric_zaryad!$B$7</f>
         <v>39.052440069068602</v>
       </c>
       <c r="G7" s="3">
-        <f>[3]electric_zaryad!$C$12</f>
+        <f>[4]electric_zaryad!$C$12</f>
         <v>4.5276953195570388E-2</v>
       </c>
       <c r="H7" s="3">
-        <f>[3]electric_zaryad!$C$6</f>
+        <f>[4]electric_zaryad!$C$6</f>
         <v>6.2162872366974886</v>
       </c>
       <c r="I7" s="3">
-        <f>[3]electric_zaryad!$C$2</f>
+        <f>[4]electric_zaryad!$C$2</f>
         <v>2.2454277846408042</v>
       </c>
       <c r="J7" s="3">
-        <f>[3]heaters_zaryad!$B$9</f>
+        <f>[4]heaters_zaryad!$B$9</f>
         <v>91.216028486830311</v>
       </c>
       <c r="K7" s="3">
-        <f>[3]heaters_zaryad!$B$8</f>
+        <f>[4]heaters_zaryad!$B$8</f>
         <v>31.167319721717451</v>
       </c>
       <c r="L7" s="3">
-        <f>[3]heaters_zaryad!$B$10</f>
+        <f>[4]heaters_zaryad!$B$10</f>
         <v>7.8882429162743186</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130.27159112482207</v>
       </c>
       <c r="N7" s="4">
-        <f>[3]heaters_zaryad!$B$17</f>
+        <f>[4]heaters_zaryad!$B$17</f>
         <v>37760.524606367093</v>
       </c>
       <c r="R7" s="5">
-        <f>S7/((100*E7)/C7-M7)</f>
+        <f t="shared" si="2"/>
         <v>0.57146172271019657</v>
       </c>
       <c r="S7" s="3">
-        <f>E7+F7*$AW$2*$AW$3-G7/$AW$1/$AW$2-H7-I7/$AW$1/$AW$2</f>
+        <f t="shared" si="3"/>
         <v>154.79185272334624</v>
       </c>
       <c r="T7" s="5">
-        <f t="shared" ref="T7:T11" si="6">J7+K7+N7/1000</f>
+        <f t="shared" ref="T7:T11" si="13">J7+K7+N7/1000</f>
         <v>160.14387281491486</v>
       </c>
       <c r="U7" s="3">
-        <f>[3]syngas_streams_razryad!$E$10</f>
+        <f>[4]syngas_streams_razryad!$E$10</f>
         <v>1.0811111111111109</v>
       </c>
       <c r="V7" s="3">
-        <f>[3]syngas_streams_razryad!$E$9</f>
+        <f>[4]syngas_streams_razryad!$E$9</f>
         <v>3.2997870354208629</v>
       </c>
       <c r="W7" s="3">
-        <f>[3]accumulation_razryad!$E$3</f>
+        <f>[4]accumulation_razryad!$E$3</f>
         <v>23.54273504191962</v>
       </c>
       <c r="X7" s="3">
-        <f>[3]electric_razryad!$E$5</f>
+        <f>[4]electric_razryad!$E$5</f>
         <v>34.086911016241331</v>
       </c>
       <c r="Y7" s="3">
-        <f>[3]GTU_input_razryad!$B$3</f>
+        <f>[4]GTU_input_razryad!$B$3</f>
         <v>1</v>
       </c>
       <c r="Z7" s="3">
-        <f>[3]electric_razryad!$C$5</f>
+        <f>[4]electric_razryad!$C$5</f>
         <v>165.66</v>
       </c>
       <c r="AA7" s="3">
-        <f>[3]electric_razryad!$B$7</f>
+        <f>[4]electric_razryad!$B$7</f>
         <v>52.9828103218236</v>
       </c>
       <c r="AB7" s="3">
-        <f>[3]electric_razryad!$C$12</f>
+        <f>[4]electric_razryad!$C$12</f>
         <v>0.16830757799976401</v>
       </c>
       <c r="AC7" s="3">
-        <f>[3]electric_razryad!$C$6</f>
+        <f>[4]electric_razryad!$C$6</f>
         <v>6.3013810203264402</v>
       </c>
       <c r="AD7" s="3">
-        <f>[3]electric_razryad!$C$2</f>
+        <f>[4]electric_razryad!$C$2</f>
         <v>0.67213483113811467</v>
       </c>
       <c r="AE7" s="3">
-        <f>[3]electric_razryad!$B$13</f>
+        <f>[4]electric_razryad!$B$13</f>
         <v>46906.656904943753</v>
       </c>
       <c r="AF7" s="3">
-        <f>[3]electric_razryad!$B$14</f>
+        <f>[4]electric_razryad!$B$14</f>
         <v>70376.450574922987</v>
       </c>
       <c r="AG7" s="3">
-        <f>[3]heaters_razryad!$B$9</f>
+        <f>[4]heaters_razryad!$B$9</f>
         <v>80.830694793148695</v>
       </c>
       <c r="AH7" s="3">
-        <f>[3]heaters_razryad!$B$8</f>
+        <f>[4]heaters_razryad!$B$8</f>
         <v>43.651463736241517</v>
       </c>
       <c r="AI7" s="3">
-        <f>[3]heaters_razryad!$B$10</f>
+        <f>[4]heaters_razryad!$B$10</f>
         <v>7.0883928814862873</v>
       </c>
       <c r="AJ7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>131.5705514108765</v>
       </c>
       <c r="AK7" s="3">
-        <f>[3]heaters_razryad!$B$18</f>
+        <f>[4]heaters_razryad!$B$18</f>
         <v>36458.587320236467</v>
       </c>
       <c r="AL7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.5921434507707195</v>
       </c>
       <c r="AM7" s="2">
-        <f>Z7+AA7*$AW$2*$AW$3-AB7/$AW$1/$AW$2-AC7-AD7/$AW$1/$AW$2</f>
+        <f t="shared" si="7"/>
         <v>209.86892921032589</v>
       </c>
       <c r="AN7" s="3">
-        <f>(-AE7/1000/$AW$2+AF7/1000)*$AW$2*$AW$3</f>
+        <f t="shared" si="8"/>
         <v>22.310708580945402</v>
       </c>
       <c r="AO7" s="4">
@@ -7118,11 +7188,11 @@
         <v>232.17963779127129</v>
       </c>
       <c r="AP7" s="4">
-        <f>AG7+AH7+AK7/1000</f>
+        <f t="shared" si="10"/>
         <v>160.94074584962667</v>
       </c>
       <c r="AQ7" s="5">
-        <f>ABS(AP7-T7)/T7*100</f>
+        <f t="shared" si="11"/>
         <v>0.49759820385559711</v>
       </c>
       <c r="AR7" s="2">
@@ -7142,164 +7212,164 @@
         <v>-7.5369022154566423E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>-5</v>
       </c>
       <c r="B8" s="3">
-        <f>[4]gas_streams_zaryad!$E$13</f>
+        <f>[5]gas_streams_zaryad!$E$13</f>
         <v>0.70993860893911531</v>
       </c>
       <c r="C8" s="3">
-        <f>[4]electric_zaryad!$E$5</f>
+        <f>[5]electric_zaryad!$E$5</f>
         <v>31.205021333878399</v>
       </c>
       <c r="D8" s="3">
-        <f>[4]GTU_input_zaryad!$B$3</f>
+        <f>[5]GTU_input_zaryad!$B$3</f>
         <v>0.75283419695073128</v>
       </c>
       <c r="E8" s="3">
-        <f>[4]electric_zaryad!$C$5</f>
+        <f>[5]electric_zaryad!$C$5</f>
         <v>124.7145130668581</v>
       </c>
       <c r="F8" s="3">
-        <f>[4]electric_zaryad!$B$7</f>
+        <f>[5]electric_zaryad!$B$7</f>
         <v>40.964032612645241</v>
       </c>
       <c r="G8" s="3">
-        <f>[4]electric_zaryad!$C$12</f>
+        <f>[5]electric_zaryad!$C$12</f>
         <v>4.5159035280647797E-2</v>
       </c>
       <c r="H8" s="3">
-        <f>[4]electric_zaryad!$C$6</f>
+        <f>[5]electric_zaryad!$C$6</f>
         <v>6.2145037241420358</v>
       </c>
       <c r="I8" s="3">
-        <f>[4]electric_zaryad!$C$2</f>
+        <f>[5]electric_zaryad!$C$2</f>
         <v>2.1398318723075911</v>
       </c>
       <c r="J8" s="3">
-        <f>[4]heaters_zaryad!$B$9</f>
+        <f>[5]heaters_zaryad!$B$9</f>
         <v>84.912752550054662</v>
       </c>
       <c r="K8" s="3">
-        <f>[4]heaters_zaryad!$B$8</f>
+        <f>[5]heaters_zaryad!$B$8</f>
         <v>37.504893479603169</v>
       </c>
       <c r="L8" s="3">
-        <f>[4]heaters_zaryad!$B$10</f>
+        <f>[5]heaters_zaryad!$B$10</f>
         <v>7.3420635794609836</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>129.75970960911883</v>
       </c>
       <c r="N8" s="4">
-        <f>[4]heaters_zaryad!$B$17</f>
+        <f>[5]heaters_zaryad!$B$17</f>
         <v>38054.15160346339</v>
       </c>
       <c r="R8" s="5">
-        <f>S8/((100*E8)/C8-M8)</f>
+        <f t="shared" si="2"/>
         <v>0.5776915591474574</v>
       </c>
       <c r="S8" s="3">
-        <f>E8+F8*$AW$2*$AW$3-G8/$AW$1/$AW$2-H8-I8/$AW$1/$AW$2</f>
+        <f t="shared" si="3"/>
         <v>155.92009112790825</v>
       </c>
       <c r="T8" s="5">
-        <f t="shared" ref="T8" si="7">J8+K8+N8/1000</f>
+        <f t="shared" ref="T8" si="14">J8+K8+N8/1000</f>
         <v>160.47179763312121</v>
       </c>
       <c r="U8" s="3">
-        <f>[4]syngas_streams_razryad!$E$10</f>
+        <f>[5]syngas_streams_razryad!$E$10</f>
         <v>1.0811111111111109</v>
       </c>
       <c r="V8" s="3">
-        <f>[4]syngas_streams_razryad!$E$9</f>
+        <f>[5]syngas_streams_razryad!$E$9</f>
         <v>3.299969266969438</v>
       </c>
       <c r="W8" s="3">
-        <f>[4]accumulation_razryad!$E$3</f>
+        <f>[5]accumulation_razryad!$E$3</f>
         <v>23.541755779113611</v>
       </c>
       <c r="X8" s="3">
-        <f>[4]electric_razryad!$E$5</f>
+        <f>[5]electric_razryad!$E$5</f>
         <v>34.061064584346838</v>
       </c>
       <c r="Y8" s="3">
-        <f>[4]GTU_input_razryad!$B$3</f>
+        <f>[5]GTU_input_razryad!$B$3</f>
         <v>1</v>
       </c>
       <c r="Z8" s="3">
-        <f>[4]electric_razryad!$C$5</f>
+        <f>[5]electric_razryad!$C$5</f>
         <v>165.66</v>
       </c>
       <c r="AA8" s="3">
-        <f>[4]electric_razryad!$B$7</f>
+        <f>[5]electric_razryad!$B$7</f>
         <v>55.1345308840027</v>
       </c>
       <c r="AB8" s="3">
-        <f>[4]electric_razryad!$C$12</f>
+        <f>[5]electric_razryad!$C$12</f>
         <v>0.17496310407698751</v>
       </c>
       <c r="AC8" s="3">
-        <f>[4]electric_razryad!$C$6</f>
+        <f>[5]electric_razryad!$C$6</f>
         <v>6.3013810203264402</v>
       </c>
       <c r="AD8" s="3">
-        <f>[4]electric_razryad!$C$2</f>
+        <f>[5]electric_razryad!$C$2</f>
         <v>0.68227028424089209</v>
       </c>
       <c r="AE8" s="3">
-        <f>[4]electric_razryad!$B$13</f>
+        <f>[5]electric_razryad!$B$13</f>
         <v>46940.901942022218</v>
       </c>
       <c r="AF8" s="3">
-        <f>[4]electric_razryad!$B$14</f>
+        <f>[5]electric_razryad!$B$14</f>
         <v>70425.696351193052</v>
       </c>
       <c r="AG8" s="3">
-        <f>[4]heaters_razryad!$B$9</f>
+        <f>[5]heaters_razryad!$B$9</f>
         <v>71.531359508734809</v>
       </c>
       <c r="AH8" s="3">
-        <f>[4]heaters_razryad!$B$8</f>
+        <f>[5]heaters_razryad!$B$8</f>
         <v>52.806188804744309</v>
       </c>
       <c r="AI8" s="3">
-        <f>[4]heaters_razryad!$B$10</f>
+        <f>[5]heaters_razryad!$B$10</f>
         <v>6.2535765942739463</v>
       </c>
       <c r="AJ8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>130.59112490775306</v>
       </c>
       <c r="AK8" s="3">
-        <f>[4]heaters_razryad!$B$18</f>
+        <f>[5]heaters_razryad!$B$18</f>
         <v>37221.556971155369</v>
       </c>
       <c r="AL8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.59571713467012144</v>
       </c>
       <c r="AM8" s="2">
-        <f>Z8+AA8*$AW$2*$AW$3-AB8/$AW$1/$AW$2-AC8-AD8/$AW$1/$AW$2</f>
+        <f t="shared" si="7"/>
         <v>211.93867525235171</v>
       </c>
       <c r="AN8" s="3">
-        <f>(-AE8/1000/$AW$2+AF8/1000)*$AW$2*$AW$3</f>
+        <f t="shared" si="8"/>
         <v>22.324926696745731</v>
       </c>
       <c r="AO8" s="4">
-        <f t="shared" ref="AO8:AO11" si="8">AM8+AN8</f>
+        <f t="shared" ref="AO8:AO11" si="15">AM8+AN8</f>
         <v>234.26360194909745</v>
       </c>
       <c r="AP8" s="4">
-        <f>AG8+AH8+AK8/1000</f>
+        <f t="shared" si="10"/>
         <v>161.55910528463448</v>
       </c>
       <c r="AQ8" s="5">
-        <f>ABS(AP8-T8)/T8*100</f>
+        <f t="shared" si="11"/>
         <v>0.67756930971704388</v>
       </c>
       <c r="AR8" s="2">
@@ -7319,164 +7389,164 @@
         <v>-7.726638069848013E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>0</v>
       </c>
       <c r="B9" s="3">
-        <f>[5]gas_streams_zaryad!$E$13</f>
+        <f>[6]gas_streams_zaryad!$E$13</f>
         <v>0.70901733759693952</v>
       </c>
       <c r="C9" s="3">
-        <f>[5]electric_zaryad!$E$5</f>
+        <f>[6]electric_zaryad!$E$5</f>
         <v>31.124278891401509</v>
       </c>
       <c r="D9" s="3">
-        <f>[5]GTU_input_zaryad!$B$3</f>
+        <f>[6]GTU_input_zaryad!$B$3</f>
         <v>0.75023929613308304</v>
       </c>
       <c r="E9" s="3">
-        <f>[5]electric_zaryad!$C$5</f>
+        <f>[6]electric_zaryad!$C$5</f>
         <v>123.2677674554277</v>
       </c>
       <c r="F9" s="3">
-        <f>[5]electric_zaryad!$B$7</f>
+        <f>[6]electric_zaryad!$B$7</f>
         <v>42.438703038134733</v>
       </c>
       <c r="G9" s="3">
-        <f>[5]electric_zaryad!$C$12</f>
+        <f>[6]electric_zaryad!$C$12</f>
         <v>4.526098854146849E-2</v>
       </c>
       <c r="H9" s="3">
-        <f>[5]electric_zaryad!$C$6</f>
+        <f>[6]electric_zaryad!$C$6</f>
         <v>6.2114340489127979</v>
       </c>
       <c r="I9" s="3">
-        <f>[5]electric_zaryad!$C$2</f>
+        <f>[6]electric_zaryad!$C$2</f>
         <v>2.1096670661759429</v>
       </c>
       <c r="J9" s="3">
-        <f>[5]heaters_zaryad!$B$9</f>
+        <f>[6]heaters_zaryad!$B$9</f>
         <v>77.748785912801054</v>
       </c>
       <c r="K9" s="3">
-        <f>[5]heaters_zaryad!$B$8</f>
+        <f>[6]heaters_zaryad!$B$8</f>
         <v>44.823008190549032</v>
       </c>
       <c r="L9" s="3">
-        <f>[5]heaters_zaryad!$B$10</f>
+        <f>[6]heaters_zaryad!$B$10</f>
         <v>6.7112028459728013</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>129.28299694932289</v>
       </c>
       <c r="N9" s="4">
-        <f>[5]heaters_zaryad!$B$17</f>
+        <f>[6]heaters_zaryad!$B$17</f>
         <v>38316.010878021007</v>
       </c>
       <c r="R9" s="5">
-        <f>S9/((100*E9)/C9-M9)</f>
+        <f t="shared" si="2"/>
         <v>0.58455127141757934</v>
       </c>
       <c r="S9" s="3">
-        <f>E9+F9*$AW$2*$AW$3-G9/$AW$1/$AW$2-H9-I9/$AW$1/$AW$2</f>
+        <f t="shared" si="3"/>
         <v>155.93910519436054</v>
       </c>
       <c r="T9" s="5">
-        <f t="shared" ref="T9" si="9">J9+K9+N9/1000</f>
+        <f t="shared" ref="T9" si="16">J9+K9+N9/1000</f>
         <v>160.88780498137109</v>
       </c>
       <c r="U9" s="3">
-        <f>[5]syngas_streams_razryad!$E$10</f>
+        <f>[6]syngas_streams_razryad!$E$10</f>
         <v>1.0811111111111109</v>
       </c>
       <c r="V9" s="3">
-        <f>[5]syngas_streams_razryad!$E$9</f>
+        <f>[6]syngas_streams_razryad!$E$9</f>
         <v>3.3021674120840272</v>
       </c>
       <c r="W9" s="3">
-        <f>[5]accumulation_razryad!$E$3</f>
+        <f>[6]accumulation_razryad!$E$3</f>
         <v>23.529949959524259</v>
       </c>
       <c r="X9" s="3">
-        <f>[5]electric_razryad!$E$5</f>
+        <f>[6]electric_razryad!$E$5</f>
         <v>34.012096926621403</v>
       </c>
       <c r="Y9" s="3">
-        <f>[5]GTU_input_razryad!$B$3</f>
+        <f>[6]GTU_input_razryad!$B$3</f>
         <v>1</v>
       </c>
       <c r="Z9" s="3">
-        <f>[5]electric_razryad!$C$5</f>
+        <f>[6]electric_razryad!$C$5</f>
         <v>164.30459999999999</v>
       </c>
       <c r="AA9" s="3">
-        <f>[5]electric_razryad!$B$7</f>
+        <f>[6]electric_razryad!$B$7</f>
         <v>56.270696192646021</v>
       </c>
       <c r="AB9" s="3">
-        <f>[5]electric_razryad!$C$12</f>
+        <f>[6]electric_razryad!$C$12</f>
         <v>0.18210954190544321</v>
       </c>
       <c r="AC9" s="3">
-        <f>[5]electric_razryad!$C$6</f>
+        <f>[6]electric_razryad!$C$6</f>
         <v>6.2985051603460569</v>
       </c>
       <c r="AD9" s="3">
-        <f>[5]electric_razryad!$C$2</f>
+        <f>[6]electric_razryad!$C$2</f>
         <v>0.68637606977659871</v>
       </c>
       <c r="AE9" s="3">
-        <f>[5]electric_razryad!$B$13</f>
+        <f>[6]electric_razryad!$B$13</f>
         <v>46980.4884467429</v>
       </c>
       <c r="AF9" s="3">
-        <f>[5]electric_razryad!$B$14</f>
+        <f>[6]electric_razryad!$B$14</f>
         <v>70484.328694481112</v>
       </c>
       <c r="AG9" s="3">
-        <f>[5]heaters_razryad!$B$9</f>
+        <f>[6]heaters_razryad!$B$9</f>
         <v>61.494723626158979</v>
       </c>
       <c r="AH9" s="3">
-        <f>[5]heaters_razryad!$B$8</f>
+        <f>[6]heaters_razryad!$B$8</f>
         <v>62.775052202136543</v>
       </c>
       <c r="AI9" s="3">
-        <f>[5]heaters_razryad!$B$10</f>
+        <f>[6]heaters_razryad!$B$10</f>
         <v>5.3384663770733489</v>
       </c>
       <c r="AJ9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>129.60824220536887</v>
       </c>
       <c r="AK9" s="3">
-        <f>[5]heaters_razryad!$B$18</f>
+        <f>[6]heaters_razryad!$B$18</f>
         <v>37990.554441752858</v>
       </c>
       <c r="AL9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.59885497855305392</v>
       </c>
       <c r="AM9" s="2">
-        <f>Z9+AA9*$AW$2*$AW$3-AB9/$AW$1/$AW$2-AC9-AD9/$AW$1/$AW$2</f>
+        <f t="shared" si="7"/>
         <v>211.67649460826624</v>
       </c>
       <c r="AN9" s="3">
-        <f>(-AE9/1000/$AW$2+AF9/1000)*$AW$2*$AW$3</f>
+        <f t="shared" si="8"/>
         <v>22.34301702157752</v>
       </c>
       <c r="AO9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>234.01951162984375</v>
       </c>
       <c r="AP9" s="4">
-        <f>AG9+AH9+AK9/1000</f>
+        <f t="shared" si="10"/>
         <v>162.26033027004837</v>
       </c>
       <c r="AQ9" s="5">
-        <f>ABS(AP9-T9)/T9*100</f>
+        <f t="shared" si="11"/>
         <v>0.85309466981428639</v>
       </c>
       <c r="AR9" s="2">
@@ -7496,164 +7566,164 @@
         <v>-7.9977645554130894E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="3">
-        <f>[6]gas_streams_zaryad!$E$13</f>
+        <f>[7]gas_streams_zaryad!$E$13</f>
         <v>0.70785990635028306</v>
       </c>
       <c r="C10" s="3">
-        <f>[6]electric_zaryad!$E$5</f>
+        <f>[7]electric_zaryad!$E$5</f>
         <v>31.045227993859861</v>
       </c>
       <c r="D10" s="3">
-        <f>[6]GTU_input_zaryad!$B$3</f>
+        <f>[7]GTU_input_zaryad!$B$3</f>
         <v>0.75657269828405382</v>
       </c>
       <c r="E10" s="3">
-        <f>[6]electric_zaryad!$C$5</f>
+        <f>[7]electric_zaryad!$C$5</f>
         <v>120.89017911163479</v>
       </c>
       <c r="F10" s="3">
-        <f>[6]electric_zaryad!$B$7</f>
+        <f>[7]electric_zaryad!$B$7</f>
         <v>43.266955643958177</v>
       </c>
       <c r="G10" s="3">
-        <f>[6]electric_zaryad!$C$12</f>
+        <f>[7]electric_zaryad!$C$12</f>
         <v>4.528821887511094E-2</v>
       </c>
       <c r="H10" s="3">
-        <f>[6]electric_zaryad!$C$6</f>
+        <f>[7]electric_zaryad!$C$6</f>
         <v>6.2063893306246607</v>
       </c>
       <c r="I10" s="3">
-        <f>[6]electric_zaryad!$C$2</f>
+        <f>[7]electric_zaryad!$C$2</f>
         <v>2.1476495720356961</v>
       </c>
       <c r="J10" s="3">
-        <f>[6]heaters_zaryad!$B$9</f>
+        <f>[7]heaters_zaryad!$B$9</f>
         <v>70.094284208258841</v>
       </c>
       <c r="K10" s="3">
-        <f>[6]heaters_zaryad!$B$8</f>
+        <f>[7]heaters_zaryad!$B$8</f>
         <v>52.716748612278799</v>
       </c>
       <c r="L10" s="3">
-        <f>[6]heaters_zaryad!$B$10</f>
+        <f>[7]heaters_zaryad!$B$10</f>
         <v>6.0236950035889212</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>128.83472782412656</v>
       </c>
       <c r="N10" s="4">
-        <f>[6]heaters_zaryad!$B$17</f>
+        <f>[7]heaters_zaryad!$B$17</f>
         <v>38552.905210983678</v>
       </c>
       <c r="R10" s="5">
-        <f>S10/((100*E10)/C10-M10)</f>
+        <f t="shared" si="2"/>
         <v>0.59228768135324905</v>
       </c>
       <c r="S10" s="3">
-        <f>E10+F10*$AW$2*$AW$3-G10/$AW$1/$AW$2-H10-I10/$AW$1/$AW$2</f>
+        <f t="shared" si="3"/>
         <v>154.32971785447555</v>
       </c>
       <c r="T10" s="5">
+        <f t="shared" si="13"/>
+        <v>161.36393803152131</v>
+      </c>
+      <c r="U10" s="3">
+        <f>[7]syngas_streams_razryad!$E$10</f>
+        <v>1.0811111111111109</v>
+      </c>
+      <c r="V10" s="3">
+        <f>[7]syngas_streams_razryad!$E$9</f>
+        <v>3.3046748619762809</v>
+      </c>
+      <c r="W10" s="3">
+        <f>[7]accumulation_razryad!$E$3</f>
+        <v>23.516497371811869</v>
+      </c>
+      <c r="X10" s="3">
+        <f>[7]electric_razryad!$E$5</f>
+        <v>33.830241541168107</v>
+      </c>
+      <c r="Y10" s="3">
+        <f>[7]GTU_input_razryad!$B$3</f>
+        <v>1</v>
+      </c>
+      <c r="Z10" s="3">
+        <f>[7]electric_razryad!$C$5</f>
+        <v>159.78659999999999</v>
+      </c>
+      <c r="AA10" s="3">
+        <f>[7]electric_razryad!$B$7</f>
+        <v>56.418946753975092</v>
+      </c>
+      <c r="AB10" s="3">
+        <f>[7]electric_razryad!$C$12</f>
+        <v>0.18436488325896899</v>
+      </c>
+      <c r="AC10" s="3">
+        <f>[7]electric_razryad!$C$6</f>
+        <v>6.2889189604114444</v>
+      </c>
+      <c r="AD10" s="3">
+        <f>[7]electric_razryad!$C$2</f>
+        <v>0.68210216419822856</v>
+      </c>
+      <c r="AE10" s="3">
+        <f>[7]electric_razryad!$B$13</f>
+        <v>47020.960838040402</v>
+      </c>
+      <c r="AF10" s="3">
+        <f>[7]electric_razryad!$B$14</f>
+        <v>70544.4962427422</v>
+      </c>
+      <c r="AG10" s="3">
+        <f>[7]heaters_razryad!$B$9</f>
+        <v>68.068271325910587</v>
+      </c>
+      <c r="AH10" s="3">
+        <f>[7]heaters_razryad!$B$8</f>
+        <v>54.68365135312699</v>
+      </c>
+      <c r="AI10" s="3">
+        <f>[7]heaters_razryad!$B$10</f>
+        <v>5.8743657685470749</v>
+      </c>
+      <c r="AJ10" s="3">
+        <f t="shared" si="5"/>
+        <v>128.62628844758464</v>
+      </c>
+      <c r="AK10" s="3">
+        <f>[7]heaters_razryad!$B$18</f>
+        <v>38761.340808871377</v>
+      </c>
+      <c r="AL10" s="5">
         <f t="shared" si="6"/>
-        <v>161.36393803152131</v>
-      </c>
-      <c r="U10" s="3">
-        <f>[6]syngas_streams_razryad!$E$10</f>
-        <v>1.0811111111111109</v>
-      </c>
-      <c r="V10" s="3">
-        <f>[6]syngas_streams_razryad!$E$9</f>
-        <v>3.3046748619762809</v>
-      </c>
-      <c r="W10" s="3">
-        <f>[6]accumulation_razryad!$E$3</f>
-        <v>23.516497371811869</v>
-      </c>
-      <c r="X10" s="3">
-        <f>[6]electric_razryad!$E$5</f>
-        <v>33.830241541168107</v>
-      </c>
-      <c r="Y10" s="3">
-        <f>[6]GTU_input_razryad!$B$3</f>
-        <v>1</v>
-      </c>
-      <c r="Z10" s="3">
-        <f>[6]electric_razryad!$C$5</f>
-        <v>159.78659999999999</v>
-      </c>
-      <c r="AA10" s="3">
-        <f>[6]electric_razryad!$B$7</f>
-        <v>56.418946753975092</v>
-      </c>
-      <c r="AB10" s="3">
-        <f>[6]electric_razryad!$C$12</f>
-        <v>0.18436488325896899</v>
-      </c>
-      <c r="AC10" s="3">
-        <f>[6]electric_razryad!$C$6</f>
-        <v>6.2889189604114444</v>
-      </c>
-      <c r="AD10" s="3">
-        <f>[6]electric_razryad!$C$2</f>
-        <v>0.68210216419822856</v>
-      </c>
-      <c r="AE10" s="3">
-        <f>[6]electric_razryad!$B$13</f>
-        <v>47020.960838040402</v>
-      </c>
-      <c r="AF10" s="3">
-        <f>[6]electric_razryad!$B$14</f>
-        <v>70544.4962427422</v>
-      </c>
-      <c r="AG10" s="3">
-        <f>[6]heaters_razryad!$B$9</f>
-        <v>68.068271325910587</v>
-      </c>
-      <c r="AH10" s="3">
-        <f>[6]heaters_razryad!$B$8</f>
-        <v>54.68365135312699</v>
-      </c>
-      <c r="AI10" s="3">
-        <f>[6]heaters_razryad!$B$10</f>
-        <v>5.8743657685470749</v>
-      </c>
-      <c r="AJ10" s="3">
-        <f t="shared" si="2"/>
-        <v>128.62628844758464</v>
-      </c>
-      <c r="AK10" s="3">
-        <f>[6]heaters_razryad!$B$18</f>
-        <v>38761.340808871377</v>
-      </c>
-      <c r="AL10" s="5">
-        <f t="shared" si="3"/>
         <v>0.60319627733585757</v>
       </c>
       <c r="AM10" s="2">
-        <f>Z10+AA10*$AW$2*$AW$3-AB10/$AW$1/$AW$2-AC10-AD10/$AW$1/$AW$2</f>
+        <f t="shared" si="7"/>
         <v>207.3140597699207</v>
       </c>
       <c r="AN10" s="3">
-        <f>(-AE10/1000/$AW$2+AF10/1000)*$AW$2*$AW$3</f>
+        <f t="shared" si="8"/>
         <v>22.361728633428882</v>
       </c>
       <c r="AO10" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>229.6757884033496</v>
       </c>
       <c r="AP10" s="4">
-        <f>AG10+AH10+AK10/1000</f>
+        <f t="shared" si="10"/>
         <v>161.51326348790894</v>
       </c>
       <c r="AQ10" s="5">
-        <f>ABS(AP10-T10)/T10*100</f>
+        <f t="shared" si="11"/>
         <v>9.2539546449628349E-2</v>
       </c>
       <c r="AR10" s="2">
@@ -7673,52 +7743,52 @@
         <v>-8.2510975568018341E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11" s="3">
-        <f>[7]gas_streams_zaryad!$E$13</f>
+        <f>[8]gas_streams_zaryad!$E$13</f>
         <v>0.70702938668410387</v>
       </c>
       <c r="C11" s="3">
-        <f>[7]electric_zaryad!$E$5</f>
+        <f>[8]electric_zaryad!$E$5</f>
         <v>30.932710161276461</v>
       </c>
       <c r="D11" s="3">
-        <f>[7]GTU_input_zaryad!$B$3</f>
+        <f>[8]GTU_input_zaryad!$B$3</f>
         <v>0.7570004179963562</v>
       </c>
       <c r="E11" s="3">
-        <f>[7]electric_zaryad!$C$5</f>
+        <f>[8]electric_zaryad!$C$5</f>
         <v>118.90644625711199</v>
       </c>
       <c r="F11" s="3">
-        <f>[7]electric_zaryad!$B$7</f>
+        <f>[8]electric_zaryad!$B$7</f>
         <v>43.197073067345393</v>
       </c>
       <c r="G11" s="3">
-        <f>[7]electric_zaryad!$C$12</f>
+        <f>[8]electric_zaryad!$C$12</f>
         <v>4.5203828953687838E-2</v>
       </c>
       <c r="H11" s="3">
-        <f>[7]electric_zaryad!$C$6</f>
+        <f>[8]electric_zaryad!$C$6</f>
         <v>6.2021802868530109</v>
       </c>
       <c r="I11" s="3">
-        <f>[7]electric_zaryad!$C$2</f>
+        <f>[8]electric_zaryad!$C$2</f>
         <v>2.218992303191158</v>
       </c>
       <c r="J11" s="3">
-        <f>[7]heaters_zaryad!$B$9</f>
+        <f>[8]heaters_zaryad!$B$9</f>
         <v>68.057172114173198</v>
       </c>
       <c r="K11" s="3">
-        <f>[7]heaters_zaryad!$B$8</f>
+        <f>[8]heaters_zaryad!$B$8</f>
         <v>54.274291142549203</v>
       </c>
       <c r="L11" s="3">
-        <f>[7]heaters_zaryad!$B$10</f>
+        <f>[8]heaters_zaryad!$B$10</f>
         <v>5.8243396666219551</v>
       </c>
       <c r="M11" s="3">
@@ -7726,91 +7796,91 @@
         <v>128.15580292334437</v>
       </c>
       <c r="N11" s="4">
-        <f>[7]heaters_zaryad!$B$17</f>
+        <f>[8]heaters_zaryad!$B$17</f>
         <v>38575.430000910041</v>
       </c>
       <c r="O11" s="3">
-        <f>[7]heaters_zaryad!$B$11</f>
+        <f>[8]heaters_zaryad!$B$11</f>
         <v>34723.390365586492</v>
       </c>
       <c r="P11" s="3">
-        <f>[7]gas_streams_zaryad!$E$4</f>
+        <f>[8]gas_streams_zaryad!$E$4</f>
         <v>13.57297754204483</v>
       </c>
       <c r="Q11" s="4" t="e">
-        <f>[9]!PropsSI("H","P",[7]gas_streams_zaryad!$C$4,"T",C3+273.15,"REFPROP::"&amp;[9]!MixtureString($Q$45:$Q$49,$S$45:$S$49))/1000</f>
+        <f>[9]!PropsSI("H","P",[8]gas_streams_zaryad!$C$4,"T",C3+273.15,"REFPROP::"&amp;[9]!MixtureString($Q$45:$Q$49,$S$45:$S$49))/1000</f>
         <v>#VALUE!</v>
       </c>
       <c r="R11" s="5">
-        <f>S11/((100*E11)/C11-M11)</f>
+        <f t="shared" si="2"/>
         <v>0.59398222816831014</v>
       </c>
       <c r="S11" s="3">
-        <f>E11+F11*$AW$2*$AW$3-G11/$AW$1/$AW$2-H11-I11/$AW$1/$AW$2</f>
+        <f t="shared" si="3"/>
         <v>152.20662752320138</v>
       </c>
       <c r="T11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>160.90689325763245</v>
       </c>
       <c r="U11" s="3">
-        <f>[7]syngas_streams_razryad!$E$10</f>
+        <f>[8]syngas_streams_razryad!$E$10</f>
         <v>1.0811111111111109</v>
       </c>
       <c r="V11" s="3">
-        <f>[7]syngas_streams_razryad!$E$9</f>
+        <f>[8]syngas_streams_razryad!$E$9</f>
         <v>3.3063876685570008</v>
       </c>
       <c r="W11" s="3">
-        <f>[7]accumulation_razryad!$E$3</f>
+        <f>[8]accumulation_razryad!$E$3</f>
         <v>23.507316922203401</v>
       </c>
       <c r="X11" s="3">
-        <f>[7]electric_razryad!$E$5</f>
+        <f>[8]electric_razryad!$E$5</f>
         <v>33.701191319931901</v>
       </c>
       <c r="Y11" s="3">
-        <f>[7]GTU_input_razryad!$B$3</f>
+        <f>[8]GTU_input_razryad!$B$3</f>
         <v>1</v>
       </c>
       <c r="Z11" s="3">
-        <f>[7]electric_razryad!$C$5</f>
+        <f>[8]electric_razryad!$C$5</f>
         <v>157.07579999999999</v>
       </c>
       <c r="AA11" s="3">
-        <f>[7]electric_razryad!$B$7</f>
+        <f>[8]electric_razryad!$B$7</f>
         <v>56.218297357186671</v>
       </c>
       <c r="AB11" s="3">
-        <f>[7]electric_razryad!$C$12</f>
+        <f>[8]electric_razryad!$C$12</f>
         <v>0.18422182343673671</v>
       </c>
       <c r="AC11" s="3">
-        <f>[7]electric_razryad!$C$6</f>
+        <f>[8]electric_razryad!$C$6</f>
         <v>6.2831672404506769</v>
       </c>
       <c r="AD11" s="3">
-        <f>[7]electric_razryad!$C$2</f>
+        <f>[8]electric_razryad!$C$2</f>
         <v>0.67826093050990566</v>
       </c>
       <c r="AE11" s="3">
-        <f>[7]electric_razryad!$B$13</f>
+        <f>[8]electric_razryad!$B$13</f>
         <v>47045.827872736598</v>
       </c>
       <c r="AF11" s="3">
-        <f>[7]electric_razryad!$B$14</f>
+        <f>[8]electric_razryad!$B$14</f>
         <v>70581.612049136616</v>
       </c>
       <c r="AG11" s="3">
-        <f>[7]heaters_razryad!$B$9</f>
+        <f>[8]heaters_razryad!$B$9</f>
         <v>70.038534104258559</v>
       </c>
       <c r="AH11" s="3">
-        <f>[7]heaters_razryad!$B$8</f>
+        <f>[8]heaters_razryad!$B$8</f>
         <v>51.744344524636027</v>
       </c>
       <c r="AI11" s="3">
-        <f>[7]heaters_razryad!$B$10</f>
+        <f>[8]heaters_razryad!$B$10</f>
         <v>6.0195429881068963</v>
       </c>
       <c r="AJ11" s="3">
@@ -7818,7 +7888,7 @@
         <v>127.80242161700149</v>
       </c>
       <c r="AK11" s="3">
-        <f>[7]heaters_razryad!$B$18</f>
+        <f>[8]heaters_razryad!$B$18</f>
         <v>38928.75692369217</v>
       </c>
       <c r="AL11" s="5">
@@ -7826,23 +7896,23 @@
         <v>0.60428559944695559</v>
       </c>
       <c r="AM11" s="2">
-        <f>Z11+AA11*$AW$2*$AW$3-AB11/$AW$1/$AW$2-AC11-AD11/$AW$1/$AW$2</f>
+        <f t="shared" si="7"/>
         <v>204.41857780185373</v>
       </c>
       <c r="AN11" s="3">
-        <f>(-AE11/1000/$AW$2+AF11/1000)*$AW$2*$AW$3</f>
+        <f t="shared" si="8"/>
         <v>22.373368694790489</v>
       </c>
       <c r="AO11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>226.79194649664421</v>
       </c>
       <c r="AP11" s="4">
-        <f>AG11+AH11+AK11/1000</f>
+        <f t="shared" si="10"/>
         <v>160.71163555258676</v>
       </c>
       <c r="AQ11" s="5">
-        <f>ABS(AP11-T11)/T11*100</f>
+        <f t="shared" si="11"/>
         <v>0.12134825369666324</v>
       </c>
       <c r="AR11" s="2">
@@ -7864,11 +7934,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AS1:AS2"/>
-    <mergeCell ref="AT1:AT2"/>
-    <mergeCell ref="AU1:AU2"/>
-    <mergeCell ref="AQ1:AQ2"/>
     <mergeCell ref="AP1:AP2"/>
     <mergeCell ref="AO1:AO2"/>
     <mergeCell ref="U1:AK1"/>
@@ -7880,6 +7945,11 @@
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="R1:R2"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AS1:AS2"/>
+    <mergeCell ref="AT1:AT2"/>
+    <mergeCell ref="AU1:AU2"/>
+    <mergeCell ref="AQ1:AQ2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ПКМ/Обработка ПКМ.xlsx
+++ b/ПКМ/Обработка ПКМ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NaumovVY\Documents\GitHub\GZ\ПКМ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721ECE5C-637F-4B43-8428-8530E29249D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F93AF0-D978-4D8C-84F6-AE6E0E1B156E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
   </externalReferences>
-  <calcPr calcId="181029" iterate="1" iterateCount="30" iterateDelta="0.1" calcOnSave="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -261,7 +261,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -473,25 +473,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -504,9 +486,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,16 +495,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -562,13 +532,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3572,7 +3572,7 @@
                   <c:v>0.82365312103968391</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.826359511561372</c:v>
+                  <c:v>0.82635951156137177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3691,7 +3691,7 @@
                   <c:v>0.75689074115764654</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75912150011414647</c:v>
+                  <c:v>0.75912150011414636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4405,7 +4405,7 @@
                   <c:v>0.6292258242027684</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63183866161787405</c:v>
+                  <c:v>0.63183866161787383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4521,7 +4521,7 @@
                   <c:v>0.64297411571277785</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.64491566965213509</c:v>
+                  <c:v>0.64491566965213487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6915,6 +6915,124 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="140m3"/>
+      <sheetName val="250m3 обр"/>
+      <sheetName val="400m3 обр"/>
+      <sheetName val="565m3 обр"/>
+      <sheetName val="250m3"/>
+      <sheetName val="400m3"/>
+      <sheetName val="565m3"/>
+      <sheetName val="Деньги"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="AJ3">
+            <v>0.7639810595067742</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="AJ4">
+            <v>0.77440816895601972</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="AJ5">
+            <v>0.78318443733754983</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AJ6">
+            <v>0.79045599530444199</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AJ7">
+            <v>0.79729374357630034</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="AJ8">
+            <v>0.80228865312812969</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AJ9">
+            <v>0.80809278865932643</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AJ10">
+            <v>0.81593961541559257</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AJ11">
+            <v>0.81892324418297935</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="AJ15">
+            <v>0.74493284017830408</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="AJ16">
+            <v>0.75862474836327864</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="AJ17">
+            <v>0.77226211226929653</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="AJ18">
+            <v>0.77761187775024698</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="AJ19">
+            <v>0.78241097181044472</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="AJ20">
+            <v>0.78578091179149601</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="AJ21">
+            <v>0.79024207756967935</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="AJ22">
+            <v>0.79709147270920655</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="AJ23">
+            <v>0.79962093224874631</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="gas_streams_zaryad"/>
       <sheetName val="water_streams_zaryad"/>
       <sheetName val="syngas_streams_zaryad"/>
@@ -6940,12 +7058,12 @@
             <v>0.1</v>
           </cell>
           <cell r="E4">
-            <v>13.652405299087601</v>
+            <v>13.589094133053891</v>
           </cell>
         </row>
         <row r="13">
           <cell r="E13">
-            <v>0.71116685454431994</v>
+            <v>0.7078689153299943</v>
           </cell>
         </row>
       </sheetData>
@@ -6953,64 +7071,64 @@
       <sheetData sheetId="2">
         <row r="2">
           <cell r="E2">
-            <v>11.97388398043354</v>
+            <v>11.973968555165641</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="C2">
-            <v>2.587841917640596</v>
+            <v>2.145446042951161</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>115.100929844389</v>
+            <v>120.9418048897099</v>
           </cell>
           <cell r="E5">
-            <v>30.452624003549261</v>
+            <v>31.049707951710719</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>6.1941058200121946</v>
+            <v>6.2064988691440082</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>30.933051544978241</v>
+            <v>43.276234941926468</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>4.4554993332421119E-2</v>
+            <v>4.54231405818682E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="8">
           <cell r="B8">
-            <v>17.214316843686831</v>
+            <v>52.723308943508343</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>95.729385314188406</v>
+            <v>70.087648881000689</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>7.8378461649447768</v>
+            <v>6.0219566222448346</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>34591.334113016273</v>
+            <v>34696.843172408837</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>36433.017945101463</v>
+            <v>38554.718555482898</v>
           </cell>
         </row>
       </sheetData>
@@ -7018,7 +7136,7 @@
       <sheetData sheetId="6">
         <row r="3">
           <cell r="B3">
-            <v>0.69480218425926021</v>
+            <v>0.75689579032102772</v>
           </cell>
         </row>
       </sheetData>
@@ -7027,7 +7145,7 @@
       <sheetData sheetId="9">
         <row r="9">
           <cell r="E9">
-            <v>3.2997870354208629</v>
+            <v>3.3046748619762809</v>
           </cell>
         </row>
         <row r="10">
@@ -7039,69 +7157,69 @@
       <sheetData sheetId="10">
         <row r="2">
           <cell r="C2">
-            <v>0.99949824150008271</v>
+            <v>0.68211991504405434</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>165.66</v>
+            <v>159.78659999999999</v>
           </cell>
           <cell r="E5">
-            <v>34.07583168780608</v>
+            <v>33.830241541168107</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>6.3013810203264402</v>
+            <v>6.2889189604114444</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>44.050113971134323</v>
+            <v>56.427775482838094</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>0.17052232115415961</v>
+            <v>0.18443474000061799</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>46778.792791445863</v>
+            <v>47020.960838040402</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>70193.160472000105</v>
+            <v>70544.4962427422</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="8">
           <cell r="B8">
-            <v>23.826863724290821</v>
+            <v>54.663092182935223</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>91.866391547914262</v>
+            <v>68.08716313433095</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>7.6594562593142186</v>
+            <v>5.8760331303184969</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>33847.514915620501</v>
+            <v>38761.340808871377</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="3">
           <cell r="E3">
-            <v>23.54273504191962</v>
+            <v>23.516497371811869</v>
           </cell>
         </row>
       </sheetData>
@@ -7112,23 +7230,6 @@
           </cell>
         </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="MixtureString"/>
-      <definedName name="PropsSI"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7138,115 +7239,203 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="140m3"/>
-      <sheetName val="250m3 обр"/>
-      <sheetName val="400m3 обр"/>
-      <sheetName val="565m3 обр"/>
-      <sheetName val="250m3"/>
-      <sheetName val="400m3"/>
-      <sheetName val="565m3"/>
-      <sheetName val="Деньги"/>
+      <sheetName val="gas_streams_zaryad"/>
+      <sheetName val="water_streams_zaryad"/>
+      <sheetName val="syngas_streams_zaryad"/>
+      <sheetName val="electric_zaryad"/>
+      <sheetName val="heaters_zaryad"/>
+      <sheetName val="accumulation_zaryad"/>
+      <sheetName val="GTU_input_zaryad"/>
+      <sheetName val="gas_streams_razryad"/>
+      <sheetName val="water_streams_razryad"/>
+      <sheetName val="syngas_streams_razryad"/>
+      <sheetName val="electric_razryad"/>
+      <sheetName val="heaters_razryad"/>
+      <sheetName val="accumulation_razryad"/>
+      <sheetName val="GTU_input_razryad"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="B4">
+            <v>800</v>
+          </cell>
+          <cell r="C4">
+            <v>0.1</v>
+          </cell>
+          <cell r="E4">
+            <v>13.57302537467827</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>0.70703187833174552</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
+        <row r="2">
+          <cell r="E2">
+            <v>11.97396938395101</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="C2">
+            <v>2.2190445960609901</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>118.9179000057555</v>
+          </cell>
+          <cell r="E5">
+            <v>30.933717851221498</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>6.2022045891824709</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>43.189091731133018</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>4.4870453998254747E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="8">
+          <cell r="B8">
+            <v>54.201044583040421</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>68.126362633936054</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>5.8278060747670741</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>34723.52333243264</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>38576.019541769587</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
         <row r="3">
-          <cell r="AJ3">
-            <v>0.7639810595067742</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="AJ4">
-            <v>0.77440816895601972</v>
+          <cell r="B3">
+            <v>0.75707333660408205</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9">
+        <row r="9">
+          <cell r="E9">
+            <v>3.3063876685570008</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>1.0811111111111109</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="2">
+          <cell r="C2">
+            <v>0.67820114753838379</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="AJ5">
-            <v>0.78318443733754983</v>
+          <cell r="C5">
+            <v>157.07579999999999</v>
+          </cell>
+          <cell r="E5">
+            <v>33.701191319931901</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="AJ6">
-            <v>0.79045599530444199</v>
+          <cell r="C6">
+            <v>6.2831672404506769</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="AJ7">
-            <v>0.79729374357630034</v>
-          </cell>
-        </row>
+          <cell r="B7">
+            <v>56.219279578427233</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>0.18425332447741299</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>47045.827872736598</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>70581.612049136616</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
         <row r="8">
-          <cell r="AJ8">
-            <v>0.80228865312812969</v>
+          <cell r="B8">
+            <v>51.73505370356159</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="AJ9">
-            <v>0.80809278865932643</v>
+          <cell r="B9">
+            <v>70.047079843704822</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="AJ10">
-            <v>0.81593961541559257</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AJ11">
-            <v>0.81892324418297935</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="AJ15">
-            <v>0.74493284017830408</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="AJ16">
-            <v>0.75862474836327864</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="AJ17">
-            <v>0.77226211226929653</v>
+          <cell r="B10">
+            <v>6.020288069735062</v>
           </cell>
         </row>
         <row r="18">
-          <cell r="AJ18">
-            <v>0.77761187775024698</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="AJ19">
-            <v>0.78241097181044472</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="AJ20">
-            <v>0.78578091179149601</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="AJ21">
-            <v>0.79024207756967935</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="AJ22">
-            <v>0.79709147270920655</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="AJ23">
-            <v>0.79962093224874631</v>
+          <cell r="B18">
+            <v>38928.75692369217</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="12">
+        <row r="3">
+          <cell r="E3">
+            <v>23.507316922203401</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13">
+        <row r="3">
+          <cell r="B3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7281,12 +7470,12 @@
             <v>0.1</v>
           </cell>
           <cell r="E4">
-            <v>13.66448997973005</v>
+            <v>13.652405299087601</v>
           </cell>
         </row>
         <row r="13">
           <cell r="E13">
-            <v>0.71179635712151301</v>
+            <v>0.71116685454431994</v>
           </cell>
         </row>
       </sheetData>
@@ -7294,64 +7483,64 @@
       <sheetData sheetId="2">
         <row r="2">
           <cell r="E2">
-            <v>11.97394275849347</v>
+            <v>11.97388398043354</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="C2">
-            <v>2.5704854406649602</v>
+            <v>2.587841917640596</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>123.6884922377637</v>
+            <v>115.100929844389</v>
           </cell>
           <cell r="E5">
-            <v>31.138984395053079</v>
+            <v>30.452624003549261</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>6.2123267341454058</v>
+            <v>6.1941058200121946</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>32.8827487516646</v>
+            <v>30.933051544978241</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>4.5370607446721938E-2</v>
+            <v>4.4554993332421119E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="8">
           <cell r="B8">
-            <v>18.64256111232886</v>
+            <v>17.214316843686831</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>99.914308030773768</v>
+            <v>95.729385314188406</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>8.4419812946116082</v>
+            <v>7.8378461649447768</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>34571.553057120676</v>
+            <v>34591.334113016273</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>36804.291931202977</v>
+            <v>36433.017945101463</v>
           </cell>
         </row>
       </sheetData>
@@ -7359,7 +7548,7 @@
       <sheetData sheetId="6">
         <row r="3">
           <cell r="B3">
-            <v>0.7466406630312914</v>
+            <v>0.69480218425926021</v>
           </cell>
         </row>
       </sheetData>
@@ -7380,7 +7569,7 @@
       <sheetData sheetId="10">
         <row r="2">
           <cell r="C2">
-            <v>0.95593913148242637</v>
+            <v>0.99949824150008271</v>
           </cell>
         </row>
         <row r="5">
@@ -7388,7 +7577,7 @@
             <v>165.66</v>
           </cell>
           <cell r="E5">
-            <v>34.082383064645562</v>
+            <v>34.07583168780608</v>
           </cell>
         </row>
         <row r="6">
@@ -7398,44 +7587,44 @@
         </row>
         <row r="7">
           <cell r="B7">
-            <v>45.912917377624687</v>
+            <v>44.050113971134323</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>0.16687188131889169</v>
+            <v>0.17052232115415961</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>46805.650471372763</v>
+            <v>46778.792791445863</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>70231.660312158536</v>
+            <v>70193.160472000105</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="8">
           <cell r="B8">
-            <v>25.36534451136432</v>
+            <v>23.826863724290821</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>95.996761822824112</v>
+            <v>91.866391547914262</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>8.25184262227509</v>
+            <v>7.6594562593142186</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>34175.183802657841</v>
+            <v>33847.514915620501</v>
           </cell>
         </row>
       </sheetData>
@@ -7462,203 +7651,14 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="gas_streams_zaryad"/>
-      <sheetName val="water_streams_zaryad"/>
-      <sheetName val="syngas_streams_zaryad"/>
-      <sheetName val="electric_zaryad"/>
-      <sheetName val="heaters_zaryad"/>
-      <sheetName val="accumulation_zaryad"/>
-      <sheetName val="GTU_input_zaryad"/>
-      <sheetName val="gas_streams_razryad"/>
-      <sheetName val="water_streams_razryad"/>
-      <sheetName val="syngas_streams_razryad"/>
-      <sheetName val="electric_razryad"/>
-      <sheetName val="heaters_razryad"/>
-      <sheetName val="accumulation_razryad"/>
-      <sheetName val="GTU_input_razryad"/>
+      <sheetName val="Sheet3"/>
     </sheetNames>
+    <definedNames>
+      <definedName name="MixtureString"/>
+      <definedName name="PropsSI"/>
+    </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="B4">
-            <v>800</v>
-          </cell>
-          <cell r="C4">
-            <v>0.1</v>
-          </cell>
-          <cell r="E4">
-            <v>13.667812542351079</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13">
-            <v>0.71196943258744461</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="E2">
-            <v>11.97393563896599</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="C2">
-            <v>2.2797799773862408</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>129.11021269083929</v>
-          </cell>
-          <cell r="E5">
-            <v>31.60833630360203</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>6.2238304296418097</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>35.45395799005653</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>4.5141605718147293E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="8">
-          <cell r="B8">
-            <v>21.980273923143599</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>100.56379823483459</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>8.6886914567165707</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>34566.003133843296</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>37246.71394247032</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="3">
-          <cell r="B3">
-            <v>0.77936866286876294</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
-        <row r="9">
-          <cell r="E9">
-            <v>3.2997870354208629</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10">
-            <v>1.0811111111111109</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="2">
-          <cell r="C2">
-            <v>0.87000125653966087</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>165.66</v>
-          </cell>
-          <cell r="E5">
-            <v>34.091218921592109</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>6.3013810203264402</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>48.809767748233462</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>0.16593015716324261</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>46839.268921184201</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>70279.851547881801</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11">
-        <row r="8">
-          <cell r="B8">
-            <v>30.083149783016641</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>95.098019616850024</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>8.3526005737814533</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>34935.651089683932</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12">
-        <row r="3">
-          <cell r="E3">
-            <v>23.54273504191962</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="3">
-          <cell r="B3">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7693,12 +7693,12 @@
             <v>0.1</v>
           </cell>
           <cell r="E4">
-            <v>13.655746408147049</v>
+            <v>13.66448997973005</v>
           </cell>
         </row>
         <row r="13">
           <cell r="E13">
-            <v>0.71134089611197371</v>
+            <v>0.71179635712151301</v>
           </cell>
         </row>
       </sheetData>
@@ -7706,64 +7706,64 @@
       <sheetData sheetId="2">
         <row r="2">
           <cell r="E2">
-            <v>11.97396211504722</v>
+            <v>11.97394275849347</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="C2">
-            <v>2.2670468119814799</v>
+            <v>2.5704854406649602</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>127.3643694340626</v>
+            <v>123.6884922377637</v>
           </cell>
           <cell r="E5">
-            <v>31.460844339217282</v>
+            <v>31.138984395053079</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>6.2201261351500099</v>
+            <v>6.2123267341454058</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>37.235228205639359</v>
+            <v>32.8827487516646</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>4.5311423512046797E-2</v>
+            <v>4.5370607446721938E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="8">
           <cell r="B8">
-            <v>26.070522368068168</v>
+            <v>18.64256111232886</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>96.353205467529463</v>
+            <v>99.914308030773768</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>8.3289559776966637</v>
+            <v>8.4419812946116082</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>34586.161063950327</v>
+            <v>34571.553057120676</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>37501.276317035466</v>
+            <v>36804.291931202977</v>
           </cell>
         </row>
       </sheetData>
@@ -7771,7 +7771,7 @@
       <sheetData sheetId="6">
         <row r="3">
           <cell r="B3">
-            <v>0.76882994949935191</v>
+            <v>0.7466406630312914</v>
           </cell>
         </row>
       </sheetData>
@@ -7792,7 +7792,7 @@
       <sheetData sheetId="10">
         <row r="2">
           <cell r="C2">
-            <v>0.7501460646950332</v>
+            <v>0.95593913148242637</v>
           </cell>
         </row>
         <row r="5">
@@ -7800,7 +7800,7 @@
             <v>165.66</v>
           </cell>
           <cell r="E5">
-            <v>34.094845350390223</v>
+            <v>34.082383064645562</v>
           </cell>
         </row>
         <row r="6">
@@ -7810,44 +7810,44 @@
         </row>
         <row r="7">
           <cell r="B7">
-            <v>50.977835502461701</v>
+            <v>45.912917377624687</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>0.16741119152865561</v>
+            <v>0.16687188131889169</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>46872.93802369092</v>
+            <v>46805.650471372763</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>70328.115386403413</v>
+            <v>70231.660312158536</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="8">
           <cell r="B8">
-            <v>36.251286626115217</v>
+            <v>25.36534451136432</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>88.526701843515767</v>
+            <v>95.996761822824112</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>7.7733028893711396</v>
+            <v>8.25184262227509</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>35696.780361733843</v>
+            <v>34175.183802657841</v>
           </cell>
         </row>
       </sheetData>
@@ -7899,12 +7899,12 @@
             <v>0.1</v>
           </cell>
           <cell r="E4">
-            <v>13.64205439693982</v>
+            <v>13.667812542351079</v>
           </cell>
         </row>
         <row r="13">
           <cell r="E13">
-            <v>0.71062766614777939</v>
+            <v>0.71196943258744461</v>
           </cell>
         </row>
       </sheetData>
@@ -7912,64 +7912,64 @@
       <sheetData sheetId="2">
         <row r="2">
           <cell r="E2">
-            <v>11.973934575647901</v>
+            <v>11.97393563896599</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="C2">
-            <v>2.246992913563123</v>
+            <v>2.2797799773862408</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>125.5329661863711</v>
+            <v>129.11021269083929</v>
           </cell>
           <cell r="E5">
-            <v>31.297572936648329</v>
+            <v>31.60833630360203</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>6.2162403012205569</v>
+            <v>6.2238304296418097</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>39.05098537833274</v>
+            <v>35.45395799005653</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>4.5265768523943227E-2</v>
+            <v>4.5141605718147293E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="8">
           <cell r="B8">
-            <v>31.171799317192502</v>
+            <v>21.980273923143599</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>91.212406206016283</v>
+            <v>100.56379823483459</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>7.8879691642715652</v>
+            <v>8.6886914567165707</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>34608.759869799578</v>
+            <v>34566.003133843296</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>37759.939706280667</v>
+            <v>37246.71394247032</v>
           </cell>
         </row>
       </sheetData>
@@ -7977,7 +7977,7 @@
       <sheetData sheetId="6">
         <row r="3">
           <cell r="B3">
-            <v>0.75777475664838301</v>
+            <v>0.77936866286876294</v>
           </cell>
         </row>
       </sheetData>
@@ -7998,7 +7998,7 @@
       <sheetData sheetId="10">
         <row r="2">
           <cell r="C2">
-            <v>0.67208772525286054</v>
+            <v>0.87000125653966087</v>
           </cell>
         </row>
         <row r="5">
@@ -8006,7 +8006,7 @@
             <v>165.66</v>
           </cell>
           <cell r="E5">
-            <v>34.086911016241331</v>
+            <v>34.091218921592109</v>
           </cell>
         </row>
         <row r="6">
@@ -8016,44 +8016,44 @@
         </row>
         <row r="7">
           <cell r="B7">
-            <v>52.977154194367813</v>
+            <v>48.809767748233462</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>0.16827639832045399</v>
+            <v>0.16593015716324261</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>46906.656904943753</v>
+            <v>46839.268921184201</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>70376.450574922987</v>
+            <v>70279.851547881801</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="8">
           <cell r="B8">
-            <v>43.642419585267419</v>
+            <v>30.083149783016641</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>80.8388386668191</v>
+            <v>95.098019616850024</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>7.0892931587899879</v>
+            <v>8.3526005737814533</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>36458.587320236467</v>
+            <v>34935.651089683932</v>
           </cell>
         </row>
       </sheetData>
@@ -8105,12 +8105,12 @@
             <v>0.1</v>
           </cell>
           <cell r="E4">
-            <v>13.62890062799843</v>
+            <v>13.655746408147049</v>
           </cell>
         </row>
         <row r="13">
           <cell r="E13">
-            <v>0.70994247373819896</v>
+            <v>0.71134089611197371</v>
           </cell>
         </row>
       </sheetData>
@@ -8118,64 +8118,64 @@
       <sheetData sheetId="2">
         <row r="2">
           <cell r="E2">
-            <v>11.973932738648539</v>
+            <v>11.97396211504722</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="C2">
-            <v>2.1391485113478712</v>
+            <v>2.2670468119814799</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>124.72386504815999</v>
+            <v>127.3643694340626</v>
           </cell>
           <cell r="E5">
-            <v>31.205804708297691</v>
+            <v>31.460844339217282</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>6.214523566984564</v>
+            <v>6.2201261351500099</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>40.968260557652599</v>
+            <v>37.235228205639359</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>4.5283360806108792E-2</v>
+            <v>4.5311423512046797E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="8">
           <cell r="B8">
-            <v>37.521173625103181</v>
+            <v>26.070522368068168</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>84.897057401809974</v>
+            <v>96.353205467529463</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>7.3410334705482088</v>
+            <v>8.3289559776966637</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>34630.58802690576</v>
+            <v>34586.161063950327</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>38054.597346496237</v>
+            <v>37501.276317035466</v>
           </cell>
         </row>
       </sheetData>
@@ -8183,7 +8183,7 @@
       <sheetData sheetId="6">
         <row r="3">
           <cell r="B3">
-            <v>0.75289064981383569</v>
+            <v>0.76882994949935191</v>
           </cell>
         </row>
       </sheetData>
@@ -8192,7 +8192,7 @@
       <sheetData sheetId="9">
         <row r="9">
           <cell r="E9">
-            <v>3.299969266969438</v>
+            <v>3.2997870354208629</v>
           </cell>
         </row>
         <row r="10">
@@ -8204,7 +8204,7 @@
       <sheetData sheetId="10">
         <row r="2">
           <cell r="C2">
-            <v>0.68229978423778059</v>
+            <v>0.7501460646950332</v>
           </cell>
         </row>
         <row r="5">
@@ -8212,7 +8212,7 @@
             <v>165.66</v>
           </cell>
           <cell r="E5">
-            <v>34.061064584346838</v>
+            <v>34.094845350390223</v>
           </cell>
         </row>
         <row r="6">
@@ -8222,51 +8222,51 @@
         </row>
         <row r="7">
           <cell r="B7">
-            <v>55.137910819663901</v>
+            <v>50.977835502461701</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>0.1749860448252161</v>
+            <v>0.16741119152865561</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>46940.901942022218</v>
+            <v>46872.93802369092</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>70425.696351193052</v>
+            <v>70328.115386403413</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="8">
           <cell r="B8">
-            <v>52.80627089397305</v>
+            <v>36.251286626115217</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>71.531169280447529</v>
+            <v>88.526701843515767</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>6.2536847333324772</v>
+            <v>7.7733028893711396</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>37221.556971155369</v>
+            <v>35696.780361733843</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="3">
           <cell r="E3">
-            <v>23.541755779113611</v>
+            <v>23.54273504191962</v>
           </cell>
         </row>
       </sheetData>
@@ -8311,12 +8311,12 @@
             <v>0.1</v>
           </cell>
           <cell r="E4">
-            <v>13.61116814060308</v>
+            <v>13.64205439693982</v>
           </cell>
         </row>
         <row r="13">
           <cell r="E13">
-            <v>0.70901877150346959</v>
+            <v>0.71062766614777939</v>
           </cell>
         </row>
       </sheetData>
@@ -8324,64 +8324,64 @@
       <sheetData sheetId="2">
         <row r="2">
           <cell r="E2">
-            <v>11.973964746111029</v>
+            <v>11.973934575647901</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="C2">
-            <v>2.1091148975811929</v>
+            <v>2.246992913563123</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>123.3033426939177</v>
+            <v>125.5329661863711</v>
           </cell>
           <cell r="E5">
-            <v>31.127267090964281</v>
+            <v>31.297572936648329</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>6.2115095317257438</v>
+            <v>6.2162403012205569</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>42.454650586517651</v>
+            <v>39.05098537833274</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>4.5455138847056133E-2</v>
+            <v>4.5265768523943227E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="8">
           <cell r="B8">
-            <v>44.847394331631911</v>
+            <v>31.171799317192502</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>77.724968718770214</v>
+            <v>91.212406206016283</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>6.7087150881843449</v>
+            <v>7.8879691642715652</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>34660.179278716103</v>
+            <v>34608.759869799578</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>38317.930934632313</v>
+            <v>37759.939706280667</v>
           </cell>
         </row>
       </sheetData>
@@ -8389,7 +8389,7 @@
       <sheetData sheetId="6">
         <row r="3">
           <cell r="B3">
-            <v>0.75045581617263146</v>
+            <v>0.75777475664838301</v>
           </cell>
         </row>
       </sheetData>
@@ -8398,7 +8398,7 @@
       <sheetData sheetId="9">
         <row r="9">
           <cell r="E9">
-            <v>3.3021674120840272</v>
+            <v>3.2997870354208629</v>
           </cell>
         </row>
         <row r="10">
@@ -8410,69 +8410,69 @@
       <sheetData sheetId="10">
         <row r="2">
           <cell r="C2">
-            <v>0.68639229919712363</v>
+            <v>0.67208772525286054</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>164.30459999999999</v>
+            <v>165.66</v>
           </cell>
           <cell r="E5">
-            <v>34.012096926621403</v>
+            <v>34.086911016241331</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>6.2985051603460569</v>
+            <v>6.3013810203264402</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>56.274224030153043</v>
+            <v>52.977154194367813</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>0.18214254041483291</v>
+            <v>0.16827639832045399</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>46980.4884467429</v>
+            <v>46906.656904943753</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>70484.328694481112</v>
+            <v>70376.450574922987</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="8">
           <cell r="B8">
-            <v>62.779445892051108</v>
+            <v>43.642419585267419</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>61.490953959056753</v>
+            <v>80.8388386668191</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>5.3378423542610038</v>
+            <v>7.0892931587899879</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>37990.554441752858</v>
+            <v>36458.587320236467</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="3">
           <cell r="E3">
-            <v>23.529949959524259</v>
+            <v>23.54273504191962</v>
           </cell>
         </row>
       </sheetData>
@@ -8517,12 +8517,12 @@
             <v>0.1</v>
           </cell>
           <cell r="E4">
-            <v>13.589094133053891</v>
+            <v>13.62890062799843</v>
           </cell>
         </row>
         <row r="13">
           <cell r="E13">
-            <v>0.7078689153299943</v>
+            <v>0.70994247373819896</v>
           </cell>
         </row>
       </sheetData>
@@ -8530,64 +8530,64 @@
       <sheetData sheetId="2">
         <row r="2">
           <cell r="E2">
-            <v>11.973968555165641</v>
+            <v>11.973932738648539</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="C2">
-            <v>2.145446042951161</v>
+            <v>2.1391485113478712</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>120.9418048897099</v>
+            <v>124.72386504815999</v>
           </cell>
           <cell r="E5">
-            <v>31.049707951710719</v>
+            <v>31.205804708297691</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>6.2064988691440082</v>
+            <v>6.214523566984564</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>43.276234941926468</v>
+            <v>40.968260557652599</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>4.54231405818682E-2</v>
+            <v>4.5283360806108792E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="8">
           <cell r="B8">
-            <v>52.723308943508343</v>
+            <v>37.521173625103181</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>70.087648881000689</v>
+            <v>84.897057401809974</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>6.0219566222448346</v>
+            <v>7.3410334705482088</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>34696.843172408837</v>
+            <v>34630.58802690576</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>38554.718555482898</v>
+            <v>38054.597346496237</v>
           </cell>
         </row>
       </sheetData>
@@ -8595,7 +8595,7 @@
       <sheetData sheetId="6">
         <row r="3">
           <cell r="B3">
-            <v>0.75689579032102772</v>
+            <v>0.75289064981383569</v>
           </cell>
         </row>
       </sheetData>
@@ -8604,7 +8604,7 @@
       <sheetData sheetId="9">
         <row r="9">
           <cell r="E9">
-            <v>3.3046748619762809</v>
+            <v>3.299969266969438</v>
           </cell>
         </row>
         <row r="10">
@@ -8616,69 +8616,69 @@
       <sheetData sheetId="10">
         <row r="2">
           <cell r="C2">
-            <v>0.68211991504405434</v>
+            <v>0.68229978423778059</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>159.78659999999999</v>
+            <v>165.66</v>
           </cell>
           <cell r="E5">
-            <v>33.830241541168107</v>
+            <v>34.061064584346838</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>6.2889189604114444</v>
+            <v>6.3013810203264402</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>56.427775482838094</v>
+            <v>55.137910819663901</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>0.18443474000061799</v>
+            <v>0.1749860448252161</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>47020.960838040402</v>
+            <v>46940.901942022218</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>70544.4962427422</v>
+            <v>70425.696351193052</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="8">
           <cell r="B8">
-            <v>54.663092182935223</v>
+            <v>52.80627089397305</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>68.08716313433095</v>
+            <v>71.531169280447529</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>5.8760331303184969</v>
+            <v>6.2536847333324772</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>38761.340808871377</v>
+            <v>37221.556971155369</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="3">
           <cell r="E3">
-            <v>23.516497371811869</v>
+            <v>23.541755779113611</v>
           </cell>
         </row>
       </sheetData>
@@ -8723,94 +8723,94 @@
             <v>0.1</v>
           </cell>
           <cell r="E4">
-            <v>13.57302537467827</v>
+            <v>13.61116814060308</v>
           </cell>
         </row>
         <row r="13">
           <cell r="E13">
-            <v>0.70703187833174552</v>
+            <v>0.70901877150346959</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="E2">
-            <v>11.973969383950999</v>
+            <v>11.973964746111029</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="C2">
-            <v>2.2190445960609901</v>
+            <v>2.1091148975811929</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>118.9179000057555</v>
+            <v>123.3033426939177</v>
           </cell>
           <cell r="E5">
-            <v>30.933717851221498</v>
+            <v>31.127267090964281</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>6.2022045891824709</v>
+            <v>6.2115095317257438</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>43.189091731133018</v>
+            <v>42.454650586517651</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>4.4870453998254747E-2</v>
+            <v>4.5455138847056133E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="8">
           <cell r="B8">
-            <v>54.201044583040421</v>
+            <v>44.847394331631911</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>68.126362633936054</v>
+            <v>77.724968718770214</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>5.8278060747670741</v>
+            <v>6.7087150881843449</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>34723.52333243264</v>
+            <v>34660.179278716103</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>38576.019541769587</v>
+            <v>38317.930934632313</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6">
         <row r="3">
           <cell r="B3">
-            <v>0.75707333660408205</v>
+            <v>0.75045581617263146</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
       <sheetData sheetId="9">
         <row r="9">
           <cell r="E9">
-            <v>3.3063876685569999</v>
+            <v>3.3021674120840272</v>
           </cell>
         </row>
         <row r="10">
@@ -8822,69 +8822,69 @@
       <sheetData sheetId="10">
         <row r="2">
           <cell r="C2">
-            <v>0.67820114753838379</v>
+            <v>0.68639229919712363</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>157.07579999999999</v>
+            <v>164.30459999999999</v>
           </cell>
           <cell r="E5">
-            <v>33.701191319931901</v>
+            <v>34.012096926621403</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>6.2831672404506769</v>
+            <v>6.2985051603460569</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>56.219279578427233</v>
+            <v>56.274224030153043</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>0.18425332447741299</v>
+            <v>0.18214254041483291</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>47045.827872736598</v>
+            <v>46980.4884467429</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>70581.612049136616</v>
+            <v>70484.328694481112</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="8">
           <cell r="B8">
-            <v>51.73505370356159</v>
+            <v>62.779445892051108</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>70.047079843704822</v>
+            <v>61.490953959056753</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>6.020288069735062</v>
+            <v>5.3378423542610038</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>38928.75692369217</v>
+            <v>37990.554441752858</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="3">
           <cell r="E3">
-            <v>23.507316922203401</v>
+            <v>23.529949959524259</v>
           </cell>
         </row>
       </sheetData>
@@ -10433,44 +10433,44 @@
   <cols>
     <col min="1" max="1" width="9.1796875" style="9"/>
     <col min="2" max="2" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="45" customWidth="1"/>
+    <col min="3" max="3" width="12" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="35" customWidth="1"/>
     <col min="5" max="5" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.1796875" style="10"/>
     <col min="8" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="16"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="48"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="34" t="s">
         <v>51</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="34" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="8" t="s">
@@ -10484,21 +10484,21 @@
       <c r="B3" s="9">
         <v>175.06425550511426</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="35">
         <v>0.63051292317147878</v>
       </c>
-      <c r="D3" s="45">
-        <f>'[11]400m3 обр'!AJ3</f>
+      <c r="D3" s="35">
+        <f>'[1]400m3 обр'!AJ3</f>
         <v>0.7639810595067742</v>
       </c>
       <c r="E3" s="9">
         <v>205.13768958891018</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="35">
         <v>0.62325556396576853</v>
       </c>
       <c r="G3" s="10">
-        <f>'[11]400m3 обр'!AJ15</f>
+        <f>'[1]400m3 обр'!AJ15</f>
         <v>0.74493284017830408</v>
       </c>
     </row>
@@ -10509,21 +10509,21 @@
       <c r="B4" s="9">
         <v>187.45722067174907</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="35">
         <v>0.64701713584893716</v>
       </c>
-      <c r="D4" s="45">
-        <f>'[11]400m3 обр'!AJ4</f>
+      <c r="D4" s="35">
+        <f>'[1]400m3 обр'!AJ4</f>
         <v>0.77440816895601972</v>
       </c>
       <c r="E4" s="9">
         <v>205.12811200461454</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="35">
         <v>0.63615415876698722</v>
       </c>
       <c r="G4" s="10">
-        <f>'[11]400m3 обр'!AJ16</f>
+        <f>'[1]400m3 обр'!AJ16</f>
         <v>0.75862474836327864</v>
       </c>
     </row>
@@ -10534,21 +10534,21 @@
       <c r="B5" s="9">
         <v>197.85202699937264</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="35">
         <v>0.66122196160902258</v>
       </c>
-      <c r="D5" s="45">
-        <f>'[11]400m3 обр'!AJ5</f>
+      <c r="D5" s="35">
+        <f>'[1]400m3 обр'!AJ5</f>
         <v>0.78318443733754983</v>
       </c>
       <c r="E5" s="9">
         <v>206.94935951134502</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="35">
         <v>0.65157412488013533</v>
       </c>
       <c r="G5" s="10">
-        <f>'[11]400m3 обр'!AJ17</f>
+        <f>'[1]400m3 обр'!AJ17</f>
         <v>0.77226211226929653</v>
       </c>
     </row>
@@ -10559,21 +10559,21 @@
       <c r="B6" s="9">
         <v>198.48648515336524</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="35">
         <v>0.67130130649635533</v>
       </c>
-      <c r="D6" s="45">
-        <f>'[11]400m3 обр'!AJ6</f>
+      <c r="D6" s="35">
+        <f>'[1]400m3 обр'!AJ6</f>
         <v>0.79045599530444199</v>
       </c>
       <c r="E6" s="9">
         <v>209.69488283053695</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="35">
         <v>0.65993888017537883</v>
       </c>
       <c r="G6" s="10">
-        <f>'[11]400m3 обр'!AJ18</f>
+        <f>'[1]400m3 обр'!AJ18</f>
         <v>0.77761187775024698</v>
       </c>
     </row>
@@ -10584,21 +10584,21 @@
       <c r="B7" s="9">
         <v>198.83285532277509</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="35">
         <v>0.68073926798168138</v>
       </c>
-      <c r="D7" s="45">
-        <f>'[11]400m3 обр'!AJ7</f>
+      <c r="D7" s="35">
+        <f>'[1]400m3 обр'!AJ7</f>
         <v>0.79729374357630034</v>
       </c>
       <c r="E7" s="9">
         <v>212.3005749713769</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="35">
         <v>0.66751247292528593</v>
       </c>
       <c r="G7" s="10">
-        <f>'[11]400m3 обр'!AJ19</f>
+        <f>'[1]400m3 обр'!AJ19</f>
         <v>0.78241097181044472</v>
       </c>
     </row>
@@ -10609,21 +10609,21 @@
       <c r="B8" s="9">
         <v>199.70820992674109</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="35">
         <v>0.68802044051979483</v>
       </c>
-      <c r="D8" s="45">
-        <f>'[11]400m3 обр'!AJ8</f>
+      <c r="D8" s="35">
+        <f>'[1]400m3 обр'!AJ8</f>
         <v>0.80228865312812969</v>
       </c>
       <c r="E8" s="9">
         <v>214.41340557814991</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="35">
         <v>0.67298351536860157</v>
       </c>
       <c r="G8" s="10">
-        <f>'[11]400m3 обр'!AJ20</f>
+        <f>'[1]400m3 обр'!AJ20</f>
         <v>0.78578091179149601</v>
       </c>
     </row>
@@ -10634,21 +10634,21 @@
       <c r="B9" s="9">
         <v>198.73947885409888</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="35">
         <v>0.69554448470388708</v>
       </c>
-      <c r="D9" s="45">
-        <f>'[11]400m3 обр'!AJ9</f>
+      <c r="D9" s="35">
+        <f>'[1]400m3 обр'!AJ9</f>
         <v>0.80809278865932643</v>
       </c>
       <c r="E9" s="9">
         <v>214.17359702034025</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="35">
         <v>0.67883262410718481</v>
       </c>
       <c r="G9" s="10">
-        <f>'[11]400m3 обр'!AJ21</f>
+        <f>'[1]400m3 обр'!AJ21</f>
         <v>0.79024207756967935</v>
       </c>
     </row>
@@ -10659,21 +10659,21 @@
       <c r="B10" s="9">
         <v>194.29244468757045</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="35">
         <v>0.7042625250155683</v>
       </c>
-      <c r="D10" s="45">
-        <f>'[11]400m3 обр'!AJ10</f>
+      <c r="D10" s="35">
+        <f>'[1]400m3 обр'!AJ10</f>
         <v>0.81593961541559257</v>
       </c>
       <c r="E10" s="9">
         <v>209.09347165135563</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="35">
         <v>0.68570725290387591</v>
       </c>
       <c r="G10" s="10">
-        <f>'[11]400m3 обр'!AJ22</f>
+        <f>'[1]400m3 обр'!AJ22</f>
         <v>0.79709147270920655</v>
       </c>
     </row>
@@ -10684,21 +10684,21 @@
       <c r="B11" s="9">
         <v>191.17246153573632</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="35">
         <v>0.70722919011666807</v>
       </c>
-      <c r="D11" s="45">
-        <f>'[11]400m3 обр'!AJ11</f>
+      <c r="D11" s="35">
+        <f>'[1]400m3 обр'!AJ11</f>
         <v>0.81892324418297935</v>
       </c>
       <c r="E11" s="9">
         <v>205.95308292677296</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="35">
         <v>0.6880089886857067</v>
       </c>
       <c r="G11" s="10">
-        <f>'[11]400m3 обр'!AJ23</f>
+        <f>'[1]400m3 обр'!AJ23</f>
         <v>0.79962093224874631</v>
       </c>
     </row>
@@ -10717,8 +10717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A796D5D9-FB45-439F-B4E0-95CA08E16843}">
   <dimension ref="A1:BN39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CG33" sqref="CG33"/>
+    <sheetView tabSelected="1" topLeftCell="BL4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CL31" sqref="CL31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -10786,130 +10786,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="21" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="W1" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Y1" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="Z1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AA1" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AB1" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AC1" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AD1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="19" t="s">
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AV1" s="20" t="s">
+      <c r="AV1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="AW1" s="21" t="s">
+      <c r="AW1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AX1" s="21" t="s">
+      <c r="AX1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="AY1" s="18" t="s">
+      <c r="AY1" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="AZ1" s="18" t="s">
+      <c r="AZ1" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="BA1" s="18" t="s">
+      <c r="BA1" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="BB1" s="18" t="s">
+      <c r="BB1" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="BC1" s="18" t="s">
+      <c r="BC1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" s="18" t="s">
+      <c r="BD1" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="BE1" s="18" t="s">
+      <c r="BE1" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="BF1" s="18" t="s">
+      <c r="BF1" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="BG1" s="18" t="s">
+      <c r="BG1" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="BH1" s="18" t="s">
+      <c r="BH1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="BI1" s="19" t="s">
+      <c r="BI1" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="BJ1" s="21" t="s">
+      <c r="BJ1" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="BK1" s="25" t="s">
+      <c r="BK1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="BL1" s="25">
+      <c r="BL1" s="19">
         <v>0.95</v>
       </c>
       <c r="BN1" s="1" t="s">
@@ -10917,142 +10917,142 @@
       </c>
     </row>
     <row r="2" spans="1:66" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="30"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="27" t="s">
+      <c r="T2" s="44"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="27" t="s">
+      <c r="AE2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="27" t="s">
+      <c r="AF2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AG2" s="27" t="s">
+      <c r="AG2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AH2" s="27" t="s">
+      <c r="AH2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="27" t="s">
+      <c r="AI2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="27" t="s">
+      <c r="AJ2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AK2" s="27" t="s">
+      <c r="AK2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="27" t="s">
+      <c r="AL2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AM2" s="27" t="s">
+      <c r="AM2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="31" t="s">
+      <c r="AN2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AO2" s="31" t="s">
+      <c r="AO2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AP2" s="27" t="s">
+      <c r="AP2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AQ2" s="27" t="s">
+      <c r="AQ2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AR2" s="27" t="s">
+      <c r="AR2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AS2" s="27" t="s">
+      <c r="AS2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AT2" s="31" t="s">
+      <c r="AT2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="26"/>
-      <c r="AZ2" s="26"/>
-      <c r="BA2" s="26"/>
-      <c r="BB2" s="26"/>
-      <c r="BC2" s="26"/>
-      <c r="BD2" s="26"/>
-      <c r="BE2" s="26"/>
-      <c r="BF2" s="26"/>
-      <c r="BG2" s="26"/>
-      <c r="BH2" s="26"/>
-      <c r="BI2" s="32"/>
-      <c r="BJ2" s="30"/>
-      <c r="BK2" s="25" t="s">
+      <c r="AU2" s="47"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+      <c r="BA2" s="42"/>
+      <c r="BB2" s="42"/>
+      <c r="BC2" s="42"/>
+      <c r="BD2" s="42"/>
+      <c r="BE2" s="42"/>
+      <c r="BF2" s="42"/>
+      <c r="BG2" s="42"/>
+      <c r="BH2" s="42"/>
+      <c r="BI2" s="47"/>
+      <c r="BJ2" s="44"/>
+      <c r="BK2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="BL2" s="25">
+      <c r="BL2" s="19">
         <v>0.99</v>
       </c>
       <c r="BN2" s="1" t="s">
@@ -11060,257 +11060,257 @@
       </c>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A3" s="34">
+      <c r="A3" s="24">
         <v>-29</v>
       </c>
-      <c r="B3" s="17">
-        <f>0.151140511695727*[1]syngas_streams_zaryad!$E$2</f>
+      <c r="B3" s="15">
+        <f>0.151140511695727*[2]syngas_streams_zaryad!$E$2</f>
         <v>1.8097389517879936</v>
       </c>
-      <c r="C3" s="17">
-        <f>[1]gas_streams_zaryad!$E$13</f>
+      <c r="C3" s="15">
+        <f>[2]gas_streams_zaryad!$E$13</f>
         <v>0.71116685454431994</v>
       </c>
-      <c r="D3" s="35">
-        <f>[1]electric_zaryad!$E$5</f>
+      <c r="D3" s="25">
+        <f>[2]electric_zaryad!$E$5</f>
         <v>30.452624003549261</v>
       </c>
-      <c r="E3" s="35">
-        <f>[1]GTU_input_zaryad!$B$3</f>
+      <c r="E3" s="25">
+        <f>[2]GTU_input_zaryad!$B$3</f>
         <v>0.69480218425926021</v>
       </c>
-      <c r="F3" s="35">
-        <f>[1]electric_zaryad!$C$5</f>
+      <c r="F3" s="25">
+        <f>[2]electric_zaryad!$C$5</f>
         <v>115.100929844389</v>
       </c>
-      <c r="G3" s="35">
-        <f>[1]electric_zaryad!$B$7</f>
+      <c r="G3" s="25">
+        <f>[2]electric_zaryad!$B$7</f>
         <v>30.933051544978241</v>
       </c>
-      <c r="H3" s="35">
-        <f>[1]electric_zaryad!$C$12</f>
+      <c r="H3" s="25">
+        <f>[2]electric_zaryad!$C$12</f>
         <v>4.4554993332421119E-2</v>
       </c>
-      <c r="I3" s="35">
-        <f>[1]electric_zaryad!$C$6</f>
+      <c r="I3" s="25">
+        <f>[2]electric_zaryad!$C$6</f>
         <v>6.1941058200121946</v>
       </c>
-      <c r="J3" s="35">
-        <f>[1]electric_zaryad!$C$2</f>
+      <c r="J3" s="25">
+        <f>[2]electric_zaryad!$C$2</f>
         <v>2.587841917640596</v>
       </c>
-      <c r="K3" s="35">
-        <f>[1]heaters_zaryad!$B$9</f>
+      <c r="K3" s="25">
+        <f>[2]heaters_zaryad!$B$9</f>
         <v>95.729385314188406</v>
       </c>
-      <c r="L3" s="35">
-        <f>[1]heaters_zaryad!$B$8</f>
+      <c r="L3" s="25">
+        <f>[2]heaters_zaryad!$B$8</f>
         <v>17.214316843686831</v>
       </c>
-      <c r="M3" s="35">
-        <f>[1]heaters_zaryad!$B$10</f>
+      <c r="M3" s="25">
+        <f>[2]heaters_zaryad!$B$10</f>
         <v>7.8378461649447768</v>
       </c>
-      <c r="N3" s="35">
+      <c r="N3" s="25">
         <f t="shared" ref="N3:N10" si="0">K3+L3+M3</f>
         <v>120.78154832282002</v>
       </c>
-      <c r="O3" s="35">
-        <f>[1]heaters_zaryad!$B$17/1000</f>
+      <c r="O3" s="25">
+        <f>[2]heaters_zaryad!$B$17/1000</f>
         <v>36.433017945101462</v>
       </c>
-      <c r="P3" s="36">
-        <f>[1]heaters_zaryad!$B$11/1000</f>
+      <c r="P3" s="26">
+        <f>[2]heaters_zaryad!$B$11/1000</f>
         <v>34.591334113016273</v>
       </c>
-      <c r="Q3" s="35">
-        <f>[1]gas_streams_zaryad!$E$4</f>
+      <c r="Q3" s="25">
+        <f>[2]gas_streams_zaryad!$E$4</f>
         <v>13.652405299087601</v>
       </c>
-      <c r="R3" s="35">
-        <f>[10]!PropsSI("H","P",[1]gas_streams_zaryad!$C$4*10^6,"T",[1]gas_streams_zaryad!$B$4+273.15,"REFPROP::"&amp;[10]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000-[10]!PropsSI("H","P",[1]gas_streams_zaryad!$C$4*10^6,"T",S13+273.15,"REFPROP::"&amp;[10]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000</f>
+      <c r="R3" s="25">
+        <f>[3]!PropsSI("H","P",[2]gas_streams_zaryad!$C$4*10^6,"T",[2]gas_streams_zaryad!$B$4+273.15,"REFPROP::"&amp;[3]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000-[3]!PropsSI("H","P",[2]gas_streams_zaryad!$C$4*10^6,"T",S13+273.15,"REFPROP::"&amp;[3]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000</f>
         <v>1246.7674708223194</v>
       </c>
-      <c r="S3" s="37">
+      <c r="S3" s="27">
         <f t="shared" ref="S3:S10" si="1">R3*Q3/1000</f>
         <v>17.021374825384679</v>
       </c>
-      <c r="T3" s="35">
-        <f>F3+G3*$BL$2*$BL$3-H3/$BL$1/$BL$2-I3-J3/$BL$1/$BL$2</f>
+      <c r="T3" s="25">
+        <f t="shared" ref="T3:T11" si="2">F3+G3*$BL$2*$BL$3-H3/$BL$1/$BL$2-I3-J3/$BL$1/$BL$2</f>
         <v>136.11913718198772</v>
       </c>
-      <c r="U3" s="34">
+      <c r="U3" s="24">
         <f>N3+O3</f>
         <v>157.21456626792147</v>
       </c>
-      <c r="V3" s="34">
+      <c r="V3" s="24">
         <f>C3*$R$14</f>
         <v>35.700576098124863</v>
       </c>
-      <c r="W3" s="34">
-        <f t="shared" ref="W3:W10" si="2">B3*$R$14</f>
+      <c r="W3" s="24">
+        <f t="shared" ref="W3:W10" si="3">B3*$R$14</f>
         <v>90.84889537975728</v>
       </c>
-      <c r="X3" s="42">
-        <f t="shared" ref="X3:X9" si="3">T3/((100*F3)/D3-N3)</f>
+      <c r="X3" s="32">
+        <f t="shared" ref="X3:X9" si="4">T3/((100*F3)/D3-N3)</f>
         <v>0.5292641212244632</v>
       </c>
-      <c r="Y3" s="43">
-        <f>T3/((100*F3)/D3-N3-P3+S3)</f>
+      <c r="Y3" s="33">
+        <f t="shared" ref="Y3:Y11" si="5">T3/((100*F3)/D3-N3-P3+S3)</f>
         <v>0.56807271937666282</v>
       </c>
-      <c r="Z3" s="43">
-        <f t="shared" ref="Z3:Z10" si="4">(T3+P3+N3)/((100*F3)/D3+S3)</f>
+      <c r="Z3" s="33">
+        <f t="shared" ref="Z3:Z10" si="6">(T3+P3+N3)/((100*F3)/D3+S3)</f>
         <v>0.73797582824956565</v>
       </c>
-      <c r="AA3" s="43">
+      <c r="AA3" s="33">
         <f>(AD3+AE3)*AF3/(V3+W3-O3-S3+P3)</f>
         <v>0.95776543770142974</v>
       </c>
-      <c r="AB3" s="43">
-        <f t="shared" ref="AB3:AB10" si="5">(T3)/((100*F3)/D3+$R$14*(B3+C3)-(AD3+AE3)*AF3-U3)</f>
+      <c r="AB3" s="33">
+        <f t="shared" ref="AB3:AB10" si="7">(T3)/((100*F3)/D3+$R$14*(B3+C3)-(AD3+AE3)*AF3-U3)</f>
         <v>0.55749111299036869</v>
       </c>
-      <c r="AC3" s="43">
+      <c r="AC3" s="33">
         <f>((AD3+AE3)*AF3+U3+T3)/((100*F3)/D3+$R$14*(B3+C3))</f>
         <v>0.78584524809329015</v>
       </c>
-      <c r="AD3" s="17">
-        <f>[1]syngas_streams_razryad!$E$10</f>
+      <c r="AD3" s="15">
+        <f>[2]syngas_streams_razryad!$E$10</f>
         <v>1.0811111111111109</v>
       </c>
-      <c r="AE3" s="17">
-        <f>[1]syngas_streams_razryad!$E$9</f>
+      <c r="AE3" s="15">
+        <f>[2]syngas_streams_razryad!$E$9</f>
         <v>3.2997870354208629</v>
       </c>
-      <c r="AF3" s="35">
-        <f>[1]accumulation_razryad!$E$3</f>
+      <c r="AF3" s="25">
+        <f>[2]accumulation_razryad!$E$3</f>
         <v>23.54273504191962</v>
       </c>
-      <c r="AG3" s="35">
-        <f>[1]electric_razryad!$E$5</f>
+      <c r="AG3" s="25">
+        <f>[2]electric_razryad!$E$5</f>
         <v>34.07583168780608</v>
       </c>
-      <c r="AH3" s="35">
-        <f>[1]GTU_input_razryad!$B$3</f>
+      <c r="AH3" s="25">
+        <f>[2]GTU_input_razryad!$B$3</f>
         <v>1</v>
       </c>
-      <c r="AI3" s="35">
-        <f>[1]electric_razryad!$C$5</f>
+      <c r="AI3" s="25">
+        <f>[2]electric_razryad!$C$5</f>
         <v>165.66</v>
       </c>
-      <c r="AJ3" s="35">
-        <f>[1]electric_razryad!$B$7</f>
+      <c r="AJ3" s="25">
+        <f>[2]electric_razryad!$B$7</f>
         <v>44.050113971134323</v>
       </c>
-      <c r="AK3" s="35">
-        <f>[1]electric_razryad!$C$12</f>
+      <c r="AK3" s="25">
+        <f>[2]electric_razryad!$C$12</f>
         <v>0.17052232115415961</v>
       </c>
-      <c r="AL3" s="35">
-        <f>[1]electric_razryad!$C$6</f>
+      <c r="AL3" s="25">
+        <f>[2]electric_razryad!$C$6</f>
         <v>6.3013810203264402</v>
       </c>
-      <c r="AM3" s="35">
-        <f>[1]electric_razryad!$C$2</f>
+      <c r="AM3" s="25">
+        <f>[2]electric_razryad!$C$2</f>
         <v>0.99949824150008271</v>
       </c>
-      <c r="AN3" s="35">
-        <f>[1]electric_razryad!$B$13</f>
+      <c r="AN3" s="25">
+        <f>[2]electric_razryad!$B$13</f>
         <v>46778.792791445863</v>
       </c>
-      <c r="AO3" s="35">
-        <f>[1]electric_razryad!$B$14</f>
+      <c r="AO3" s="25">
+        <f>[2]electric_razryad!$B$14</f>
         <v>70193.160472000105</v>
       </c>
-      <c r="AP3" s="35">
-        <f>[1]heaters_razryad!$B$9</f>
+      <c r="AP3" s="25">
+        <f>[2]heaters_razryad!$B$9</f>
         <v>91.866391547914262</v>
       </c>
-      <c r="AQ3" s="35">
-        <f>[1]heaters_razryad!$B$8</f>
+      <c r="AQ3" s="25">
+        <f>[2]heaters_razryad!$B$8</f>
         <v>23.826863724290821</v>
       </c>
-      <c r="AR3" s="35">
-        <f>[1]heaters_razryad!$B$10</f>
+      <c r="AR3" s="25">
+        <f>[2]heaters_razryad!$B$10</f>
         <v>7.6594562593142186</v>
       </c>
-      <c r="AS3" s="35">
-        <f t="shared" ref="AS3:AS10" si="6">AR3+AQ3+AP3</f>
+      <c r="AS3" s="25">
+        <f t="shared" ref="AS3:AS10" si="8">AR3+AQ3+AP3</f>
         <v>123.3527115315193</v>
       </c>
-      <c r="AT3" s="35">
-        <f>[1]heaters_razryad!$B$18/1000</f>
+      <c r="AT3" s="25">
+        <f>[2]heaters_razryad!$B$18/1000</f>
         <v>33.847514915620501</v>
       </c>
-      <c r="AU3" s="36">
-        <f>AI3+AJ3*$BL$2*$BL$3-AK3/$BL$1/$BL$2-AL3-AM3/$BL$1/$BL$2</f>
+      <c r="AU3" s="26">
+        <f t="shared" ref="AU3:AU11" si="9">AI3+AJ3*$BL$2*$BL$3-AK3/$BL$1/$BL$2-AL3-AM3/$BL$1/$BL$2</f>
         <v>200.85199855217755</v>
       </c>
-      <c r="AV3" s="35">
-        <f>(-AN3/1000/$BL$2+AO3/1000)*$BL$2*$BL$3</f>
+      <c r="AV3" s="25">
+        <f t="shared" ref="AV3:AV11" si="10">(-AN3/1000/$BL$2+AO3/1000)*$BL$2*$BL$3</f>
         <v>22.258187354317553</v>
       </c>
-      <c r="AW3" s="37">
-        <f t="shared" ref="AW3:AW10" si="7">AU3+AV3</f>
+      <c r="AW3" s="27">
+        <f t="shared" ref="AW3:AW10" si="11">AU3+AV3</f>
         <v>223.1101859064951</v>
       </c>
-      <c r="AX3" s="37">
-        <f t="shared" ref="AX3:AX10" si="8">AS3+AT3</f>
+      <c r="AX3" s="27">
+        <f t="shared" ref="AX3:AX10" si="12">AS3+AT3</f>
         <v>157.20022644713981</v>
       </c>
-      <c r="AY3" s="34">
-        <f>(100*AI3)/AG3-AD3*AF3</f>
+      <c r="AY3" s="24">
+        <f t="shared" ref="AY3:AY11" si="13">(100*AI3)/AG3-AD3*AF3</f>
         <v>460.69869780624794</v>
       </c>
-      <c r="AZ3" s="34">
+      <c r="AZ3" s="24">
         <f>AE3*AF3</f>
         <v>77.686011869674815</v>
       </c>
-      <c r="BA3" s="42">
-        <f>AU3/((100*AI3)/AG3-AS3)</f>
+      <c r="BA3" s="32">
+        <f t="shared" ref="BA3:BA11" si="14">AU3/((100*AI3)/AG3-AS3)</f>
         <v>0.55361890963617699</v>
       </c>
-      <c r="BB3" s="43">
+      <c r="BB3" s="33">
         <f>AU3/(AY3-AS3)</f>
         <v>0.59538873063279085</v>
       </c>
-      <c r="BC3" s="43">
+      <c r="BC3" s="33">
         <f>(AU3+AS3)/(AY3)</f>
         <v>0.70372395586853775</v>
       </c>
-      <c r="BD3" s="43">
+      <c r="BD3" s="33">
         <f>AV3/(AZ3-AT3)</f>
         <v>0.5077315350853755</v>
       </c>
-      <c r="BE3" s="43">
+      <c r="BE3" s="33">
         <f>(AV3+AT3)/(AZ3)</f>
         <v>0.72221112809935906</v>
       </c>
-      <c r="BF3" s="43">
+      <c r="BF3" s="33">
         <f>AW3/(AZ3+AY3-AX3)</f>
         <v>0.58530762851799167</v>
       </c>
-      <c r="BG3" s="43">
+      <c r="BG3" s="33">
         <f>(AW3+AX3)/(AY3+AZ3)</f>
         <v>0.70639155518097885</v>
       </c>
-      <c r="BH3" s="34">
-        <f>ABS(AX3-U3)/U3*100</f>
+      <c r="BH3" s="24">
+        <f t="shared" ref="BH3:BH11" si="15">ABS(AX3-U3)/U3*100</f>
         <v>9.1211782229006777E-3</v>
       </c>
-      <c r="BI3" s="36">
+      <c r="BI3" s="26">
         <f>T3-'Без ПКМ'!B3</f>
         <v>-38.945118323126536</v>
       </c>
-      <c r="BJ3" s="37">
+      <c r="BJ3" s="27">
         <f>AW3-'Без ПКМ'!E3</f>
         <v>17.972496317584927</v>
       </c>
-      <c r="BK3" s="39" t="s">
+      <c r="BK3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="BL3" s="39">
+      <c r="BL3" s="29">
         <v>0.98</v>
       </c>
       <c r="BN3" s="1" t="s">
@@ -11318,257 +11318,257 @@
       </c>
     </row>
     <row r="4" spans="1:66" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="38">
+      <c r="A4" s="28">
         <v>-25</v>
       </c>
-      <c r="B4" s="17">
-        <f>0.151140511695727*[2]syngas_streams_zaryad!$E$2</f>
+      <c r="B4" s="15">
+        <f>0.151140511695727*[4]syngas_streams_zaryad!$E$2</f>
         <v>1.8097478355340479</v>
       </c>
-      <c r="C4" s="17">
-        <f>[2]gas_streams_zaryad!$E$13</f>
+      <c r="C4" s="15">
+        <f>[4]gas_streams_zaryad!$E$13</f>
         <v>0.71179635712151301</v>
       </c>
-      <c r="D4" s="35">
-        <f>[2]electric_zaryad!$E$5</f>
+      <c r="D4" s="25">
+        <f>[4]electric_zaryad!$E$5</f>
         <v>31.138984395053079</v>
       </c>
-      <c r="E4" s="35">
-        <f>[2]GTU_input_zaryad!$B$3</f>
+      <c r="E4" s="25">
+        <f>[4]GTU_input_zaryad!$B$3</f>
         <v>0.7466406630312914</v>
       </c>
-      <c r="F4" s="35">
-        <f>[2]electric_zaryad!$C$5</f>
+      <c r="F4" s="25">
+        <f>[4]electric_zaryad!$C$5</f>
         <v>123.6884922377637</v>
       </c>
-      <c r="G4" s="35">
-        <f>[2]electric_zaryad!$B$7</f>
+      <c r="G4" s="25">
+        <f>[4]electric_zaryad!$B$7</f>
         <v>32.8827487516646</v>
       </c>
-      <c r="H4" s="35">
-        <f>[2]electric_zaryad!$C$12</f>
+      <c r="H4" s="25">
+        <f>[4]electric_zaryad!$C$12</f>
         <v>4.5370607446721938E-2</v>
       </c>
-      <c r="I4" s="35">
-        <f>[2]electric_zaryad!$C$6</f>
+      <c r="I4" s="25">
+        <f>[4]electric_zaryad!$C$6</f>
         <v>6.2123267341454058</v>
       </c>
-      <c r="J4" s="35">
-        <f>[2]electric_zaryad!$C$2</f>
+      <c r="J4" s="25">
+        <f>[4]electric_zaryad!$C$2</f>
         <v>2.5704854406649602</v>
       </c>
-      <c r="K4" s="35">
-        <f>[2]heaters_zaryad!$B$9</f>
+      <c r="K4" s="25">
+        <f>[4]heaters_zaryad!$B$9</f>
         <v>99.914308030773768</v>
       </c>
-      <c r="L4" s="35">
-        <f>[2]heaters_zaryad!$B$8</f>
+      <c r="L4" s="25">
+        <f>[4]heaters_zaryad!$B$8</f>
         <v>18.64256111232886</v>
       </c>
-      <c r="M4" s="35">
-        <f>[2]heaters_zaryad!$B$10</f>
+      <c r="M4" s="25">
+        <f>[4]heaters_zaryad!$B$10</f>
         <v>8.4419812946116082</v>
       </c>
-      <c r="N4" s="35">
+      <c r="N4" s="25">
         <f t="shared" si="0"/>
         <v>126.99885043771424</v>
       </c>
-      <c r="O4" s="35">
-        <f>[2]heaters_zaryad!$B$17/1000</f>
+      <c r="O4" s="25">
+        <f>[4]heaters_zaryad!$B$17/1000</f>
         <v>36.804291931202975</v>
       </c>
-      <c r="P4" s="36">
-        <f>[2]heaters_zaryad!$B$11/1000</f>
+      <c r="P4" s="26">
+        <f>[4]heaters_zaryad!$B$11/1000</f>
         <v>34.571553057120674</v>
       </c>
-      <c r="Q4" s="35">
-        <f>[2]gas_streams_zaryad!$E$4</f>
+      <c r="Q4" s="25">
+        <f>[4]gas_streams_zaryad!$E$4</f>
         <v>13.66448997973005</v>
       </c>
-      <c r="R4" s="35">
-        <f>[10]!PropsSI("H","P",[2]gas_streams_zaryad!$C$4*10^6,"T",[2]gas_streams_zaryad!$B$4+273.15,"REFPROP::"&amp;[10]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000-[10]!PropsSI("H","P",[2]gas_streams_zaryad!$C$4*10^6,"T",R14+273.15,"REFPROP::"&amp;[10]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000</f>
+      <c r="R4" s="25">
+        <f>[3]!PropsSI("H","P",[4]gas_streams_zaryad!$C$4*10^6,"T",[4]gas_streams_zaryad!$B$4+273.15,"REFPROP::"&amp;[3]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000-[3]!PropsSI("H","P",[4]gas_streams_zaryad!$C$4*10^6,"T",R14+273.15,"REFPROP::"&amp;[3]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000</f>
         <v>1005.1820610676375</v>
       </c>
-      <c r="S4" s="37">
+      <c r="S4" s="27">
         <f t="shared" si="1"/>
         <v>13.735300201263131</v>
       </c>
-      <c r="T4" s="35">
-        <f>F4+G4*$BL$2*$BL$3-H4/$BL$1/$BL$2-I4-J4/$BL$1/$BL$2</f>
+      <c r="T4" s="25">
+        <f t="shared" si="2"/>
         <v>146.59766219882388</v>
       </c>
-      <c r="U4" s="34">
-        <f t="shared" ref="U3:U10" si="9">N4+O4</f>
+      <c r="U4" s="24">
+        <f t="shared" ref="U4:U10" si="16">N4+O4</f>
         <v>163.80314236891721</v>
       </c>
-      <c r="V4" s="34">
-        <f t="shared" ref="V4:V11" si="10">C4*$R$14</f>
+      <c r="V4" s="24">
+        <f t="shared" ref="V4:V11" si="17">C4*$R$14</f>
         <v>35.732177127499952</v>
       </c>
-      <c r="W4" s="34">
-        <f t="shared" si="2"/>
+      <c r="W4" s="24">
+        <f t="shared" si="3"/>
         <v>90.849341343809215</v>
       </c>
-      <c r="X4" s="42">
-        <f t="shared" si="3"/>
+      <c r="X4" s="32">
+        <f t="shared" si="4"/>
         <v>0.54252143624485161</v>
       </c>
-      <c r="Y4" s="43">
-        <f>T4/((100*F4)/D4-N4-P4+S4)</f>
+      <c r="Y4" s="33">
+        <f t="shared" si="5"/>
         <v>0.58785045704233818</v>
       </c>
-      <c r="Z4" s="43">
-        <f t="shared" si="4"/>
+      <c r="Z4" s="33">
+        <f t="shared" si="6"/>
         <v>0.74989264271664446</v>
       </c>
-      <c r="AA4" s="43">
-        <f t="shared" ref="AA3:AA10" si="11">(AD4+AE4)*AF4/(V4+W4-O4-S4+P4)</f>
+      <c r="AA4" s="33">
+        <f t="shared" ref="AA4:AA10" si="18">(AD4+AE4)*AF4/(V4+W4-O4-S4+P4)</f>
         <v>0.93242093886436883</v>
       </c>
-      <c r="AB4" s="43">
-        <f t="shared" si="5"/>
+      <c r="AB4" s="33">
+        <f t="shared" si="7"/>
         <v>0.57074242025422373</v>
       </c>
-      <c r="AC4" s="43">
-        <f t="shared" ref="AC4:AC10" si="12">((AD4+AE4)*AF4+U4+T4)/((100*F4)/D4+$R$14*(B4+C4))</f>
+      <c r="AC4" s="33">
+        <f t="shared" ref="AC4:AC10" si="19">((AD4+AE4)*AF4+U4+T4)/((100*F4)/D4+$R$14*(B4+C4))</f>
         <v>0.78950448087802061</v>
       </c>
-      <c r="AD4" s="17">
-        <f>[2]syngas_streams_razryad!$E$10</f>
+      <c r="AD4" s="15">
+        <f>[4]syngas_streams_razryad!$E$10</f>
         <v>1.0811111111111109</v>
       </c>
-      <c r="AE4" s="17">
-        <f>[2]syngas_streams_razryad!$E$9</f>
+      <c r="AE4" s="15">
+        <f>[4]syngas_streams_razryad!$E$9</f>
         <v>3.2997870354208629</v>
       </c>
-      <c r="AF4" s="35">
-        <f>[2]accumulation_razryad!$E$3</f>
+      <c r="AF4" s="25">
+        <f>[4]accumulation_razryad!$E$3</f>
         <v>23.54273504191962</v>
       </c>
-      <c r="AG4" s="35">
-        <f>[2]electric_razryad!$E$5</f>
+      <c r="AG4" s="25">
+        <f>[4]electric_razryad!$E$5</f>
         <v>34.082383064645562</v>
       </c>
-      <c r="AH4" s="35">
-        <f>[2]GTU_input_razryad!$B$3</f>
+      <c r="AH4" s="25">
+        <f>[4]GTU_input_razryad!$B$3</f>
         <v>1</v>
       </c>
-      <c r="AI4" s="35">
-        <f>[2]electric_razryad!$C$5</f>
+      <c r="AI4" s="25">
+        <f>[4]electric_razryad!$C$5</f>
         <v>165.66</v>
       </c>
-      <c r="AJ4" s="35">
-        <f>[2]electric_razryad!$B$7</f>
+      <c r="AJ4" s="25">
+        <f>[4]electric_razryad!$B$7</f>
         <v>45.912917377624687</v>
       </c>
-      <c r="AK4" s="35">
-        <f>[2]electric_razryad!$C$12</f>
+      <c r="AK4" s="25">
+        <f>[4]electric_razryad!$C$12</f>
         <v>0.16687188131889169</v>
       </c>
-      <c r="AL4" s="35">
-        <f>[2]electric_razryad!$C$6</f>
+      <c r="AL4" s="25">
+        <f>[4]electric_razryad!$C$6</f>
         <v>6.3013810203264402</v>
       </c>
-      <c r="AM4" s="35">
-        <f>[2]electric_razryad!$C$2</f>
+      <c r="AM4" s="25">
+        <f>[4]electric_razryad!$C$2</f>
         <v>0.95593913148242637</v>
       </c>
-      <c r="AN4" s="35">
-        <f>[2]electric_razryad!$B$13</f>
+      <c r="AN4" s="25">
+        <f>[4]electric_razryad!$B$13</f>
         <v>46805.650471372763</v>
       </c>
-      <c r="AO4" s="35">
-        <f>[2]electric_razryad!$B$14</f>
+      <c r="AO4" s="25">
+        <f>[4]electric_razryad!$B$14</f>
         <v>70231.660312158536</v>
       </c>
-      <c r="AP4" s="35">
-        <f>[2]heaters_razryad!$B$9</f>
+      <c r="AP4" s="25">
+        <f>[4]heaters_razryad!$B$9</f>
         <v>95.996761822824112</v>
       </c>
-      <c r="AQ4" s="35">
-        <f>[2]heaters_razryad!$B$8</f>
+      <c r="AQ4" s="25">
+        <f>[4]heaters_razryad!$B$8</f>
         <v>25.36534451136432</v>
       </c>
-      <c r="AR4" s="35">
-        <f>[2]heaters_razryad!$B$10</f>
+      <c r="AR4" s="25">
+        <f>[4]heaters_razryad!$B$10</f>
         <v>8.25184262227509</v>
       </c>
-      <c r="AS4" s="35">
-        <f t="shared" si="6"/>
+      <c r="AS4" s="25">
+        <f t="shared" si="8"/>
         <v>129.61394895646353</v>
       </c>
-      <c r="AT4" s="35">
-        <f>[2]heaters_razryad!$B$18/1000</f>
+      <c r="AT4" s="25">
+        <f>[4]heaters_razryad!$B$18/1000</f>
         <v>34.175183802657841</v>
       </c>
-      <c r="AU4" s="36">
-        <f>AI4+AJ4*$BL$2*$BL$3-AK4/$BL$1/$BL$2-AL4-AM4/$BL$1/$BL$2</f>
+      <c r="AU4" s="26">
+        <f t="shared" si="9"/>
         <v>202.70948664241013</v>
       </c>
-      <c r="AV4" s="35">
-        <f>(-AN4/1000/$BL$2+AO4/1000)*$BL$2*$BL$3</f>
+      <c r="AV4" s="25">
+        <f t="shared" si="10"/>
         <v>22.269219372910904</v>
       </c>
-      <c r="AW4" s="37">
-        <f t="shared" si="7"/>
+      <c r="AW4" s="27">
+        <f t="shared" si="11"/>
         <v>224.97870601532102</v>
       </c>
-      <c r="AX4" s="37">
-        <f t="shared" si="8"/>
+      <c r="AX4" s="27">
+        <f t="shared" si="12"/>
         <v>163.78913275912137</v>
       </c>
-      <c r="AY4" s="34">
-        <f>(100*AI4)/AG4-AD4*AF4</f>
+      <c r="AY4" s="24">
+        <f t="shared" si="13"/>
         <v>460.60524898657548</v>
       </c>
-      <c r="AZ4" s="34">
-        <f t="shared" ref="AZ4:AZ11" si="13">AE4*AF4</f>
+      <c r="AZ4" s="24">
+        <f t="shared" ref="AZ4:AZ11" si="20">AE4*AF4</f>
         <v>77.686011869674815</v>
       </c>
-      <c r="BA4" s="42">
-        <f>AU4/((100*AI4)/AG4-AS4)</f>
+      <c r="BA4" s="32">
+        <f t="shared" si="14"/>
         <v>0.5687000118694554</v>
       </c>
-      <c r="BB4" s="43">
-        <f t="shared" ref="BB4:BB11" si="14">AU4/(AY4-AS4)</f>
+      <c r="BB4" s="33">
+        <f t="shared" ref="BB4:BB11" si="21">AU4/(AY4-AS4)</f>
         <v>0.61243146458522824</v>
       </c>
-      <c r="BC4" s="43">
-        <f t="shared" ref="BC4:BC11" si="15">(AU4+AS4)/(AY4)</f>
+      <c r="BC4" s="33">
+        <f t="shared" ref="BC4:BC11" si="22">(AU4+AS4)/(AY4)</f>
         <v>0.72149294071236114</v>
       </c>
-      <c r="BD4" s="43">
-        <f t="shared" ref="BD4:BD11" si="16">AV4/(AZ4-AT4)</f>
+      <c r="BD4" s="33">
+        <f t="shared" ref="BD4:BD11" si="23">AV4/(AZ4-AT4)</f>
         <v>0.51180867756897286</v>
       </c>
-      <c r="BE4" s="43">
-        <f t="shared" ref="BE4:BE11" si="17">(AV4+AT4)/(AZ4)</f>
+      <c r="BE4" s="33">
+        <f t="shared" ref="BE4:BE11" si="24">(AV4+AT4)/(AZ4)</f>
         <v>0.726570998010031</v>
       </c>
-      <c r="BF4" s="43">
-        <f t="shared" ref="BF4:BF11" si="18">AW4/(AZ4+AY4-AX4)</f>
+      <c r="BF4" s="33">
+        <f t="shared" ref="BF4:BF11" si="25">AW4/(AZ4+AY4-AX4)</f>
         <v>0.60074079460763885</v>
       </c>
-      <c r="BG4" s="43">
-        <f t="shared" ref="BG4:BG11" si="19">(AW4+AX4)/(AY4+AZ4)</f>
+      <c r="BG4" s="33">
+        <f t="shared" ref="BG4:BG11" si="26">(AW4+AX4)/(AY4+AZ4)</f>
         <v>0.72222580421617155</v>
       </c>
-      <c r="BH4" s="34">
-        <f>ABS(AX4-U4)/U4*100</f>
+      <c r="BH4" s="24">
+        <f t="shared" si="15"/>
         <v>8.5527112564681169E-3</v>
       </c>
-      <c r="BI4" s="36">
+      <c r="BI4" s="26">
         <f>T4-'Без ПКМ'!B4</f>
         <v>-40.859558472925187</v>
       </c>
-      <c r="BJ4" s="37">
+      <c r="BJ4" s="27">
         <f>AW4-'Без ПКМ'!E4</f>
         <v>19.850594010706487</v>
       </c>
-      <c r="BK4" s="40" t="s">
+      <c r="BK4" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="BL4" s="40">
+      <c r="BL4" s="30">
         <v>50.2</v>
       </c>
       <c r="BN4" s="12" t="s">
@@ -11576,1767 +11576,1767 @@
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A5" s="34">
+      <c r="A5" s="24">
         <v>-20</v>
       </c>
-      <c r="B5" s="17">
-        <f>0.151140511695727*[3]syngas_streams_zaryad!$E$2</f>
+      <c r="B5" s="15">
+        <f>0.151140511695727*[5]syngas_streams_zaryad!$E$2</f>
         <v>1.8097467594850216</v>
       </c>
-      <c r="C5" s="17">
-        <f>[3]gas_streams_zaryad!$E$13</f>
+      <c r="C5" s="15">
+        <f>[5]gas_streams_zaryad!$E$13</f>
         <v>0.71196943258744461</v>
       </c>
-      <c r="D5" s="35">
-        <f>[3]electric_zaryad!$E$5</f>
+      <c r="D5" s="25">
+        <f>[5]electric_zaryad!$E$5</f>
         <v>31.60833630360203</v>
       </c>
-      <c r="E5" s="35">
-        <f>[3]GTU_input_zaryad!$B$3</f>
+      <c r="E5" s="25">
+        <f>[5]GTU_input_zaryad!$B$3</f>
         <v>0.77936866286876294</v>
       </c>
-      <c r="F5" s="35">
-        <f>[3]electric_zaryad!$C$5</f>
+      <c r="F5" s="25">
+        <f>[5]electric_zaryad!$C$5</f>
         <v>129.11021269083929</v>
       </c>
-      <c r="G5" s="35">
-        <f>[3]electric_zaryad!$B$7</f>
+      <c r="G5" s="25">
+        <f>[5]electric_zaryad!$B$7</f>
         <v>35.45395799005653</v>
       </c>
-      <c r="H5" s="35">
-        <f>[3]electric_zaryad!$C$12</f>
+      <c r="H5" s="25">
+        <f>[5]electric_zaryad!$C$12</f>
         <v>4.5141605718147293E-2</v>
       </c>
-      <c r="I5" s="35">
-        <f>[3]electric_zaryad!$C$6</f>
+      <c r="I5" s="25">
+        <f>[5]electric_zaryad!$C$6</f>
         <v>6.2238304296418097</v>
       </c>
-      <c r="J5" s="35">
-        <f>[3]electric_zaryad!$C$2</f>
+      <c r="J5" s="25">
+        <f>[5]electric_zaryad!$C$2</f>
         <v>2.2797799773862408</v>
       </c>
-      <c r="K5" s="35">
-        <f>[3]heaters_zaryad!$B$9</f>
+      <c r="K5" s="25">
+        <f>[5]heaters_zaryad!$B$9</f>
         <v>100.56379823483459</v>
       </c>
-      <c r="L5" s="35">
-        <f>[3]heaters_zaryad!$B$8</f>
+      <c r="L5" s="25">
+        <f>[5]heaters_zaryad!$B$8</f>
         <v>21.980273923143599</v>
       </c>
-      <c r="M5" s="35">
-        <f>[3]heaters_zaryad!$B$10</f>
+      <c r="M5" s="25">
+        <f>[5]heaters_zaryad!$B$10</f>
         <v>8.6886914567165707</v>
       </c>
-      <c r="N5" s="35">
+      <c r="N5" s="25">
         <f t="shared" si="0"/>
         <v>131.23276361469476</v>
       </c>
-      <c r="O5" s="35">
-        <f>[3]heaters_zaryad!$B$17/1000</f>
+      <c r="O5" s="25">
+        <f>[5]heaters_zaryad!$B$17/1000</f>
         <v>37.246713942470322</v>
       </c>
-      <c r="P5" s="36">
-        <f>[3]heaters_zaryad!$B$11/1000</f>
+      <c r="P5" s="26">
+        <f>[5]heaters_zaryad!$B$11/1000</f>
         <v>34.566003133843296</v>
       </c>
-      <c r="Q5" s="35">
-        <f>[3]gas_streams_zaryad!$E$4</f>
+      <c r="Q5" s="25">
+        <f>[5]gas_streams_zaryad!$E$4</f>
         <v>13.667812542351079</v>
       </c>
-      <c r="R5" s="35">
-        <f>[10]!PropsSI("H","P",[3]gas_streams_zaryad!$C$4*10^6,"T",[3]gas_streams_zaryad!$B$4+273.15,"REFPROP::"&amp;[10]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000-[10]!PropsSI("H","P",[3]gas_streams_zaryad!$C$4*10^6,"T",S15+273.15,"REFPROP::"&amp;[10]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000</f>
+      <c r="R5" s="25">
+        <f>[3]!PropsSI("H","P",[5]gas_streams_zaryad!$C$4*10^6,"T",[5]gas_streams_zaryad!$B$4+273.15,"REFPROP::"&amp;[3]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000-[3]!PropsSI("H","P",[5]gas_streams_zaryad!$C$4*10^6,"T",S15+273.15,"REFPROP::"&amp;[3]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000</f>
         <v>1246.7674708223194</v>
       </c>
-      <c r="S5" s="37">
+      <c r="S5" s="27">
         <f t="shared" si="1"/>
         <v>17.040584075100629</v>
       </c>
-      <c r="T5" s="35">
-        <f>F5+G5*$BL$2*$BL$3-H5/$BL$1/$BL$2-I5-J5/$BL$1/$BL$2</f>
+      <c r="T5" s="25">
+        <f t="shared" si="2"/>
         <v>154.81180636683516</v>
       </c>
-      <c r="U5" s="34">
+      <c r="U5" s="24">
+        <f t="shared" si="16"/>
+        <v>168.47947755716507</v>
+      </c>
+      <c r="V5" s="24">
+        <f t="shared" si="17"/>
+        <v>35.740865515889723</v>
+      </c>
+      <c r="W5" s="24">
+        <f t="shared" si="3"/>
+        <v>90.849287326148087</v>
+      </c>
+      <c r="X5" s="32">
+        <f t="shared" si="4"/>
+        <v>0.55841142381925557</v>
+      </c>
+      <c r="Y5" s="33">
+        <f t="shared" si="5"/>
+        <v>0.59609333241281448</v>
+      </c>
+      <c r="Z5" s="33">
+        <f t="shared" si="6"/>
+        <v>0.75347462544935606</v>
+      </c>
+      <c r="AA5" s="33">
+        <f t="shared" si="18"/>
+        <v>0.96509241588109396</v>
+      </c>
+      <c r="AB5" s="33">
+        <f t="shared" si="7"/>
+        <v>0.58765218465126401</v>
+      </c>
+      <c r="AC5" s="33">
+        <f t="shared" si="19"/>
+        <v>0.79697677012308477</v>
+      </c>
+      <c r="AD5" s="15">
+        <f>[5]syngas_streams_razryad!$E$10</f>
+        <v>1.0811111111111109</v>
+      </c>
+      <c r="AE5" s="15">
+        <f>[5]syngas_streams_razryad!$E$9</f>
+        <v>3.2997870354208629</v>
+      </c>
+      <c r="AF5" s="25">
+        <f>[5]accumulation_razryad!$E$3</f>
+        <v>23.54273504191962</v>
+      </c>
+      <c r="AG5" s="25">
+        <f>[5]electric_razryad!$E$5</f>
+        <v>34.091218921592109</v>
+      </c>
+      <c r="AH5" s="25">
+        <f>[5]GTU_input_razryad!$B$3</f>
+        <v>1</v>
+      </c>
+      <c r="AI5" s="25">
+        <f>[5]electric_razryad!$C$5</f>
+        <v>165.66</v>
+      </c>
+      <c r="AJ5" s="25">
+        <f>[5]electric_razryad!$B$7</f>
+        <v>48.809767748233462</v>
+      </c>
+      <c r="AK5" s="25">
+        <f>[5]electric_razryad!$C$12</f>
+        <v>0.16593015716324261</v>
+      </c>
+      <c r="AL5" s="25">
+        <f>[5]electric_razryad!$C$6</f>
+        <v>6.3013810203264402</v>
+      </c>
+      <c r="AM5" s="25">
+        <f>[5]electric_razryad!$C$2</f>
+        <v>0.87000125653966087</v>
+      </c>
+      <c r="AN5" s="25">
+        <f>[5]electric_razryad!$B$13</f>
+        <v>46839.268921184201</v>
+      </c>
+      <c r="AO5" s="25">
+        <f>[5]electric_razryad!$B$14</f>
+        <v>70279.851547881801</v>
+      </c>
+      <c r="AP5" s="25">
+        <f>[5]heaters_razryad!$B$9</f>
+        <v>95.098019616850024</v>
+      </c>
+      <c r="AQ5" s="25">
+        <f>[5]heaters_razryad!$B$8</f>
+        <v>30.083149783016641</v>
+      </c>
+      <c r="AR5" s="25">
+        <f>[5]heaters_razryad!$B$10</f>
+        <v>8.3526005737814533</v>
+      </c>
+      <c r="AS5" s="25">
+        <f t="shared" si="8"/>
+        <v>133.53376997364813</v>
+      </c>
+      <c r="AT5" s="25">
+        <f>[5]heaters_razryad!$B$18/1000</f>
+        <v>34.93565108968393</v>
+      </c>
+      <c r="AU5" s="26">
         <f t="shared" si="9"/>
-        <v>168.47947755716507</v>
-      </c>
-      <c r="V5" s="34">
+        <v>205.61238684124476</v>
+      </c>
+      <c r="AV5" s="25">
         <f t="shared" si="10"/>
-        <v>35.740865515889723</v>
-      </c>
-      <c r="W5" s="34">
-        <f t="shared" si="2"/>
-        <v>90.849287326148087</v>
-      </c>
-      <c r="X5" s="42">
-        <f t="shared" si="3"/>
-        <v>0.55841142381925557</v>
-      </c>
-      <c r="Y5" s="43">
-        <f>T5/((100*F5)/D5-N5-P5+S5)</f>
-        <v>0.59609333241281448</v>
-      </c>
-      <c r="Z5" s="43">
-        <f t="shared" si="4"/>
-        <v>0.75347462544935606</v>
-      </c>
-      <c r="AA5" s="43">
+        <v>22.28302842899441</v>
+      </c>
+      <c r="AW5" s="27">
         <f t="shared" si="11"/>
-        <v>0.96509241588109396</v>
-      </c>
-      <c r="AB5" s="43">
-        <f t="shared" si="5"/>
-        <v>0.58765218465126401</v>
-      </c>
-      <c r="AC5" s="43">
+        <v>227.89541527023917</v>
+      </c>
+      <c r="AX5" s="27">
         <f t="shared" si="12"/>
-        <v>0.79697677012308477</v>
-      </c>
-      <c r="AD5" s="17">
-        <f>[3]syngas_streams_razryad!$E$10</f>
-        <v>1.0811111111111109</v>
-      </c>
-      <c r="AE5" s="17">
-        <f>[3]syngas_streams_razryad!$E$9</f>
-        <v>3.2997870354208629</v>
-      </c>
-      <c r="AF5" s="35">
-        <f>[3]accumulation_razryad!$E$3</f>
-        <v>23.54273504191962</v>
-      </c>
-      <c r="AG5" s="35">
-        <f>[3]electric_razryad!$E$5</f>
-        <v>34.091218921592109</v>
-      </c>
-      <c r="AH5" s="35">
-        <f>[3]GTU_input_razryad!$B$3</f>
-        <v>1</v>
-      </c>
-      <c r="AI5" s="35">
-        <f>[3]electric_razryad!$C$5</f>
-        <v>165.66</v>
-      </c>
-      <c r="AJ5" s="35">
-        <f>[3]electric_razryad!$B$7</f>
-        <v>48.809767748233462</v>
-      </c>
-      <c r="AK5" s="35">
-        <f>[3]electric_razryad!$C$12</f>
-        <v>0.16593015716324261</v>
-      </c>
-      <c r="AL5" s="35">
-        <f>[3]electric_razryad!$C$6</f>
-        <v>6.3013810203264402</v>
-      </c>
-      <c r="AM5" s="35">
-        <f>[3]electric_razryad!$C$2</f>
-        <v>0.87000125653966087</v>
-      </c>
-      <c r="AN5" s="35">
-        <f>[3]electric_razryad!$B$13</f>
-        <v>46839.268921184201</v>
-      </c>
-      <c r="AO5" s="35">
-        <f>[3]electric_razryad!$B$14</f>
-        <v>70279.851547881801</v>
-      </c>
-      <c r="AP5" s="35">
-        <f>[3]heaters_razryad!$B$9</f>
-        <v>95.098019616850024</v>
-      </c>
-      <c r="AQ5" s="35">
-        <f>[3]heaters_razryad!$B$8</f>
-        <v>30.083149783016641</v>
-      </c>
-      <c r="AR5" s="35">
-        <f>[3]heaters_razryad!$B$10</f>
-        <v>8.3526005737814533</v>
-      </c>
-      <c r="AS5" s="35">
-        <f t="shared" si="6"/>
-        <v>133.53376997364813</v>
-      </c>
-      <c r="AT5" s="35">
-        <f>[3]heaters_razryad!$B$18/1000</f>
-        <v>34.93565108968393</v>
-      </c>
-      <c r="AU5" s="36">
-        <f>AI5+AJ5*$BL$2*$BL$3-AK5/$BL$1/$BL$2-AL5-AM5/$BL$1/$BL$2</f>
-        <v>205.61238684124476</v>
-      </c>
-      <c r="AV5" s="35">
-        <f>(-AN5/1000/$BL$2+AO5/1000)*$BL$2*$BL$3</f>
-        <v>22.28302842899441</v>
-      </c>
-      <c r="AW5" s="37">
-        <f t="shared" si="7"/>
-        <v>227.89541527023917</v>
-      </c>
-      <c r="AX5" s="37">
-        <f t="shared" si="8"/>
         <v>168.46942106333205</v>
       </c>
-      <c r="AY5" s="34">
-        <f>(100*AI5)/AG5-AD5*AF5</f>
+      <c r="AY5" s="24">
+        <f t="shared" si="13"/>
         <v>460.47927123581132</v>
       </c>
-      <c r="AZ5" s="34">
-        <f t="shared" si="13"/>
+      <c r="AZ5" s="24">
+        <f t="shared" si="20"/>
         <v>77.686011869674815</v>
       </c>
-      <c r="BA5" s="42">
-        <f>AU5/((100*AI5)/AG5-AS5)</f>
+      <c r="BA5" s="32">
+        <f t="shared" si="14"/>
         <v>0.58346669260315043</v>
       </c>
-      <c r="BB5" s="43">
-        <f t="shared" si="14"/>
+      <c r="BB5" s="33">
+        <f t="shared" si="21"/>
         <v>0.62888887000275084</v>
       </c>
-      <c r="BC5" s="43">
+      <c r="BC5" s="33">
+        <f t="shared" si="22"/>
+        <v>0.73650689184055851</v>
+      </c>
+      <c r="BD5" s="33">
+        <f t="shared" si="23"/>
+        <v>0.52123603222136738</v>
+      </c>
+      <c r="BE5" s="33">
+        <f t="shared" si="24"/>
+        <v>0.73653773879740103</v>
+      </c>
+      <c r="BF5" s="33">
+        <f t="shared" si="25"/>
+        <v>0.61644026528014984</v>
+      </c>
+      <c r="BG5" s="33">
+        <f t="shared" si="26"/>
+        <v>0.73651134470500479</v>
+      </c>
+      <c r="BH5" s="24">
         <f t="shared" si="15"/>
-        <v>0.73650689184055851</v>
-      </c>
-      <c r="BD5" s="43">
-        <f t="shared" si="16"/>
-        <v>0.52123603222136738</v>
-      </c>
-      <c r="BE5" s="43">
-        <f t="shared" si="17"/>
-        <v>0.73653773879740103</v>
-      </c>
-      <c r="BF5" s="43">
-        <f t="shared" si="18"/>
-        <v>0.61644026528014984</v>
-      </c>
-      <c r="BG5" s="43">
-        <f t="shared" si="19"/>
-        <v>0.73651134470500479</v>
-      </c>
-      <c r="BH5" s="34">
-        <f>ABS(AX5-U5)/U5*100</f>
         <v>5.9689725887280623E-3</v>
       </c>
-      <c r="BI5" s="36">
+      <c r="BI5" s="26">
         <f>T5-'Без ПКМ'!B5</f>
         <v>-43.040220632537483</v>
       </c>
-      <c r="BJ5" s="37">
+      <c r="BJ5" s="27">
         <f>AW5-'Без ПКМ'!E5</f>
         <v>20.946055758894147</v>
       </c>
-      <c r="BK5" s="41"/>
-      <c r="BL5" s="41"/>
+      <c r="BK5" s="31"/>
+      <c r="BL5" s="31"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A6" s="34">
+      <c r="A6" s="24">
         <v>-15</v>
       </c>
-      <c r="B6" s="17">
-        <f>0.151140511695727*[4]syngas_streams_zaryad!$E$2</f>
+      <c r="B6" s="15">
+        <f>0.151140511695727*[6]syngas_streams_zaryad!$E$2</f>
         <v>1.8097507610934864</v>
       </c>
-      <c r="C6" s="17">
-        <f>[4]gas_streams_zaryad!$E$13</f>
+      <c r="C6" s="15">
+        <f>[6]gas_streams_zaryad!$E$13</f>
         <v>0.71134089611197371</v>
       </c>
-      <c r="D6" s="35">
-        <f>[4]electric_zaryad!$E$5</f>
+      <c r="D6" s="25">
+        <f>[6]electric_zaryad!$E$5</f>
         <v>31.460844339217282</v>
       </c>
-      <c r="E6" s="35">
-        <f>[4]GTU_input_zaryad!$B$3</f>
+      <c r="E6" s="25">
+        <f>[6]GTU_input_zaryad!$B$3</f>
         <v>0.76882994949935191</v>
       </c>
-      <c r="F6" s="35">
-        <f>[4]electric_zaryad!$C$5</f>
+      <c r="F6" s="25">
+        <f>[6]electric_zaryad!$C$5</f>
         <v>127.3643694340626</v>
       </c>
-      <c r="G6" s="35">
-        <f>[4]electric_zaryad!$B$7</f>
+      <c r="G6" s="25">
+        <f>[6]electric_zaryad!$B$7</f>
         <v>37.235228205639359</v>
       </c>
-      <c r="H6" s="35">
-        <f>[4]electric_zaryad!$C$12</f>
+      <c r="H6" s="25">
+        <f>[6]electric_zaryad!$C$12</f>
         <v>4.5311423512046797E-2</v>
       </c>
-      <c r="I6" s="35">
-        <f>[4]electric_zaryad!$C$6</f>
+      <c r="I6" s="25">
+        <f>[6]electric_zaryad!$C$6</f>
         <v>6.2201261351500099</v>
       </c>
-      <c r="J6" s="35">
-        <f>[4]electric_zaryad!$C$2</f>
+      <c r="J6" s="25">
+        <f>[6]electric_zaryad!$C$2</f>
         <v>2.2670468119814799</v>
       </c>
-      <c r="K6" s="35">
-        <f>[4]heaters_zaryad!$B$9</f>
+      <c r="K6" s="25">
+        <f>[6]heaters_zaryad!$B$9</f>
         <v>96.353205467529463</v>
       </c>
-      <c r="L6" s="35">
-        <f>[4]heaters_zaryad!$B$8</f>
+      <c r="L6" s="25">
+        <f>[6]heaters_zaryad!$B$8</f>
         <v>26.070522368068168</v>
       </c>
-      <c r="M6" s="35">
-        <f>[4]heaters_zaryad!$B$10</f>
+      <c r="M6" s="25">
+        <f>[6]heaters_zaryad!$B$10</f>
         <v>8.3289559776966637</v>
       </c>
-      <c r="N6" s="35">
+      <c r="N6" s="25">
         <f t="shared" si="0"/>
         <v>130.75268381329428</v>
       </c>
-      <c r="O6" s="35">
-        <f>[4]heaters_zaryad!$B$17/1000</f>
+      <c r="O6" s="25">
+        <f>[6]heaters_zaryad!$B$17/1000</f>
         <v>37.501276317035469</v>
       </c>
-      <c r="P6" s="36">
-        <f>[4]heaters_zaryad!$B$11/1000</f>
+      <c r="P6" s="26">
+        <f>[6]heaters_zaryad!$B$11/1000</f>
         <v>34.586161063950328</v>
       </c>
-      <c r="Q6" s="35">
-        <f>[4]gas_streams_zaryad!$E$4</f>
+      <c r="Q6" s="25">
+        <f>[6]gas_streams_zaryad!$E$4</f>
         <v>13.655746408147049</v>
       </c>
-      <c r="R6" s="35">
-        <f>[10]!PropsSI("H","P",[4]gas_streams_zaryad!$C$4*10^6,"T",[4]gas_streams_zaryad!$B$4+273.15,"REFPROP::"&amp;[10]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000-[10]!PropsSI("H","P",[4]gas_streams_zaryad!$C$4*10^6,"T",S16+273.15,"REFPROP::"&amp;[10]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000</f>
+      <c r="R6" s="25">
+        <f>[3]!PropsSI("H","P",[6]gas_streams_zaryad!$C$4*10^6,"T",[6]gas_streams_zaryad!$B$4+273.15,"REFPROP::"&amp;[3]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000-[3]!PropsSI("H","P",[6]gas_streams_zaryad!$C$4*10^6,"T",S16+273.15,"REFPROP::"&amp;[3]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000</f>
         <v>1245.3598293915852</v>
       </c>
-      <c r="S6" s="37">
+      <c r="S6" s="27">
         <f t="shared" si="1"/>
         <v>17.006318017064761</v>
       </c>
-      <c r="T6" s="35">
-        <f>F6+G6*$BL$2*$BL$3-H6/$BL$1/$BL$2-I6-J6/$BL$1/$BL$2</f>
+      <c r="T6" s="25">
+        <f t="shared" si="2"/>
         <v>154.81121392572135</v>
       </c>
-      <c r="U6" s="34">
+      <c r="U6" s="24">
+        <f t="shared" si="16"/>
+        <v>168.25396013032974</v>
+      </c>
+      <c r="V6" s="24">
+        <f t="shared" si="17"/>
+        <v>35.709312984821082</v>
+      </c>
+      <c r="W6" s="24">
+        <f t="shared" si="3"/>
+        <v>90.849488206893028</v>
+      </c>
+      <c r="X6" s="32">
+        <f t="shared" si="4"/>
+        <v>0.56483565585398776</v>
+      </c>
+      <c r="Y6" s="33">
+        <f t="shared" si="5"/>
+        <v>0.6035477167992227</v>
+      </c>
+      <c r="Z6" s="33">
+        <f t="shared" si="6"/>
+        <v>0.75893560503068003</v>
+      </c>
+      <c r="AA6" s="33">
+        <f t="shared" si="18"/>
+        <v>0.96718745332594036</v>
+      </c>
+      <c r="AB6" s="33">
+        <f t="shared" si="7"/>
+        <v>0.59542528960195196</v>
+      </c>
+      <c r="AC6" s="33">
+        <f t="shared" si="19"/>
+        <v>0.80204897699889222</v>
+      </c>
+      <c r="AD6" s="15">
+        <f>[6]syngas_streams_razryad!$E$10</f>
+        <v>1.0811111111111109</v>
+      </c>
+      <c r="AE6" s="15">
+        <f>[6]syngas_streams_razryad!$E$9</f>
+        <v>3.2997870354208629</v>
+      </c>
+      <c r="AF6" s="25">
+        <f>[6]accumulation_razryad!$E$3</f>
+        <v>23.54273504191962</v>
+      </c>
+      <c r="AG6" s="25">
+        <f>[6]electric_razryad!$E$5</f>
+        <v>34.094845350390223</v>
+      </c>
+      <c r="AH6" s="25">
+        <f>[6]GTU_input_razryad!$B$3</f>
+        <v>1</v>
+      </c>
+      <c r="AI6" s="25">
+        <f>[6]electric_razryad!$C$5</f>
+        <v>165.66</v>
+      </c>
+      <c r="AJ6" s="25">
+        <f>[6]electric_razryad!$B$7</f>
+        <v>50.977835502461701</v>
+      </c>
+      <c r="AK6" s="25">
+        <f>[6]electric_razryad!$C$12</f>
+        <v>0.16741119152865561</v>
+      </c>
+      <c r="AL6" s="25">
+        <f>[6]electric_razryad!$C$6</f>
+        <v>6.3013810203264402</v>
+      </c>
+      <c r="AM6" s="25">
+        <f>[6]electric_razryad!$C$2</f>
+        <v>0.7501460646950332</v>
+      </c>
+      <c r="AN6" s="25">
+        <f>[6]electric_razryad!$B$13</f>
+        <v>46872.93802369092</v>
+      </c>
+      <c r="AO6" s="25">
+        <f>[6]electric_razryad!$B$14</f>
+        <v>70328.115386403413</v>
+      </c>
+      <c r="AP6" s="25">
+        <f>[6]heaters_razryad!$B$9</f>
+        <v>88.526701843515767</v>
+      </c>
+      <c r="AQ6" s="25">
+        <f>[6]heaters_razryad!$B$8</f>
+        <v>36.251286626115217</v>
+      </c>
+      <c r="AR6" s="25">
+        <f>[6]heaters_razryad!$B$10</f>
+        <v>7.7733028893711396</v>
+      </c>
+      <c r="AS6" s="25">
+        <f t="shared" si="8"/>
+        <v>132.55129135900211</v>
+      </c>
+      <c r="AT6" s="25">
+        <f>[6]heaters_razryad!$B$18/1000</f>
+        <v>35.696780361733843</v>
+      </c>
+      <c r="AU6" s="26">
         <f t="shared" si="9"/>
-        <v>168.25396013032974</v>
-      </c>
-      <c r="V6" s="34">
+        <v>207.8417091827545</v>
+      </c>
+      <c r="AV6" s="25">
         <f t="shared" si="10"/>
-        <v>35.709312984821082</v>
-      </c>
-      <c r="W6" s="34">
-        <f t="shared" si="2"/>
-        <v>90.849488206893028</v>
-      </c>
-      <c r="X6" s="42">
-        <f t="shared" si="3"/>
-        <v>0.56483565585398776</v>
-      </c>
-      <c r="Y6" s="43">
-        <f>T6/((100*F6)/D6-N6-P6+S6)</f>
-        <v>0.6035477167992227</v>
-      </c>
-      <c r="Z6" s="43">
-        <f t="shared" si="4"/>
-        <v>0.75893560503068003</v>
-      </c>
-      <c r="AA6" s="43">
+        <v>22.296858284671487</v>
+      </c>
+      <c r="AW6" s="27">
         <f t="shared" si="11"/>
-        <v>0.96718745332594036</v>
-      </c>
-      <c r="AB6" s="43">
-        <f t="shared" si="5"/>
-        <v>0.59542528960195196</v>
-      </c>
-      <c r="AC6" s="43">
+        <v>230.13856746742599</v>
+      </c>
+      <c r="AX6" s="27">
         <f t="shared" si="12"/>
-        <v>0.80204897699889222</v>
-      </c>
-      <c r="AD6" s="17">
-        <f>[4]syngas_streams_razryad!$E$10</f>
-        <v>1.0811111111111109</v>
-      </c>
-      <c r="AE6" s="17">
-        <f>[4]syngas_streams_razryad!$E$9</f>
-        <v>3.2997870354208629</v>
-      </c>
-      <c r="AF6" s="35">
-        <f>[4]accumulation_razryad!$E$3</f>
-        <v>23.54273504191962</v>
-      </c>
-      <c r="AG6" s="35">
-        <f>[4]electric_razryad!$E$5</f>
-        <v>34.094845350390223</v>
-      </c>
-      <c r="AH6" s="35">
-        <f>[4]GTU_input_razryad!$B$3</f>
-        <v>1</v>
-      </c>
-      <c r="AI6" s="35">
-        <f>[4]electric_razryad!$C$5</f>
-        <v>165.66</v>
-      </c>
-      <c r="AJ6" s="35">
-        <f>[4]electric_razryad!$B$7</f>
-        <v>50.977835502461701</v>
-      </c>
-      <c r="AK6" s="35">
-        <f>[4]electric_razryad!$C$12</f>
-        <v>0.16741119152865561</v>
-      </c>
-      <c r="AL6" s="35">
-        <f>[4]electric_razryad!$C$6</f>
-        <v>6.3013810203264402</v>
-      </c>
-      <c r="AM6" s="35">
-        <f>[4]electric_razryad!$C$2</f>
-        <v>0.7501460646950332</v>
-      </c>
-      <c r="AN6" s="35">
-        <f>[4]electric_razryad!$B$13</f>
-        <v>46872.93802369092</v>
-      </c>
-      <c r="AO6" s="35">
-        <f>[4]electric_razryad!$B$14</f>
-        <v>70328.115386403413</v>
-      </c>
-      <c r="AP6" s="35">
-        <f>[4]heaters_razryad!$B$9</f>
-        <v>88.526701843515767</v>
-      </c>
-      <c r="AQ6" s="35">
-        <f>[4]heaters_razryad!$B$8</f>
-        <v>36.251286626115217</v>
-      </c>
-      <c r="AR6" s="35">
-        <f>[4]heaters_razryad!$B$10</f>
-        <v>7.7733028893711396</v>
-      </c>
-      <c r="AS6" s="35">
-        <f t="shared" si="6"/>
-        <v>132.55129135900211</v>
-      </c>
-      <c r="AT6" s="35">
-        <f>[4]heaters_razryad!$B$18/1000</f>
-        <v>35.696780361733843</v>
-      </c>
-      <c r="AU6" s="36">
-        <f>AI6+AJ6*$BL$2*$BL$3-AK6/$BL$1/$BL$2-AL6-AM6/$BL$1/$BL$2</f>
-        <v>207.8417091827545</v>
-      </c>
-      <c r="AV6" s="35">
-        <f>(-AN6/1000/$BL$2+AO6/1000)*$BL$2*$BL$3</f>
-        <v>22.296858284671487</v>
-      </c>
-      <c r="AW6" s="37">
-        <f t="shared" si="7"/>
-        <v>230.13856746742599</v>
-      </c>
-      <c r="AX6" s="37">
-        <f t="shared" si="8"/>
         <v>168.24807172073594</v>
       </c>
-      <c r="AY6" s="34">
-        <f>(100*AI6)/AG6-AD6*AF6</f>
+      <c r="AY6" s="24">
+        <f t="shared" si="13"/>
         <v>460.42758611241965</v>
       </c>
-      <c r="AZ6" s="34">
-        <f t="shared" si="13"/>
+      <c r="AZ6" s="24">
+        <f t="shared" si="20"/>
         <v>77.686011869674815</v>
       </c>
-      <c r="BA6" s="42">
-        <f>AU6/((100*AI6)/AG6-AS6)</f>
+      <c r="BA6" s="32">
+        <f t="shared" si="14"/>
         <v>0.58823912061305983</v>
       </c>
-      <c r="BB6" s="43">
-        <f t="shared" si="14"/>
+      <c r="BB6" s="33">
+        <f t="shared" si="21"/>
         <v>0.6339028240485145</v>
       </c>
-      <c r="BC6" s="43">
+      <c r="BC6" s="33">
+        <f t="shared" si="22"/>
+        <v>0.73929758078970753</v>
+      </c>
+      <c r="BD6" s="33">
+        <f t="shared" si="23"/>
+        <v>0.53101372623251564</v>
+      </c>
+      <c r="BE6" s="33">
+        <f t="shared" si="24"/>
+        <v>0.74651326861385048</v>
+      </c>
+      <c r="BF6" s="33">
+        <f t="shared" si="25"/>
+        <v>0.62222227033076583</v>
+      </c>
+      <c r="BG6" s="33">
+        <f t="shared" si="26"/>
+        <v>0.74033929022068323</v>
+      </c>
+      <c r="BH6" s="24">
         <f t="shared" si="15"/>
-        <v>0.73929758078970753</v>
-      </c>
-      <c r="BD6" s="43">
-        <f t="shared" si="16"/>
-        <v>0.53101372623251564</v>
-      </c>
-      <c r="BE6" s="43">
-        <f t="shared" si="17"/>
-        <v>0.74651326861385048</v>
-      </c>
-      <c r="BF6" s="43">
-        <f t="shared" si="18"/>
-        <v>0.62222227033076583</v>
-      </c>
-      <c r="BG6" s="43">
-        <f t="shared" si="19"/>
-        <v>0.74033929022068323</v>
-      </c>
-      <c r="BH6" s="34">
-        <f>ABS(AX6-U6)/U6*100</f>
         <v>3.4997153049159428E-3</v>
       </c>
-      <c r="BI6" s="36">
+      <c r="BI6" s="26">
         <f>T6-'Без ПКМ'!B6</f>
         <v>-43.67527122764389</v>
       </c>
-      <c r="BJ6" s="37">
+      <c r="BJ6" s="27">
         <f>AW6-'Без ПКМ'!E6</f>
         <v>20.443684636889031</v>
       </c>
-      <c r="BK6" s="41"/>
-      <c r="BL6" s="41"/>
+      <c r="BK6" s="31"/>
+      <c r="BL6" s="31"/>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A7" s="34">
+      <c r="A7" s="24">
         <v>-10</v>
       </c>
-      <c r="B7" s="17">
-        <f>0.151140511695727*[5]syngas_streams_zaryad!$E$2</f>
+      <c r="B7" s="15">
+        <f>0.151140511695727*[7]syngas_streams_zaryad!$E$2</f>
         <v>1.8097465987745815</v>
       </c>
-      <c r="C7" s="17">
-        <f>[5]gas_streams_zaryad!$E$13</f>
+      <c r="C7" s="15">
+        <f>[7]gas_streams_zaryad!$E$13</f>
         <v>0.71062766614777939</v>
       </c>
-      <c r="D7" s="35">
-        <f>[5]electric_zaryad!$E$5</f>
+      <c r="D7" s="25">
+        <f>[7]electric_zaryad!$E$5</f>
         <v>31.297572936648329</v>
       </c>
-      <c r="E7" s="35">
-        <f>[5]GTU_input_zaryad!$B$3</f>
+      <c r="E7" s="25">
+        <f>[7]GTU_input_zaryad!$B$3</f>
         <v>0.75777475664838301</v>
       </c>
-      <c r="F7" s="35">
-        <f>[5]electric_zaryad!$C$5</f>
+      <c r="F7" s="25">
+        <f>[7]electric_zaryad!$C$5</f>
         <v>125.5329661863711</v>
       </c>
-      <c r="G7" s="35">
-        <f>[5]electric_zaryad!$B$7</f>
+      <c r="G7" s="25">
+        <f>[7]electric_zaryad!$B$7</f>
         <v>39.05098537833274</v>
       </c>
-      <c r="H7" s="35">
-        <f>[5]electric_zaryad!$C$12</f>
+      <c r="H7" s="25">
+        <f>[7]electric_zaryad!$C$12</f>
         <v>4.5265768523943227E-2</v>
       </c>
-      <c r="I7" s="35">
-        <f>[5]electric_zaryad!$C$6</f>
+      <c r="I7" s="25">
+        <f>[7]electric_zaryad!$C$6</f>
         <v>6.2162403012205569</v>
       </c>
-      <c r="J7" s="35">
-        <f>[5]electric_zaryad!$C$2</f>
+      <c r="J7" s="25">
+        <f>[7]electric_zaryad!$C$2</f>
         <v>2.246992913563123</v>
       </c>
-      <c r="K7" s="35">
-        <f>[5]heaters_zaryad!$B$9</f>
+      <c r="K7" s="25">
+        <f>[7]heaters_zaryad!$B$9</f>
         <v>91.212406206016283</v>
       </c>
-      <c r="L7" s="35">
-        <f>[5]heaters_zaryad!$B$8</f>
+      <c r="L7" s="25">
+        <f>[7]heaters_zaryad!$B$8</f>
         <v>31.171799317192502</v>
       </c>
-      <c r="M7" s="35">
-        <f>[5]heaters_zaryad!$B$10</f>
+      <c r="M7" s="25">
+        <f>[7]heaters_zaryad!$B$10</f>
         <v>7.8879691642715652</v>
       </c>
-      <c r="N7" s="35">
+      <c r="N7" s="25">
         <f t="shared" si="0"/>
         <v>130.27217468748034</v>
       </c>
-      <c r="O7" s="35">
-        <f>[5]heaters_zaryad!$B$17/1000</f>
+      <c r="O7" s="25">
+        <f>[7]heaters_zaryad!$B$17/1000</f>
         <v>37.759939706280669</v>
       </c>
-      <c r="P7" s="36">
-        <f>[5]heaters_zaryad!$B$11/1000</f>
+      <c r="P7" s="26">
+        <f>[7]heaters_zaryad!$B$11/1000</f>
         <v>34.608759869799577</v>
       </c>
-      <c r="Q7" s="35">
-        <f>[5]gas_streams_zaryad!$E$4</f>
+      <c r="Q7" s="25">
+        <f>[7]gas_streams_zaryad!$E$4</f>
         <v>13.64205439693982</v>
       </c>
-      <c r="R7" s="35">
-        <f>[10]!PropsSI("H","P",[5]gas_streams_zaryad!$C$4*10^6,"T",[5]gas_streams_zaryad!$B$4+273.15,"REFPROP::"&amp;[10]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000-[10]!PropsSI("H","P",[5]gas_streams_zaryad!$C$4*10^6,"T",S17+273.15,"REFPROP::"&amp;[10]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000</f>
+      <c r="R7" s="25">
+        <f>[3]!PropsSI("H","P",[7]gas_streams_zaryad!$C$4*10^6,"T",[7]gas_streams_zaryad!$B$4+273.15,"REFPROP::"&amp;[3]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000-[3]!PropsSI("H","P",[7]gas_streams_zaryad!$C$4*10^6,"T",S17+273.15,"REFPROP::"&amp;[3]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000</f>
         <v>1246.4115417513406</v>
       </c>
-      <c r="S7" s="37">
+      <c r="S7" s="27">
         <f t="shared" si="1"/>
         <v>17.003614053545416</v>
       </c>
-      <c r="T7" s="35">
-        <f>F7+G7*$BL$2*$BL$3-H7/$BL$1/$BL$2-I7-J7/$BL$1/$BL$2</f>
+      <c r="T7" s="25">
+        <f t="shared" si="2"/>
         <v>154.7667152569048</v>
       </c>
-      <c r="U7" s="34">
+      <c r="U7" s="24">
+        <f t="shared" si="16"/>
+        <v>168.03211439376102</v>
+      </c>
+      <c r="V7" s="24">
+        <f t="shared" si="17"/>
+        <v>35.673508840618524</v>
+      </c>
+      <c r="W7" s="24">
+        <f t="shared" si="3"/>
+        <v>90.849279258484003</v>
+      </c>
+      <c r="X7" s="32">
+        <f t="shared" si="4"/>
+        <v>0.57146873469827708</v>
+      </c>
+      <c r="Y7" s="33">
+        <f t="shared" si="5"/>
+        <v>0.61120053675100261</v>
+      </c>
+      <c r="Z7" s="33">
+        <f t="shared" si="6"/>
+        <v>0.76452712849218452</v>
+      </c>
+      <c r="AA7" s="33">
+        <f t="shared" si="18"/>
+        <v>0.96963682615572522</v>
+      </c>
+      <c r="AB7" s="33">
+        <f t="shared" si="7"/>
+        <v>0.60350314070988964</v>
+      </c>
+      <c r="AC7" s="33">
+        <f t="shared" si="19"/>
+        <v>0.8072837027577191</v>
+      </c>
+      <c r="AD7" s="15">
+        <f>[7]syngas_streams_razryad!$E$10</f>
+        <v>1.0811111111111109</v>
+      </c>
+      <c r="AE7" s="15">
+        <f>[7]syngas_streams_razryad!$E$9</f>
+        <v>3.2997870354208629</v>
+      </c>
+      <c r="AF7" s="25">
+        <f>[7]accumulation_razryad!$E$3</f>
+        <v>23.54273504191962</v>
+      </c>
+      <c r="AG7" s="25">
+        <f>[7]electric_razryad!$E$5</f>
+        <v>34.086911016241331</v>
+      </c>
+      <c r="AH7" s="25">
+        <f>[7]GTU_input_razryad!$B$3</f>
+        <v>1</v>
+      </c>
+      <c r="AI7" s="25">
+        <f>[7]electric_razryad!$C$5</f>
+        <v>165.66</v>
+      </c>
+      <c r="AJ7" s="25">
+        <f>[7]electric_razryad!$B$7</f>
+        <v>52.977154194367813</v>
+      </c>
+      <c r="AK7" s="25">
+        <f>[7]electric_razryad!$C$12</f>
+        <v>0.16827639832045399</v>
+      </c>
+      <c r="AL7" s="25">
+        <f>[7]electric_razryad!$C$6</f>
+        <v>6.3013810203264402</v>
+      </c>
+      <c r="AM7" s="25">
+        <f>[7]electric_razryad!$C$2</f>
+        <v>0.67208772525286054</v>
+      </c>
+      <c r="AN7" s="25">
+        <f>[7]electric_razryad!$B$13</f>
+        <v>46906.656904943753</v>
+      </c>
+      <c r="AO7" s="25">
+        <f>[7]electric_razryad!$B$14</f>
+        <v>70376.450574922987</v>
+      </c>
+      <c r="AP7" s="25">
+        <f>[7]heaters_razryad!$B$9</f>
+        <v>80.8388386668191</v>
+      </c>
+      <c r="AQ7" s="25">
+        <f>[7]heaters_razryad!$B$8</f>
+        <v>43.642419585267419</v>
+      </c>
+      <c r="AR7" s="25">
+        <f>[7]heaters_razryad!$B$10</f>
+        <v>7.0892931587899879</v>
+      </c>
+      <c r="AS7" s="25">
+        <f t="shared" si="8"/>
+        <v>131.5705514108765</v>
+      </c>
+      <c r="AT7" s="25">
+        <f>[7]heaters_razryad!$B$18/1000</f>
+        <v>36.458587320236468</v>
+      </c>
+      <c r="AU7" s="26">
         <f t="shared" si="9"/>
-        <v>168.03211439376102</v>
-      </c>
-      <c r="V7" s="34">
+        <v>209.86352487370809</v>
+      </c>
+      <c r="AV7" s="25">
         <f t="shared" si="10"/>
-        <v>35.673508840618524</v>
-      </c>
-      <c r="W7" s="34">
-        <f t="shared" si="2"/>
-        <v>90.849279258484003</v>
-      </c>
-      <c r="X7" s="42">
-        <f t="shared" si="3"/>
-        <v>0.57146873469827708</v>
-      </c>
-      <c r="Y7" s="43">
-        <f>T7/((100*F7)/D7-N7-P7+S7)</f>
-        <v>0.61120053675100261</v>
-      </c>
-      <c r="Z7" s="43">
-        <f t="shared" si="4"/>
-        <v>0.76452712849218452</v>
-      </c>
-      <c r="AA7" s="43">
+        <v>22.310708580945402</v>
+      </c>
+      <c r="AW7" s="27">
         <f t="shared" si="11"/>
-        <v>0.96963682615572522</v>
-      </c>
-      <c r="AB7" s="43">
-        <f t="shared" si="5"/>
-        <v>0.60350314070988964</v>
-      </c>
-      <c r="AC7" s="43">
+        <v>232.17423345465349</v>
+      </c>
+      <c r="AX7" s="27">
         <f t="shared" si="12"/>
-        <v>0.8072837027577191</v>
-      </c>
-      <c r="AD7" s="17">
-        <f>[5]syngas_streams_razryad!$E$10</f>
-        <v>1.0811111111111109</v>
-      </c>
-      <c r="AE7" s="17">
-        <f>[5]syngas_streams_razryad!$E$9</f>
-        <v>3.2997870354208629</v>
-      </c>
-      <c r="AF7" s="35">
-        <f>[5]accumulation_razryad!$E$3</f>
-        <v>23.54273504191962</v>
-      </c>
-      <c r="AG7" s="35">
-        <f>[5]electric_razryad!$E$5</f>
-        <v>34.086911016241331</v>
-      </c>
-      <c r="AH7" s="35">
-        <f>[5]GTU_input_razryad!$B$3</f>
-        <v>1</v>
-      </c>
-      <c r="AI7" s="35">
-        <f>[5]electric_razryad!$C$5</f>
-        <v>165.66</v>
-      </c>
-      <c r="AJ7" s="35">
-        <f>[5]electric_razryad!$B$7</f>
-        <v>52.977154194367813</v>
-      </c>
-      <c r="AK7" s="35">
-        <f>[5]electric_razryad!$C$12</f>
-        <v>0.16827639832045399</v>
-      </c>
-      <c r="AL7" s="35">
-        <f>[5]electric_razryad!$C$6</f>
-        <v>6.3013810203264402</v>
-      </c>
-      <c r="AM7" s="35">
-        <f>[5]electric_razryad!$C$2</f>
-        <v>0.67208772525286054</v>
-      </c>
-      <c r="AN7" s="35">
-        <f>[5]electric_razryad!$B$13</f>
-        <v>46906.656904943753</v>
-      </c>
-      <c r="AO7" s="35">
-        <f>[5]electric_razryad!$B$14</f>
-        <v>70376.450574922987</v>
-      </c>
-      <c r="AP7" s="35">
-        <f>[5]heaters_razryad!$B$9</f>
-        <v>80.8388386668191</v>
-      </c>
-      <c r="AQ7" s="35">
-        <f>[5]heaters_razryad!$B$8</f>
-        <v>43.642419585267419</v>
-      </c>
-      <c r="AR7" s="35">
-        <f>[5]heaters_razryad!$B$10</f>
-        <v>7.0892931587899879</v>
-      </c>
-      <c r="AS7" s="35">
-        <f t="shared" si="6"/>
-        <v>131.5705514108765</v>
-      </c>
-      <c r="AT7" s="35">
-        <f>[5]heaters_razryad!$B$18/1000</f>
-        <v>36.458587320236468</v>
-      </c>
-      <c r="AU7" s="36">
-        <f>AI7+AJ7*$BL$2*$BL$3-AK7/$BL$1/$BL$2-AL7-AM7/$BL$1/$BL$2</f>
-        <v>209.86352487370809</v>
-      </c>
-      <c r="AV7" s="35">
-        <f>(-AN7/1000/$BL$2+AO7/1000)*$BL$2*$BL$3</f>
-        <v>22.310708580945402</v>
-      </c>
-      <c r="AW7" s="37">
-        <f t="shared" si="7"/>
-        <v>232.17423345465349</v>
-      </c>
-      <c r="AX7" s="37">
-        <f t="shared" si="8"/>
         <v>168.02913873111297</v>
       </c>
-      <c r="AY7" s="34">
-        <f>(100*AI7)/AG7-AD7*AF7</f>
+      <c r="AY7" s="24">
+        <f t="shared" si="13"/>
         <v>460.54068329126073</v>
       </c>
-      <c r="AZ7" s="34">
-        <f t="shared" si="13"/>
+      <c r="AZ7" s="24">
+        <f t="shared" si="20"/>
         <v>77.686011869674815</v>
       </c>
-      <c r="BA7" s="42">
-        <f>AU7/((100*AI7)/AG7-AS7)</f>
+      <c r="BA7" s="32">
+        <f t="shared" si="14"/>
         <v>0.59212820247957876</v>
       </c>
-      <c r="BB7" s="43">
-        <f t="shared" si="14"/>
+      <c r="BB7" s="33">
+        <f t="shared" si="21"/>
         <v>0.63794096951639334</v>
       </c>
-      <c r="BC7" s="43">
+      <c r="BC7" s="33">
+        <f t="shared" si="22"/>
+        <v>0.74137657903427978</v>
+      </c>
+      <c r="BD7" s="33">
+        <f t="shared" si="23"/>
+        <v>0.54116183159079601</v>
+      </c>
+      <c r="BE7" s="33">
+        <f t="shared" si="24"/>
+        <v>0.75649778495223285</v>
+      </c>
+      <c r="BF7" s="33">
+        <f t="shared" si="25"/>
+        <v>0.62716306313239034</v>
+      </c>
+      <c r="BG7" s="33">
+        <f t="shared" si="26"/>
+        <v>0.74355912812184333</v>
+      </c>
+      <c r="BH7" s="24">
         <f t="shared" si="15"/>
-        <v>0.74137657903427978</v>
-      </c>
-      <c r="BD7" s="43">
-        <f t="shared" si="16"/>
-        <v>0.54116183159079601</v>
-      </c>
-      <c r="BE7" s="43">
-        <f t="shared" si="17"/>
-        <v>0.75649778495223285</v>
-      </c>
-      <c r="BF7" s="43">
-        <f t="shared" si="18"/>
-        <v>0.62716306313239034</v>
-      </c>
-      <c r="BG7" s="43">
-        <f t="shared" si="19"/>
-        <v>0.74355912812184333</v>
-      </c>
-      <c r="BH7" s="34">
-        <f>ABS(AX7-U7)/U7*100</f>
         <v>1.7708892486359782E-3</v>
       </c>
-      <c r="BI7" s="36">
+      <c r="BI7" s="26">
         <f>T7-'Без ПКМ'!B7</f>
         <v>-44.066140065870286</v>
       </c>
-      <c r="BJ7" s="37">
+      <c r="BJ7" s="27">
         <f>AW7-'Без ПКМ'!E7</f>
         <v>19.873658483276586</v>
       </c>
-      <c r="BK7" s="41"/>
-      <c r="BL7" s="41"/>
+      <c r="BK7" s="31"/>
+      <c r="BL7" s="31"/>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A8" s="34">
+      <c r="A8" s="24">
         <v>-5</v>
       </c>
-      <c r="B8" s="17">
-        <f>0.151140511695727*[6]syngas_streams_zaryad!$E$2</f>
+      <c r="B8" s="15">
+        <f>0.151140511695727*[8]syngas_streams_zaryad!$E$2</f>
         <v>1.8097463211295581</v>
       </c>
-      <c r="C8" s="17">
-        <f>[6]gas_streams_zaryad!$E$13</f>
+      <c r="C8" s="15">
+        <f>[8]gas_streams_zaryad!$E$13</f>
         <v>0.70994247373819896</v>
       </c>
-      <c r="D8" s="35">
-        <f>[6]electric_zaryad!$E$5</f>
+      <c r="D8" s="25">
+        <f>[8]electric_zaryad!$E$5</f>
         <v>31.205804708297691</v>
       </c>
-      <c r="E8" s="35">
-        <f>[6]GTU_input_zaryad!$B$3</f>
+      <c r="E8" s="25">
+        <f>[8]GTU_input_zaryad!$B$3</f>
         <v>0.75289064981383569</v>
       </c>
-      <c r="F8" s="35">
-        <f>[6]electric_zaryad!$C$5</f>
+      <c r="F8" s="25">
+        <f>[8]electric_zaryad!$C$5</f>
         <v>124.72386504815999</v>
       </c>
-      <c r="G8" s="35">
-        <f>[6]electric_zaryad!$B$7</f>
+      <c r="G8" s="25">
+        <f>[8]electric_zaryad!$B$7</f>
         <v>40.968260557652599</v>
       </c>
-      <c r="H8" s="35">
-        <f>[6]electric_zaryad!$C$12</f>
+      <c r="H8" s="25">
+        <f>[8]electric_zaryad!$C$12</f>
         <v>4.5283360806108792E-2</v>
       </c>
-      <c r="I8" s="35">
-        <f>[6]electric_zaryad!$C$6</f>
+      <c r="I8" s="25">
+        <f>[8]electric_zaryad!$C$6</f>
         <v>6.214523566984564</v>
       </c>
-      <c r="J8" s="35">
-        <f>[6]electric_zaryad!$C$2</f>
+      <c r="J8" s="25">
+        <f>[8]electric_zaryad!$C$2</f>
         <v>2.1391485113478712</v>
       </c>
-      <c r="K8" s="35">
-        <f>[6]heaters_zaryad!$B$9</f>
+      <c r="K8" s="25">
+        <f>[8]heaters_zaryad!$B$9</f>
         <v>84.897057401809974</v>
       </c>
-      <c r="L8" s="35">
-        <f>[6]heaters_zaryad!$B$8</f>
+      <c r="L8" s="25">
+        <f>[8]heaters_zaryad!$B$8</f>
         <v>37.521173625103181</v>
       </c>
-      <c r="M8" s="35">
-        <f>[6]heaters_zaryad!$B$10</f>
+      <c r="M8" s="25">
+        <f>[8]heaters_zaryad!$B$10</f>
         <v>7.3410334705482088</v>
       </c>
-      <c r="N8" s="35">
+      <c r="N8" s="25">
         <f t="shared" si="0"/>
         <v>129.75926449746137</v>
       </c>
-      <c r="O8" s="35">
-        <f>[6]heaters_zaryad!$B$17/1000</f>
+      <c r="O8" s="25">
+        <f>[8]heaters_zaryad!$B$17/1000</f>
         <v>38.054597346496237</v>
       </c>
-      <c r="P8" s="36">
-        <f>[6]heaters_zaryad!$B$11/1000</f>
+      <c r="P8" s="26">
+        <f>[8]heaters_zaryad!$B$11/1000</f>
         <v>34.630588026905762</v>
       </c>
-      <c r="Q8" s="35">
-        <f>[6]gas_streams_zaryad!$E$4</f>
+      <c r="Q8" s="25">
+        <f>[8]gas_streams_zaryad!$E$4</f>
         <v>13.62890062799843</v>
       </c>
-      <c r="R8" s="35">
-        <f>[10]!PropsSI("H","P",[6]gas_streams_zaryad!$C$4*10^6,"T",[6]gas_streams_zaryad!$B$4+273.15,"REFPROP::"&amp;[10]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000-[10]!PropsSI("H","P",[6]gas_streams_zaryad!$C$4*10^6,"T",S18+273.15,"REFPROP::"&amp;[10]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000</f>
+      <c r="R8" s="25">
+        <f>[3]!PropsSI("H","P",[8]gas_streams_zaryad!$C$4*10^6,"T",[8]gas_streams_zaryad!$B$4+273.15,"REFPROP::"&amp;[3]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000-[3]!PropsSI("H","P",[8]gas_streams_zaryad!$C$4*10^6,"T",S18+273.15,"REFPROP::"&amp;[3]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000</f>
         <v>1246.5891221948264</v>
       </c>
-      <c r="S8" s="37">
+      <c r="S8" s="27">
         <f t="shared" si="1"/>
         <v>16.989639270337079</v>
       </c>
-      <c r="T8" s="35">
-        <f>F8+G8*$BL$2*$BL$3-H8/$BL$1/$BL$2-I8-J8/$BL$1/$BL$2</f>
+      <c r="T8" s="25">
+        <f t="shared" si="2"/>
         <v>155.93411962098938</v>
       </c>
-      <c r="U8" s="34">
+      <c r="U8" s="24">
+        <f t="shared" si="16"/>
+        <v>167.81386184395762</v>
+      </c>
+      <c r="V8" s="24">
+        <f t="shared" si="17"/>
+        <v>35.639112181657588</v>
+      </c>
+      <c r="W8" s="24">
+        <f t="shared" si="3"/>
+        <v>90.849265320703822</v>
+      </c>
+      <c r="X8" s="32">
+        <f t="shared" si="4"/>
+        <v>0.57769991191729797</v>
+      </c>
+      <c r="Y8" s="33">
+        <f t="shared" si="5"/>
+        <v>0.61809597110599723</v>
+      </c>
+      <c r="Z8" s="33">
+        <f t="shared" si="6"/>
+        <v>0.76876906398386469</v>
+      </c>
+      <c r="AA8" s="33">
+        <f t="shared" si="18"/>
+        <v>0.97231758560119563</v>
+      </c>
+      <c r="AB8" s="33">
+        <f t="shared" si="7"/>
+        <v>0.61098447735087835</v>
+      </c>
+      <c r="AC8" s="33">
+        <f t="shared" si="19"/>
+        <v>0.81130872101230134</v>
+      </c>
+      <c r="AD8" s="15">
+        <f>[8]syngas_streams_razryad!$E$10</f>
+        <v>1.0811111111111109</v>
+      </c>
+      <c r="AE8" s="15">
+        <f>[8]syngas_streams_razryad!$E$9</f>
+        <v>3.299969266969438</v>
+      </c>
+      <c r="AF8" s="25">
+        <f>[8]accumulation_razryad!$E$3</f>
+        <v>23.541755779113611</v>
+      </c>
+      <c r="AG8" s="25">
+        <f>[8]electric_razryad!$E$5</f>
+        <v>34.061064584346838</v>
+      </c>
+      <c r="AH8" s="25">
+        <f>[8]GTU_input_razryad!$B$3</f>
+        <v>1</v>
+      </c>
+      <c r="AI8" s="25">
+        <f>[8]electric_razryad!$C$5</f>
+        <v>165.66</v>
+      </c>
+      <c r="AJ8" s="25">
+        <f>[8]electric_razryad!$B$7</f>
+        <v>55.137910819663901</v>
+      </c>
+      <c r="AK8" s="25">
+        <f>[8]electric_razryad!$C$12</f>
+        <v>0.1749860448252161</v>
+      </c>
+      <c r="AL8" s="25">
+        <f>[8]electric_razryad!$C$6</f>
+        <v>6.3013810203264402</v>
+      </c>
+      <c r="AM8" s="25">
+        <f>[8]electric_razryad!$C$2</f>
+        <v>0.68229978423778059</v>
+      </c>
+      <c r="AN8" s="25">
+        <f>[8]electric_razryad!$B$13</f>
+        <v>46940.901942022218</v>
+      </c>
+      <c r="AO8" s="25">
+        <f>[8]electric_razryad!$B$14</f>
+        <v>70425.696351193052</v>
+      </c>
+      <c r="AP8" s="25">
+        <f>[8]heaters_razryad!$B$9</f>
+        <v>71.531169280447529</v>
+      </c>
+      <c r="AQ8" s="25">
+        <f>[8]heaters_razryad!$B$8</f>
+        <v>52.80627089397305</v>
+      </c>
+      <c r="AR8" s="25">
+        <f>[8]heaters_razryad!$B$10</f>
+        <v>6.2536847333324772</v>
+      </c>
+      <c r="AS8" s="25">
+        <f t="shared" si="8"/>
+        <v>130.59112490775306</v>
+      </c>
+      <c r="AT8" s="25">
+        <f>[8]heaters_razryad!$B$18/1000</f>
+        <v>37.221556971155366</v>
+      </c>
+      <c r="AU8" s="26">
         <f t="shared" si="9"/>
-        <v>167.81386184395762</v>
-      </c>
-      <c r="V8" s="34">
+        <v>211.94189870756222</v>
+      </c>
+      <c r="AV8" s="25">
         <f t="shared" si="10"/>
-        <v>35.639112181657588</v>
-      </c>
-      <c r="W8" s="34">
-        <f t="shared" si="2"/>
-        <v>90.849265320703822</v>
-      </c>
-      <c r="X8" s="42">
-        <f t="shared" si="3"/>
-        <v>0.57769991191729797</v>
-      </c>
-      <c r="Y8" s="43">
-        <f>T8/((100*F8)/D8-N8-P8+S8)</f>
-        <v>0.61809597110599723</v>
-      </c>
-      <c r="Z8" s="43">
-        <f t="shared" si="4"/>
-        <v>0.76876906398386469</v>
-      </c>
-      <c r="AA8" s="43">
+        <v>22.324926696745731</v>
+      </c>
+      <c r="AW8" s="27">
         <f t="shared" si="11"/>
-        <v>0.97231758560119563</v>
-      </c>
-      <c r="AB8" s="43">
-        <f t="shared" si="5"/>
-        <v>0.61098447735087835</v>
-      </c>
-      <c r="AC8" s="43">
+        <v>234.26682540430795</v>
+      </c>
+      <c r="AX8" s="27">
         <f t="shared" si="12"/>
-        <v>0.81130872101230134</v>
-      </c>
-      <c r="AD8" s="17">
-        <f>[6]syngas_streams_razryad!$E$10</f>
-        <v>1.0811111111111109</v>
-      </c>
-      <c r="AE8" s="17">
-        <f>[6]syngas_streams_razryad!$E$9</f>
-        <v>3.299969266969438</v>
-      </c>
-      <c r="AF8" s="35">
-        <f>[6]accumulation_razryad!$E$3</f>
-        <v>23.541755779113611</v>
-      </c>
-      <c r="AG8" s="35">
-        <f>[6]electric_razryad!$E$5</f>
-        <v>34.061064584346838</v>
-      </c>
-      <c r="AH8" s="35">
-        <f>[6]GTU_input_razryad!$B$3</f>
-        <v>1</v>
-      </c>
-      <c r="AI8" s="35">
-        <f>[6]electric_razryad!$C$5</f>
-        <v>165.66</v>
-      </c>
-      <c r="AJ8" s="35">
-        <f>[6]electric_razryad!$B$7</f>
-        <v>55.137910819663901</v>
-      </c>
-      <c r="AK8" s="35">
-        <f>[6]electric_razryad!$C$12</f>
-        <v>0.1749860448252161</v>
-      </c>
-      <c r="AL8" s="35">
-        <f>[6]electric_razryad!$C$6</f>
-        <v>6.3013810203264402</v>
-      </c>
-      <c r="AM8" s="35">
-        <f>[6]electric_razryad!$C$2</f>
-        <v>0.68229978423778059</v>
-      </c>
-      <c r="AN8" s="35">
-        <f>[6]electric_razryad!$B$13</f>
-        <v>46940.901942022218</v>
-      </c>
-      <c r="AO8" s="35">
-        <f>[6]electric_razryad!$B$14</f>
-        <v>70425.696351193052</v>
-      </c>
-      <c r="AP8" s="35">
-        <f>[6]heaters_razryad!$B$9</f>
-        <v>71.531169280447529</v>
-      </c>
-      <c r="AQ8" s="35">
-        <f>[6]heaters_razryad!$B$8</f>
-        <v>52.80627089397305</v>
-      </c>
-      <c r="AR8" s="35">
-        <f>[6]heaters_razryad!$B$10</f>
-        <v>6.2536847333324772</v>
-      </c>
-      <c r="AS8" s="35">
-        <f t="shared" si="6"/>
-        <v>130.59112490775306</v>
-      </c>
-      <c r="AT8" s="35">
-        <f>[6]heaters_razryad!$B$18/1000</f>
-        <v>37.221556971155366</v>
-      </c>
-      <c r="AU8" s="36">
-        <f>AI8+AJ8*$BL$2*$BL$3-AK8/$BL$1/$BL$2-AL8-AM8/$BL$1/$BL$2</f>
-        <v>211.94189870756222</v>
-      </c>
-      <c r="AV8" s="35">
-        <f>(-AN8/1000/$BL$2+AO8/1000)*$BL$2*$BL$3</f>
-        <v>22.324926696745731</v>
-      </c>
-      <c r="AW8" s="37">
-        <f t="shared" si="7"/>
-        <v>234.26682540430795</v>
-      </c>
-      <c r="AX8" s="37">
-        <f t="shared" si="8"/>
         <v>167.81268187890842</v>
       </c>
-      <c r="AY8" s="34">
-        <f>(100*AI8)/AG8-AD8*AF8</f>
+      <c r="AY8" s="24">
+        <f t="shared" si="13"/>
         <v>460.91052625395963</v>
       </c>
-      <c r="AZ8" s="34">
-        <f t="shared" si="13"/>
+      <c r="AZ8" s="24">
+        <f t="shared" si="20"/>
         <v>77.687070561575069</v>
       </c>
-      <c r="BA8" s="42">
-        <f>AU8/((100*AI8)/AG8-AS8)</f>
+      <c r="BA8" s="32">
+        <f t="shared" si="14"/>
         <v>0.59572619515660152</v>
       </c>
-      <c r="BB8" s="43">
-        <f t="shared" si="14"/>
+      <c r="BB8" s="33">
+        <f t="shared" si="21"/>
         <v>0.64162715796831649</v>
       </c>
-      <c r="BC8" s="43">
+      <c r="BC8" s="33">
+        <f t="shared" si="22"/>
+        <v>0.74316598147420299</v>
+      </c>
+      <c r="BD8" s="33">
+        <f t="shared" si="23"/>
+        <v>0.55170254164353927</v>
+      </c>
+      <c r="BE8" s="33">
+        <f t="shared" si="24"/>
+        <v>0.76649155692779447</v>
+      </c>
+      <c r="BF8" s="33">
+        <f t="shared" si="25"/>
+        <v>0.63181325875770411</v>
+      </c>
+      <c r="BG8" s="33">
+        <f t="shared" si="26"/>
+        <v>0.74653045178908461</v>
+      </c>
+      <c r="BH8" s="24">
         <f t="shared" si="15"/>
-        <v>0.74316598147420299</v>
-      </c>
-      <c r="BD8" s="43">
-        <f t="shared" si="16"/>
-        <v>0.55170254164353927</v>
-      </c>
-      <c r="BE8" s="43">
-        <f t="shared" si="17"/>
-        <v>0.76649155692779447</v>
-      </c>
-      <c r="BF8" s="43">
-        <f t="shared" si="18"/>
-        <v>0.63181325875770411</v>
-      </c>
-      <c r="BG8" s="43">
-        <f t="shared" si="19"/>
-        <v>0.74653045178908461</v>
-      </c>
-      <c r="BH8" s="34">
-        <f>ABS(AX8-U8)/U8*100</f>
         <v>7.0313920211245522E-4</v>
       </c>
-      <c r="BI8" s="36">
+      <c r="BI8" s="26">
         <f>T8-'Без ПКМ'!B8</f>
         <v>-43.774090305751713</v>
       </c>
-      <c r="BJ8" s="37">
+      <c r="BJ8" s="27">
         <f>AW8-'Без ПКМ'!E8</f>
         <v>19.853419826158046</v>
       </c>
-      <c r="BK8" s="41"/>
-      <c r="BL8" s="41"/>
+      <c r="BK8" s="31"/>
+      <c r="BL8" s="31"/>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A9" s="34">
+      <c r="A9" s="24">
         <v>0</v>
       </c>
-      <c r="B9" s="17">
-        <f>0.151140511695727*[7]syngas_streams_zaryad!$E$2</f>
+      <c r="B9" s="15">
+        <f>0.151140511695727*[9]syngas_streams_zaryad!$E$2</f>
         <v>1.8097511587538169</v>
       </c>
-      <c r="C9" s="17">
-        <f>[7]gas_streams_zaryad!$E$13</f>
+      <c r="C9" s="15">
+        <f>[9]gas_streams_zaryad!$E$13</f>
         <v>0.70901877150346959</v>
       </c>
-      <c r="D9" s="35">
-        <f>[7]electric_zaryad!$E$5</f>
+      <c r="D9" s="25">
+        <f>[9]electric_zaryad!$E$5</f>
         <v>31.127267090964281</v>
       </c>
-      <c r="E9" s="35">
-        <f>[7]GTU_input_zaryad!$B$3</f>
+      <c r="E9" s="25">
+        <f>[9]GTU_input_zaryad!$B$3</f>
         <v>0.75045581617263146</v>
       </c>
-      <c r="F9" s="35">
-        <f>[7]electric_zaryad!$C$5</f>
+      <c r="F9" s="25">
+        <f>[9]electric_zaryad!$C$5</f>
         <v>123.3033426939177</v>
       </c>
-      <c r="G9" s="35">
-        <f>[7]electric_zaryad!$B$7</f>
+      <c r="G9" s="25">
+        <f>[9]electric_zaryad!$B$7</f>
         <v>42.454650586517651</v>
       </c>
-      <c r="H9" s="35">
-        <f>[7]electric_zaryad!$C$12</f>
+      <c r="H9" s="25">
+        <f>[9]electric_zaryad!$C$12</f>
         <v>4.5455138847056133E-2</v>
       </c>
-      <c r="I9" s="35">
-        <f>[7]electric_zaryad!$C$6</f>
+      <c r="I9" s="25">
+        <f>[9]electric_zaryad!$C$6</f>
         <v>6.2115095317257438</v>
       </c>
-      <c r="J9" s="35">
-        <f>[7]electric_zaryad!$C$2</f>
+      <c r="J9" s="25">
+        <f>[9]electric_zaryad!$C$2</f>
         <v>2.1091148975811929</v>
       </c>
-      <c r="K9" s="35">
-        <f>[7]heaters_zaryad!$B$9</f>
+      <c r="K9" s="25">
+        <f>[9]heaters_zaryad!$B$9</f>
         <v>77.724968718770214</v>
       </c>
-      <c r="L9" s="35">
-        <f>[7]heaters_zaryad!$B$8</f>
+      <c r="L9" s="25">
+        <f>[9]heaters_zaryad!$B$8</f>
         <v>44.847394331631911</v>
       </c>
-      <c r="M9" s="35">
-        <f>[7]heaters_zaryad!$B$10</f>
+      <c r="M9" s="25">
+        <f>[9]heaters_zaryad!$B$10</f>
         <v>6.7087150881843449</v>
       </c>
-      <c r="N9" s="35">
+      <c r="N9" s="25">
         <f t="shared" si="0"/>
         <v>129.28107813858645</v>
       </c>
-      <c r="O9" s="35">
-        <f>[7]heaters_zaryad!$B$17/1000</f>
+      <c r="O9" s="25">
+        <f>[9]heaters_zaryad!$B$17/1000</f>
         <v>38.317930934632315</v>
       </c>
-      <c r="P9" s="36">
-        <f>[7]heaters_zaryad!$B$11/1000</f>
+      <c r="P9" s="26">
+        <f>[9]heaters_zaryad!$B$11/1000</f>
         <v>34.6601792787161</v>
       </c>
-      <c r="Q9" s="35">
-        <f>[7]gas_streams_zaryad!$E$4</f>
+      <c r="Q9" s="25">
+        <f>[9]gas_streams_zaryad!$E$4</f>
         <v>13.61116814060308</v>
       </c>
-      <c r="R9" s="35">
-        <f>[10]!PropsSI("H","P",[7]gas_streams_zaryad!$C$4*10^6,"T",[7]gas_streams_zaryad!$B$4+273.15,"REFPROP::"&amp;[10]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000-[10]!PropsSI("H","P",[7]gas_streams_zaryad!$C$4*10^6,"T",S19+273.15,"REFPROP::"&amp;[10]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000</f>
+      <c r="R9" s="25">
+        <f>[3]!PropsSI("H","P",[9]gas_streams_zaryad!$C$4*10^6,"T",[9]gas_streams_zaryad!$B$4+273.15,"REFPROP::"&amp;[3]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000-[3]!PropsSI("H","P",[9]gas_streams_zaryad!$C$4*10^6,"T",S19+273.15,"REFPROP::"&amp;[3]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000</f>
         <v>1246.7478520836039</v>
       </c>
-      <c r="S9" s="37">
+      <c r="S9" s="27">
         <f t="shared" si="1"/>
         <v>16.969694643645671</v>
       </c>
-      <c r="T9" s="35">
-        <f>F9+G9*$BL$2*$BL$3-H9/$BL$1/$BL$2-I9-J9/$BL$1/$BL$2</f>
+      <c r="T9" s="25">
+        <f t="shared" si="2"/>
         <v>155.99045792951608</v>
       </c>
-      <c r="U9" s="34">
+      <c r="U9" s="24">
+        <f t="shared" si="16"/>
+        <v>167.59900907321878</v>
+      </c>
+      <c r="V9" s="24">
+        <f t="shared" si="17"/>
+        <v>35.592742329474177</v>
+      </c>
+      <c r="W9" s="24">
+        <f t="shared" si="3"/>
+        <v>90.849508169441606</v>
+      </c>
+      <c r="X9" s="32">
+        <f t="shared" si="4"/>
+        <v>0.58457243695751382</v>
+      </c>
+      <c r="Y9" s="33">
+        <f t="shared" si="5"/>
+        <v>0.62607822164391114</v>
+      </c>
+      <c r="Z9" s="33">
+        <f t="shared" si="6"/>
+        <v>0.77447274221422346</v>
+      </c>
+      <c r="AA9" s="33">
+        <f t="shared" si="18"/>
+        <v>0.97470599780279843</v>
+      </c>
+      <c r="AB9" s="33">
+        <f t="shared" si="7"/>
+        <v>0.61942422261697849</v>
+      </c>
+      <c r="AC9" s="33">
+        <f t="shared" si="19"/>
+        <v>0.81659651425319935</v>
+      </c>
+      <c r="AD9" s="15">
+        <f>[9]syngas_streams_razryad!$E$10</f>
+        <v>1.0811111111111109</v>
+      </c>
+      <c r="AE9" s="15">
+        <f>[9]syngas_streams_razryad!$E$9</f>
+        <v>3.3021674120840272</v>
+      </c>
+      <c r="AF9" s="25">
+        <f>[9]accumulation_razryad!$E$3</f>
+        <v>23.529949959524259</v>
+      </c>
+      <c r="AG9" s="25">
+        <f>[9]electric_razryad!$E$5</f>
+        <v>34.012096926621403</v>
+      </c>
+      <c r="AH9" s="25">
+        <f>[9]GTU_input_razryad!$B$3</f>
+        <v>1</v>
+      </c>
+      <c r="AI9" s="25">
+        <f>[9]electric_razryad!$C$5</f>
+        <v>164.30459999999999</v>
+      </c>
+      <c r="AJ9" s="25">
+        <f>[9]electric_razryad!$B$7</f>
+        <v>56.274224030153043</v>
+      </c>
+      <c r="AK9" s="25">
+        <f>[9]electric_razryad!$C$12</f>
+        <v>0.18214254041483291</v>
+      </c>
+      <c r="AL9" s="25">
+        <f>[9]electric_razryad!$C$6</f>
+        <v>6.2985051603460569</v>
+      </c>
+      <c r="AM9" s="25">
+        <f>[9]electric_razryad!$C$2</f>
+        <v>0.68639229919712363</v>
+      </c>
+      <c r="AN9" s="25">
+        <f>[9]electric_razryad!$B$13</f>
+        <v>46980.4884467429</v>
+      </c>
+      <c r="AO9" s="25">
+        <f>[9]electric_razryad!$B$14</f>
+        <v>70484.328694481112</v>
+      </c>
+      <c r="AP9" s="25">
+        <f>[9]heaters_razryad!$B$9</f>
+        <v>61.490953959056753</v>
+      </c>
+      <c r="AQ9" s="25">
+        <f>[9]heaters_razryad!$B$8</f>
+        <v>62.779445892051108</v>
+      </c>
+      <c r="AR9" s="25">
+        <f>[9]heaters_razryad!$B$10</f>
+        <v>5.3378423542610038</v>
+      </c>
+      <c r="AS9" s="25">
+        <f t="shared" si="8"/>
+        <v>129.60824220536887</v>
+      </c>
+      <c r="AT9" s="25">
+        <f>[9]heaters_razryad!$B$18/1000</f>
+        <v>37.990554441752856</v>
+      </c>
+      <c r="AU9" s="26">
         <f t="shared" si="9"/>
-        <v>167.59900907321878</v>
-      </c>
-      <c r="V9" s="34">
+        <v>211.679864973919</v>
+      </c>
+      <c r="AV9" s="25">
         <f t="shared" si="10"/>
-        <v>35.592742329474177</v>
-      </c>
-      <c r="W9" s="34">
-        <f t="shared" si="2"/>
-        <v>90.849508169441606</v>
-      </c>
-      <c r="X9" s="42">
-        <f t="shared" si="3"/>
-        <v>0.58457243695751382</v>
-      </c>
-      <c r="Y9" s="43">
-        <f>T9/((100*F9)/D9-N9-P9+S9)</f>
-        <v>0.62607822164391114</v>
-      </c>
-      <c r="Z9" s="43">
-        <f t="shared" si="4"/>
-        <v>0.77447274221422346</v>
-      </c>
-      <c r="AA9" s="43">
+        <v>22.34301702157752</v>
+      </c>
+      <c r="AW9" s="27">
         <f t="shared" si="11"/>
-        <v>0.97470599780279843</v>
-      </c>
-      <c r="AB9" s="43">
-        <f t="shared" si="5"/>
-        <v>0.61942422261697849</v>
-      </c>
-      <c r="AC9" s="43">
+        <v>234.0228819954965</v>
+      </c>
+      <c r="AX9" s="27">
         <f t="shared" si="12"/>
-        <v>0.81659651425319935</v>
-      </c>
-      <c r="AD9" s="17">
-        <f>[7]syngas_streams_razryad!$E$10</f>
-        <v>1.0811111111111109</v>
-      </c>
-      <c r="AE9" s="17">
-        <f>[7]syngas_streams_razryad!$E$9</f>
-        <v>3.3021674120840272</v>
-      </c>
-      <c r="AF9" s="35">
-        <f>[7]accumulation_razryad!$E$3</f>
-        <v>23.529949959524259</v>
-      </c>
-      <c r="AG9" s="35">
-        <f>[7]electric_razryad!$E$5</f>
-        <v>34.012096926621403</v>
-      </c>
-      <c r="AH9" s="35">
-        <f>[7]GTU_input_razryad!$B$3</f>
-        <v>1</v>
-      </c>
-      <c r="AI9" s="35">
-        <f>[7]electric_razryad!$C$5</f>
-        <v>164.30459999999999</v>
-      </c>
-      <c r="AJ9" s="35">
-        <f>[7]electric_razryad!$B$7</f>
-        <v>56.274224030153043</v>
-      </c>
-      <c r="AK9" s="35">
-        <f>[7]electric_razryad!$C$12</f>
-        <v>0.18214254041483291</v>
-      </c>
-      <c r="AL9" s="35">
-        <f>[7]electric_razryad!$C$6</f>
-        <v>6.2985051603460569</v>
-      </c>
-      <c r="AM9" s="35">
-        <f>[7]electric_razryad!$C$2</f>
-        <v>0.68639229919712363</v>
-      </c>
-      <c r="AN9" s="35">
-        <f>[7]electric_razryad!$B$13</f>
-        <v>46980.4884467429</v>
-      </c>
-      <c r="AO9" s="35">
-        <f>[7]electric_razryad!$B$14</f>
-        <v>70484.328694481112</v>
-      </c>
-      <c r="AP9" s="35">
-        <f>[7]heaters_razryad!$B$9</f>
-        <v>61.490953959056753</v>
-      </c>
-      <c r="AQ9" s="35">
-        <f>[7]heaters_razryad!$B$8</f>
-        <v>62.779445892051108</v>
-      </c>
-      <c r="AR9" s="35">
-        <f>[7]heaters_razryad!$B$10</f>
-        <v>5.3378423542610038</v>
-      </c>
-      <c r="AS9" s="35">
-        <f t="shared" si="6"/>
-        <v>129.60824220536887</v>
-      </c>
-      <c r="AT9" s="35">
-        <f>[7]heaters_razryad!$B$18/1000</f>
-        <v>37.990554441752856</v>
-      </c>
-      <c r="AU9" s="36">
-        <f>AI9+AJ9*$BL$2*$BL$3-AK9/$BL$1/$BL$2-AL9-AM9/$BL$1/$BL$2</f>
-        <v>211.679864973919</v>
-      </c>
-      <c r="AV9" s="35">
-        <f>(-AN9/1000/$BL$2+AO9/1000)*$BL$2*$BL$3</f>
-        <v>22.34301702157752</v>
-      </c>
-      <c r="AW9" s="37">
-        <f t="shared" si="7"/>
-        <v>234.0228819954965</v>
-      </c>
-      <c r="AX9" s="37">
-        <f t="shared" si="8"/>
         <v>167.59879664712173</v>
       </c>
-      <c r="AY9" s="34">
-        <f>(100*AI9)/AG9-AD9*AF9</f>
+      <c r="AY9" s="24">
+        <f t="shared" si="13"/>
         <v>457.63845829016009</v>
       </c>
-      <c r="AZ9" s="34">
-        <f t="shared" si="13"/>
+      <c r="AZ9" s="24">
+        <f t="shared" si="20"/>
         <v>77.69983396430888</v>
       </c>
-      <c r="BA9" s="42">
-        <f>AU9/((100*AI9)/AG9-AS9)</f>
+      <c r="BA9" s="32">
+        <f t="shared" si="14"/>
         <v>0.59886451367056626</v>
       </c>
-      <c r="BB9" s="43">
-        <f t="shared" si="14"/>
+      <c r="BB9" s="33">
+        <f t="shared" si="21"/>
         <v>0.64530599497944641</v>
       </c>
-      <c r="BC9" s="43">
+      <c r="BC9" s="33">
+        <f t="shared" si="22"/>
+        <v>0.74575923635093255</v>
+      </c>
+      <c r="BD9" s="33">
+        <f t="shared" si="23"/>
+        <v>0.5626648806077188</v>
+      </c>
+      <c r="BE9" s="33">
+        <f t="shared" si="24"/>
+        <v>0.77649550050575866</v>
+      </c>
+      <c r="BF9" s="33">
+        <f t="shared" si="25"/>
+        <v>0.6363822346821667</v>
+      </c>
+      <c r="BG9" s="33">
+        <f t="shared" si="26"/>
+        <v>0.75022034562719153</v>
+      </c>
+      <c r="BH9" s="24">
         <f t="shared" si="15"/>
-        <v>0.74575923635093255</v>
-      </c>
-      <c r="BD9" s="43">
-        <f t="shared" si="16"/>
-        <v>0.5626648806077188</v>
-      </c>
-      <c r="BE9" s="43">
-        <f t="shared" si="17"/>
-        <v>0.77649550050575866</v>
-      </c>
-      <c r="BF9" s="43">
-        <f t="shared" si="18"/>
-        <v>0.6363822346821667</v>
-      </c>
-      <c r="BG9" s="43">
-        <f t="shared" si="19"/>
-        <v>0.75022034562719153</v>
-      </c>
-      <c r="BH9" s="34">
-        <f>ABS(AX9-U9)/U9*100</f>
         <v>1.2674663067823314E-4</v>
       </c>
-      <c r="BI9" s="36">
+      <c r="BI9" s="26">
         <f>T9-'Без ПКМ'!B9</f>
         <v>-42.749020924582794</v>
       </c>
-      <c r="BJ9" s="37">
+      <c r="BJ9" s="27">
         <f>AW9-'Без ПКМ'!E9</f>
         <v>19.849284975156252</v>
       </c>
-      <c r="BK9" s="41"/>
-      <c r="BL9" s="41"/>
+      <c r="BK9" s="31"/>
+      <c r="BL9" s="31"/>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A10" s="34">
+      <c r="A10" s="24">
         <v>5</v>
       </c>
-      <c r="B10" s="17">
-        <f>0.151140511695727*[8]syngas_streams_zaryad!$E$2</f>
+      <c r="B10" s="15">
+        <f>0.151140511695727*[10]syngas_streams_zaryad!$E$2</f>
         <v>1.8097517344562799</v>
       </c>
-      <c r="C10" s="17">
-        <f>[8]gas_streams_zaryad!$E$13</f>
+      <c r="C10" s="15">
+        <f>[10]gas_streams_zaryad!$E$13</f>
         <v>0.7078689153299943</v>
       </c>
-      <c r="D10" s="35">
-        <f>[8]electric_zaryad!$E$5</f>
+      <c r="D10" s="25">
+        <f>[10]electric_zaryad!$E$5</f>
         <v>31.049707951710719</v>
       </c>
-      <c r="E10" s="35">
-        <f>[8]GTU_input_zaryad!$B$3</f>
+      <c r="E10" s="25">
+        <f>[10]GTU_input_zaryad!$B$3</f>
         <v>0.75689579032102772</v>
       </c>
-      <c r="F10" s="35">
-        <f>[8]electric_zaryad!$C$5</f>
+      <c r="F10" s="25">
+        <f>[10]electric_zaryad!$C$5</f>
         <v>120.9418048897099</v>
       </c>
-      <c r="G10" s="35">
-        <f>[8]electric_zaryad!$B$7</f>
+      <c r="G10" s="25">
+        <f>[10]electric_zaryad!$B$7</f>
         <v>43.276234941926468</v>
       </c>
-      <c r="H10" s="35">
-        <f>[8]electric_zaryad!$C$12</f>
+      <c r="H10" s="25">
+        <f>[10]electric_zaryad!$C$12</f>
         <v>4.54231405818682E-2</v>
       </c>
-      <c r="I10" s="35">
-        <f>[8]electric_zaryad!$C$6</f>
+      <c r="I10" s="25">
+        <f>[10]electric_zaryad!$C$6</f>
         <v>6.2064988691440082</v>
       </c>
-      <c r="J10" s="35">
-        <f>[8]electric_zaryad!$C$2</f>
+      <c r="J10" s="25">
+        <f>[10]electric_zaryad!$C$2</f>
         <v>2.145446042951161</v>
       </c>
-      <c r="K10" s="35">
-        <f>[8]heaters_zaryad!$B$9</f>
+      <c r="K10" s="25">
+        <f>[10]heaters_zaryad!$B$9</f>
         <v>70.087648881000689</v>
       </c>
-      <c r="L10" s="35">
-        <f>[8]heaters_zaryad!$B$8</f>
+      <c r="L10" s="25">
+        <f>[10]heaters_zaryad!$B$8</f>
         <v>52.723308943508343</v>
       </c>
-      <c r="M10" s="35">
-        <f>[8]heaters_zaryad!$B$10</f>
+      <c r="M10" s="25">
+        <f>[10]heaters_zaryad!$B$10</f>
         <v>6.0219566222448346</v>
       </c>
-      <c r="N10" s="35">
+      <c r="N10" s="25">
         <f t="shared" si="0"/>
         <v>128.83291444675388</v>
       </c>
-      <c r="O10" s="35">
-        <f>[8]heaters_zaryad!$B$17/1000</f>
+      <c r="O10" s="25">
+        <f>[10]heaters_zaryad!$B$17/1000</f>
         <v>38.5547185554829</v>
       </c>
-      <c r="P10" s="36">
-        <f>[8]heaters_zaryad!$B$11/1000</f>
+      <c r="P10" s="26">
+        <f>[10]heaters_zaryad!$B$11/1000</f>
         <v>34.696843172408833</v>
       </c>
-      <c r="Q10" s="35">
-        <f>[8]gas_streams_zaryad!$E$4</f>
+      <c r="Q10" s="25">
+        <f>[10]gas_streams_zaryad!$E$4</f>
         <v>13.589094133053891</v>
       </c>
-      <c r="R10" s="35">
-        <f>[10]!PropsSI("H","P",[8]gas_streams_zaryad!$C$4*10^6,"T",[8]gas_streams_zaryad!$B$4+273.15,"REFPROP::"&amp;[10]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000-[10]!PropsSI("H","P",[8]gas_streams_zaryad!$C$4*10^6,"T",S20+273.15,"REFPROP::"&amp;[10]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000</f>
+      <c r="R10" s="25">
+        <f>[3]!PropsSI("H","P",[10]gas_streams_zaryad!$C$4*10^6,"T",[10]gas_streams_zaryad!$B$4+273.15,"REFPROP::"&amp;[3]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000-[3]!PropsSI("H","P",[10]gas_streams_zaryad!$C$4*10^6,"T",S20+273.15,"REFPROP::"&amp;[3]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000</f>
         <v>1246.7504596517715</v>
       </c>
-      <c r="S10" s="37">
+      <c r="S10" s="27">
         <f t="shared" si="1"/>
         <v>16.94220935663613</v>
       </c>
-      <c r="T10" s="35">
-        <f>F10+G10*$BL$2*$BL$3-H10/$BL$1/$BL$2-I10-J10/$BL$1/$BL$2</f>
+      <c r="T10" s="25">
+        <f t="shared" si="2"/>
         <v>154.39243634513252</v>
       </c>
-      <c r="U10" s="34">
-        <f t="shared" si="9"/>
+      <c r="U10" s="24">
+        <f t="shared" si="16"/>
         <v>167.38763300223678</v>
       </c>
-      <c r="V10" s="34">
-        <f t="shared" si="10"/>
+      <c r="V10" s="24">
+        <f t="shared" si="17"/>
         <v>35.535019549565718</v>
       </c>
-      <c r="W10" s="34">
-        <f t="shared" si="2"/>
+      <c r="W10" s="24">
+        <f t="shared" si="3"/>
         <v>90.849537069705249</v>
       </c>
-      <c r="X10" s="42">
+      <c r="X10" s="32">
         <f>T10/((100*F10)/D10-N10)</f>
         <v>0.59227403594781869</v>
       </c>
-      <c r="Y10" s="43">
-        <f>T10/((100*F10)/D10-N10-P10+S10)</f>
+      <c r="Y10" s="33">
+        <f t="shared" si="5"/>
         <v>0.63556190975375815</v>
       </c>
-      <c r="Z10" s="43">
-        <f t="shared" si="4"/>
+      <c r="Z10" s="33">
+        <f t="shared" si="6"/>
         <v>0.7821878350118</v>
       </c>
-      <c r="AA10" s="43">
+      <c r="AA10" s="33">
+        <f t="shared" si="18"/>
+        <v>0.97683231703889151</v>
+      </c>
+      <c r="AB10" s="33">
+        <f t="shared" si="7"/>
+        <v>0.6292258242027684</v>
+      </c>
+      <c r="AC10" s="33">
+        <f t="shared" si="19"/>
+        <v>0.82365312103968391</v>
+      </c>
+      <c r="AD10" s="15">
+        <f>[10]syngas_streams_razryad!$E$10</f>
+        <v>1.0811111111111109</v>
+      </c>
+      <c r="AE10" s="15">
+        <f>[10]syngas_streams_razryad!$E$9</f>
+        <v>3.3046748619762809</v>
+      </c>
+      <c r="AF10" s="25">
+        <f>[10]accumulation_razryad!$E$3</f>
+        <v>23.516497371811869</v>
+      </c>
+      <c r="AG10" s="25">
+        <f>[10]electric_razryad!$E$5</f>
+        <v>33.830241541168107</v>
+      </c>
+      <c r="AH10" s="25">
+        <f>[10]GTU_input_razryad!$B$3</f>
+        <v>1</v>
+      </c>
+      <c r="AI10" s="25">
+        <f>[10]electric_razryad!$C$5</f>
+        <v>159.78659999999999</v>
+      </c>
+      <c r="AJ10" s="25">
+        <f>[10]electric_razryad!$B$7</f>
+        <v>56.427775482838094</v>
+      </c>
+      <c r="AK10" s="25">
+        <f>[10]electric_razryad!$C$12</f>
+        <v>0.18443474000061799</v>
+      </c>
+      <c r="AL10" s="25">
+        <f>[10]electric_razryad!$C$6</f>
+        <v>6.2889189604114444</v>
+      </c>
+      <c r="AM10" s="25">
+        <f>[10]electric_razryad!$C$2</f>
+        <v>0.68211991504405434</v>
+      </c>
+      <c r="AN10" s="25">
+        <f>[10]electric_razryad!$B$13</f>
+        <v>47020.960838040402</v>
+      </c>
+      <c r="AO10" s="25">
+        <f>[10]electric_razryad!$B$14</f>
+        <v>70544.4962427422</v>
+      </c>
+      <c r="AP10" s="25">
+        <f>[10]heaters_razryad!$B$9</f>
+        <v>68.08716313433095</v>
+      </c>
+      <c r="AQ10" s="25">
+        <f>[10]heaters_razryad!$B$8</f>
+        <v>54.663092182935223</v>
+      </c>
+      <c r="AR10" s="25">
+        <f>[10]heaters_razryad!$B$10</f>
+        <v>5.8760331303184969</v>
+      </c>
+      <c r="AS10" s="25">
+        <f t="shared" si="8"/>
+        <v>128.62628844758467</v>
+      </c>
+      <c r="AT10" s="25">
+        <f>[10]heaters_razryad!$B$18/1000</f>
+        <v>38.761340808871374</v>
+      </c>
+      <c r="AU10" s="26">
+        <f t="shared" si="9"/>
+        <v>207.32253225265032</v>
+      </c>
+      <c r="AV10" s="25">
+        <f t="shared" si="10"/>
+        <v>22.361728633428882</v>
+      </c>
+      <c r="AW10" s="27">
         <f t="shared" si="11"/>
-        <v>0.97683231703889151</v>
-      </c>
-      <c r="AB10" s="43">
-        <f t="shared" si="5"/>
-        <v>0.6292258242027684</v>
-      </c>
-      <c r="AC10" s="43">
+        <v>229.68426088607919</v>
+      </c>
+      <c r="AX10" s="27">
         <f t="shared" si="12"/>
-        <v>0.82365312103968391</v>
-      </c>
-      <c r="AD10" s="17">
-        <f>[8]syngas_streams_razryad!$E$10</f>
-        <v>1.0811111111111109</v>
-      </c>
-      <c r="AE10" s="17">
-        <f>[8]syngas_streams_razryad!$E$9</f>
-        <v>3.3046748619762809</v>
-      </c>
-      <c r="AF10" s="35">
-        <f>[8]accumulation_razryad!$E$3</f>
-        <v>23.516497371811869</v>
-      </c>
-      <c r="AG10" s="35">
-        <f>[8]electric_razryad!$E$5</f>
-        <v>33.830241541168107</v>
-      </c>
-      <c r="AH10" s="35">
-        <f>[8]GTU_input_razryad!$B$3</f>
-        <v>1</v>
-      </c>
-      <c r="AI10" s="35">
-        <f>[8]electric_razryad!$C$5</f>
-        <v>159.78659999999999</v>
-      </c>
-      <c r="AJ10" s="35">
-        <f>[8]electric_razryad!$B$7</f>
-        <v>56.427775482838094</v>
-      </c>
-      <c r="AK10" s="35">
-        <f>[8]electric_razryad!$C$12</f>
-        <v>0.18443474000061799</v>
-      </c>
-      <c r="AL10" s="35">
-        <f>[8]electric_razryad!$C$6</f>
-        <v>6.2889189604114444</v>
-      </c>
-      <c r="AM10" s="35">
-        <f>[8]electric_razryad!$C$2</f>
-        <v>0.68211991504405434</v>
-      </c>
-      <c r="AN10" s="35">
-        <f>[8]electric_razryad!$B$13</f>
-        <v>47020.960838040402</v>
-      </c>
-      <c r="AO10" s="35">
-        <f>[8]electric_razryad!$B$14</f>
-        <v>70544.4962427422</v>
-      </c>
-      <c r="AP10" s="35">
-        <f>[8]heaters_razryad!$B$9</f>
-        <v>68.08716313433095</v>
-      </c>
-      <c r="AQ10" s="35">
-        <f>[8]heaters_razryad!$B$8</f>
-        <v>54.663092182935223</v>
-      </c>
-      <c r="AR10" s="35">
-        <f>[8]heaters_razryad!$B$10</f>
-        <v>5.8760331303184969</v>
-      </c>
-      <c r="AS10" s="35">
-        <f t="shared" si="6"/>
-        <v>128.62628844758467</v>
-      </c>
-      <c r="AT10" s="35">
-        <f>[8]heaters_razryad!$B$18/1000</f>
-        <v>38.761340808871374</v>
-      </c>
-      <c r="AU10" s="36">
-        <f>AI10+AJ10*$BL$2*$BL$3-AK10/$BL$1/$BL$2-AL10-AM10/$BL$1/$BL$2</f>
-        <v>207.32253225265032</v>
-      </c>
-      <c r="AV10" s="35">
-        <f>(-AN10/1000/$BL$2+AO10/1000)*$BL$2*$BL$3</f>
-        <v>22.361728633428882</v>
-      </c>
-      <c r="AW10" s="37">
-        <f t="shared" si="7"/>
-        <v>229.68426088607919</v>
-      </c>
-      <c r="AX10" s="37">
-        <f t="shared" si="8"/>
         <v>167.38762925645605</v>
       </c>
-      <c r="AY10" s="34">
-        <f>(100*AI10)/AG10-AD10*AF10</f>
+      <c r="AY10" s="24">
+        <f t="shared" si="13"/>
         <v>446.89488034219892</v>
       </c>
-      <c r="AZ10" s="34">
-        <f t="shared" si="13"/>
+      <c r="AZ10" s="24">
+        <f t="shared" si="20"/>
         <v>77.714377706357965</v>
       </c>
-      <c r="BA10" s="42">
-        <f>AU10/((100*AI10)/AG10-AS10)</f>
+      <c r="BA10" s="32">
+        <f t="shared" si="14"/>
         <v>0.60322092867908028</v>
       </c>
-      <c r="BB10" s="43">
-        <f t="shared" si="14"/>
+      <c r="BB10" s="33">
+        <f t="shared" si="21"/>
         <v>0.6514074512300585</v>
       </c>
-      <c r="BC10" s="43">
+      <c r="BC10" s="33">
+        <f t="shared" si="22"/>
+        <v>0.75174014175993764</v>
+      </c>
+      <c r="BD10" s="33">
+        <f t="shared" si="23"/>
+        <v>0.57406894081913684</v>
+      </c>
+      <c r="BE10" s="33">
+        <f t="shared" si="24"/>
+        <v>0.78650915372767194</v>
+      </c>
+      <c r="BF10" s="33">
+        <f t="shared" si="25"/>
+        <v>0.64297411571277785</v>
+      </c>
+      <c r="BG10" s="33">
+        <f t="shared" si="26"/>
+        <v>0.75689074115764654</v>
+      </c>
+      <c r="BH10" s="24">
         <f t="shared" si="15"/>
-        <v>0.75174014175993764</v>
-      </c>
-      <c r="BD10" s="43">
-        <f t="shared" si="16"/>
-        <v>0.57406894081913684</v>
-      </c>
-      <c r="BE10" s="43">
-        <f t="shared" si="17"/>
-        <v>0.78650915372767194</v>
-      </c>
-      <c r="BF10" s="43">
-        <f t="shared" si="18"/>
-        <v>0.64297411571277785</v>
-      </c>
-      <c r="BG10" s="43">
-        <f t="shared" si="19"/>
-        <v>0.75689074115764654</v>
-      </c>
-      <c r="BH10" s="34">
-        <f>ABS(AX10-U10)/U10*100</f>
         <v>2.2377882187232694E-6</v>
       </c>
-      <c r="BI10" s="36">
+      <c r="BI10" s="26">
         <f>T10-'Без ПКМ'!B10</f>
         <v>-39.900008342437928</v>
       </c>
-      <c r="BJ10" s="37">
+      <c r="BJ10" s="27">
         <f>AW10-'Без ПКМ'!E10</f>
         <v>20.590789234723559</v>
       </c>
-      <c r="BK10" s="41"/>
-      <c r="BL10" s="41"/>
+      <c r="BK10" s="31"/>
+      <c r="BL10" s="31"/>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A11" s="34">
+      <c r="A11" s="24">
         <v>8</v>
       </c>
-      <c r="B11" s="17">
-        <f>0.151140511695727*[9]syngas_streams_zaryad!$E$2</f>
-        <v>1.8097518597193232</v>
-      </c>
-      <c r="C11" s="17">
-        <f>[9]gas_streams_zaryad!$E$13</f>
+      <c r="B11" s="15">
+        <f>0.151140511695727*[11]syngas_streams_zaryad!$E$2</f>
+        <v>1.8097518597193247</v>
+      </c>
+      <c r="C11" s="15">
+        <f>[11]gas_streams_zaryad!$E$13</f>
         <v>0.70703187833174552</v>
       </c>
-      <c r="D11" s="35">
-        <f>[9]electric_zaryad!$E$5</f>
+      <c r="D11" s="25">
+        <f>[11]electric_zaryad!$E$5</f>
         <v>30.933717851221498</v>
       </c>
-      <c r="E11" s="35">
-        <f>[9]GTU_input_zaryad!$B$3</f>
+      <c r="E11" s="25">
+        <f>[11]GTU_input_zaryad!$B$3</f>
         <v>0.75707333660408205</v>
       </c>
-      <c r="F11" s="35">
-        <f>[9]electric_zaryad!$C$5</f>
+      <c r="F11" s="25">
+        <f>[11]electric_zaryad!$C$5</f>
         <v>118.9179000057555</v>
       </c>
-      <c r="G11" s="35">
-        <f>[9]electric_zaryad!$B$7</f>
+      <c r="G11" s="25">
+        <f>[11]electric_zaryad!$B$7</f>
         <v>43.189091731133018</v>
       </c>
-      <c r="H11" s="35">
-        <f>[9]electric_zaryad!$C$12</f>
+      <c r="H11" s="25">
+        <f>[11]electric_zaryad!$C$12</f>
         <v>4.4870453998254747E-2</v>
       </c>
-      <c r="I11" s="35">
-        <f>[9]electric_zaryad!$C$6</f>
+      <c r="I11" s="25">
+        <f>[11]electric_zaryad!$C$6</f>
         <v>6.2022045891824709</v>
       </c>
-      <c r="J11" s="35">
-        <f>[9]electric_zaryad!$C$2</f>
+      <c r="J11" s="25">
+        <f>[11]electric_zaryad!$C$2</f>
         <v>2.2190445960609901</v>
       </c>
-      <c r="K11" s="35">
-        <f>[9]heaters_zaryad!$B$9</f>
+      <c r="K11" s="25">
+        <f>[11]heaters_zaryad!$B$9</f>
         <v>68.126362633936054</v>
       </c>
-      <c r="L11" s="35">
-        <f>[9]heaters_zaryad!$B$8</f>
+      <c r="L11" s="25">
+        <f>[11]heaters_zaryad!$B$8</f>
         <v>54.201044583040421</v>
       </c>
-      <c r="M11" s="35">
-        <f>[9]heaters_zaryad!$B$10</f>
+      <c r="M11" s="25">
+        <f>[11]heaters_zaryad!$B$10</f>
         <v>5.8278060747670741</v>
       </c>
-      <c r="N11" s="35">
+      <c r="N11" s="25">
         <f>K11+L11+M11</f>
         <v>128.15521329174354</v>
       </c>
-      <c r="O11" s="35">
-        <f>[9]heaters_zaryad!$B$17/1000</f>
+      <c r="O11" s="25">
+        <f>[11]heaters_zaryad!$B$17/1000</f>
         <v>38.57601954176959</v>
       </c>
-      <c r="P11" s="36">
-        <f>[9]heaters_zaryad!$B$11/1000</f>
+      <c r="P11" s="26">
+        <f>[11]heaters_zaryad!$B$11/1000</f>
         <v>34.723523332432642</v>
       </c>
-      <c r="Q11" s="35">
-        <f>[9]gas_streams_zaryad!$E$4</f>
+      <c r="Q11" s="25">
+        <f>[11]gas_streams_zaryad!$E$4</f>
         <v>13.57302537467827</v>
       </c>
-      <c r="R11" s="35">
-        <f>[10]!PropsSI("H","P",[9]gas_streams_zaryad!$C$4*10^6,"T",[9]gas_streams_zaryad!$B$4+273.15,"REFPROP::"&amp;[10]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000-[10]!PropsSI("H","P",[9]gas_streams_zaryad!$C$4*10^6,"T",S21+273.15,"REFPROP::"&amp;[10]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000</f>
+      <c r="R11" s="25">
+        <f>[3]!PropsSI("H","P",[11]gas_streams_zaryad!$C$4*10^6,"T",[11]gas_streams_zaryad!$B$4+273.15,"REFPROP::"&amp;[3]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000-[3]!PropsSI("H","P",[11]gas_streams_zaryad!$C$4*10^6,"T",S21+273.15,"REFPROP::"&amp;[3]!MixtureString($R$16:$R$20,$S$16:$S$20))/1000</f>
         <v>896.4142916678345</v>
       </c>
-      <c r="S11" s="37">
+      <c r="S11" s="27">
         <f>R11*Q11/1000</f>
         <v>12.167053927031766</v>
       </c>
-      <c r="T11" s="35">
-        <f>F11+G11*$BL$2*$BL$3-H11/$BL$1/$BL$2-I11-J11/$BL$1/$BL$2</f>
+      <c r="T11" s="25">
+        <f t="shared" si="2"/>
         <v>152.21061234164702</v>
       </c>
-      <c r="U11" s="34">
+      <c r="U11" s="24">
         <f>N11+O11</f>
         <v>166.73123283351313</v>
       </c>
-      <c r="V11" s="34">
-        <f t="shared" si="10"/>
+      <c r="V11" s="24">
+        <f t="shared" si="17"/>
         <v>35.493000292253626</v>
       </c>
-      <c r="W11" s="34">
-        <f t="shared" ref="W11" si="20">B11*$R$14</f>
-        <v>90.849543357910022</v>
-      </c>
-      <c r="X11" s="42">
+      <c r="W11" s="24">
+        <f t="shared" ref="W11" si="27">B11*$R$14</f>
+        <v>90.849543357910107</v>
+      </c>
+      <c r="X11" s="32">
         <f>T11/((100*F11)/D11-N11)</f>
         <v>0.59393961480623847</v>
       </c>
-      <c r="Y11" s="43">
-        <f>T11/((100*F11)/D11-N11-P11+S11)</f>
+      <c r="Y11" s="33">
+        <f t="shared" si="5"/>
         <v>0.65126199552205777</v>
       </c>
-      <c r="Z11" s="43">
+      <c r="Z11" s="33">
         <f>(T11+P11+N11)/((100*F11)/D11+S11)</f>
         <v>0.79448615440071158</v>
       </c>
-      <c r="AA11" s="43">
+      <c r="AA11" s="33">
         <f>(AD11+AE11)*AF11/(V11+W11-O11-S11+P11)</f>
-        <v>0.93487604917593514</v>
-      </c>
-      <c r="AB11" s="43">
+        <v>0.93487604917593481</v>
+      </c>
+      <c r="AB11" s="33">
         <f>(T11)/((100*F11)/D11+$R$14*(B11+C11)-(AD11+AE11)*AF11-U11)</f>
-        <v>0.63183866161787405</v>
-      </c>
-      <c r="AC11" s="43">
+        <v>0.63183866161787383</v>
+      </c>
+      <c r="AC11" s="33">
         <f>((AD11+AE11)*AF11+U11+T11)/((100*F11)/D11+$R$14*(B11+C11))</f>
-        <v>0.826359511561372</v>
-      </c>
-      <c r="AD11" s="17">
-        <f>[9]syngas_streams_razryad!$E$10</f>
+        <v>0.82635951156137177</v>
+      </c>
+      <c r="AD11" s="15">
+        <f>[11]syngas_streams_razryad!$E$10</f>
         <v>1.0811111111111109</v>
       </c>
-      <c r="AE11" s="17">
-        <f>[9]syngas_streams_razryad!$E$9</f>
-        <v>3.3063876685569999</v>
-      </c>
-      <c r="AF11" s="35">
-        <f>[9]accumulation_razryad!$E$3</f>
+      <c r="AE11" s="15">
+        <f>[11]syngas_streams_razryad!$E$9</f>
+        <v>3.3063876685570008</v>
+      </c>
+      <c r="AF11" s="25">
+        <f>[11]accumulation_razryad!$E$3</f>
         <v>23.507316922203401</v>
       </c>
-      <c r="AG11" s="35">
-        <f>[9]electric_razryad!$E$5</f>
+      <c r="AG11" s="25">
+        <f>[11]electric_razryad!$E$5</f>
         <v>33.701191319931901</v>
       </c>
-      <c r="AH11" s="35">
-        <f>[9]GTU_input_razryad!$B$3</f>
+      <c r="AH11" s="25">
+        <f>[11]GTU_input_razryad!$B$3</f>
         <v>1</v>
       </c>
-      <c r="AI11" s="35">
-        <f>[9]electric_razryad!$C$5</f>
+      <c r="AI11" s="25">
+        <f>[11]electric_razryad!$C$5</f>
         <v>157.07579999999999</v>
       </c>
-      <c r="AJ11" s="35">
-        <f>[9]electric_razryad!$B$7</f>
+      <c r="AJ11" s="25">
+        <f>[11]electric_razryad!$B$7</f>
         <v>56.219279578427233</v>
       </c>
-      <c r="AK11" s="35">
-        <f>[9]electric_razryad!$C$12</f>
+      <c r="AK11" s="25">
+        <f>[11]electric_razryad!$C$12</f>
         <v>0.18425332447741299</v>
       </c>
-      <c r="AL11" s="35">
-        <f>[9]electric_razryad!$C$6</f>
+      <c r="AL11" s="25">
+        <f>[11]electric_razryad!$C$6</f>
         <v>6.2831672404506769</v>
       </c>
-      <c r="AM11" s="35">
-        <f>[9]electric_razryad!$C$2</f>
+      <c r="AM11" s="25">
+        <f>[11]electric_razryad!$C$2</f>
         <v>0.67820114753838379</v>
       </c>
-      <c r="AN11" s="35">
-        <f>[9]electric_razryad!$B$13</f>
+      <c r="AN11" s="25">
+        <f>[11]electric_razryad!$B$13</f>
         <v>47045.827872736598</v>
       </c>
-      <c r="AO11" s="35">
-        <f>[9]electric_razryad!$B$14</f>
+      <c r="AO11" s="25">
+        <f>[11]electric_razryad!$B$14</f>
         <v>70581.612049136616</v>
       </c>
-      <c r="AP11" s="35">
-        <f>[9]heaters_razryad!$B$9</f>
+      <c r="AP11" s="25">
+        <f>[11]heaters_razryad!$B$9</f>
         <v>70.047079843704822</v>
       </c>
-      <c r="AQ11" s="35">
-        <f>[9]heaters_razryad!$B$8</f>
+      <c r="AQ11" s="25">
+        <f>[11]heaters_razryad!$B$8</f>
         <v>51.73505370356159</v>
       </c>
-      <c r="AR11" s="35">
-        <f>[9]heaters_razryad!$B$10</f>
+      <c r="AR11" s="25">
+        <f>[11]heaters_razryad!$B$10</f>
         <v>6.020288069735062</v>
       </c>
-      <c r="AS11" s="35">
+      <c r="AS11" s="25">
         <f>AR11+AQ11+AP11</f>
         <v>127.80242161700147</v>
       </c>
-      <c r="AT11" s="35">
-        <f>[9]heaters_razryad!$B$18/1000</f>
+      <c r="AT11" s="25">
+        <f>[11]heaters_razryad!$B$18/1000</f>
         <v>38.92875692369217</v>
       </c>
-      <c r="AU11" s="36">
-        <f>AI11+AJ11*$BL$2*$BL$3-AK11/$BL$1/$BL$2-AL11-AM11/$BL$1/$BL$2</f>
+      <c r="AU11" s="26">
+        <f t="shared" si="9"/>
         <v>204.41956082406651</v>
       </c>
-      <c r="AV11" s="35">
-        <f>(-AN11/1000/$BL$2+AO11/1000)*$BL$2*$BL$3</f>
+      <c r="AV11" s="25">
+        <f t="shared" si="10"/>
         <v>22.373368694790489</v>
       </c>
-      <c r="AW11" s="37">
-        <f t="shared" ref="AW11" si="21">AU11+AV11</f>
+      <c r="AW11" s="27">
+        <f t="shared" ref="AW11" si="28">AU11+AV11</f>
         <v>226.79292951885699</v>
       </c>
-      <c r="AX11" s="37">
+      <c r="AX11" s="27">
         <f>AS11+AT11</f>
         <v>166.73117854069363</v>
       </c>
-      <c r="AY11" s="34">
-        <f>(100*AI11)/AG11-AD11*AF11</f>
+      <c r="AY11" s="24">
+        <f t="shared" si="13"/>
         <v>440.66979881103435</v>
       </c>
-      <c r="AZ11" s="34">
-        <f t="shared" si="13"/>
-        <v>77.724302792434614</v>
-      </c>
-      <c r="BA11" s="42">
-        <f>AU11/((100*AI11)/AG11-AS11)</f>
+      <c r="AZ11" s="24">
+        <f t="shared" si="20"/>
+        <v>77.724302792434642</v>
+      </c>
+      <c r="BA11" s="32">
+        <f t="shared" si="14"/>
         <v>0.60428850537739254</v>
       </c>
-      <c r="BB11" s="43">
-        <f t="shared" si="14"/>
+      <c r="BB11" s="33">
+        <f t="shared" si="21"/>
         <v>0.65337448300750889</v>
       </c>
-      <c r="BC11" s="43">
+      <c r="BC11" s="33">
+        <f t="shared" si="22"/>
+        <v>0.753902317194035</v>
+      </c>
+      <c r="BD11" s="33">
+        <f t="shared" si="23"/>
+        <v>0.57669941726008001</v>
+      </c>
+      <c r="BE11" s="33">
+        <f t="shared" si="24"/>
+        <v>0.78871245435539061</v>
+      </c>
+      <c r="BF11" s="33">
+        <f t="shared" si="25"/>
+        <v>0.64491566965213487</v>
+      </c>
+      <c r="BG11" s="33">
+        <f t="shared" si="26"/>
+        <v>0.75912150011414636</v>
+      </c>
+      <c r="BH11" s="24">
         <f t="shared" si="15"/>
-        <v>0.753902317194035</v>
-      </c>
-      <c r="BD11" s="43">
-        <f t="shared" si="16"/>
-        <v>0.57669941726008045</v>
-      </c>
-      <c r="BE11" s="43">
-        <f t="shared" si="17"/>
-        <v>0.78871245435539084</v>
-      </c>
-      <c r="BF11" s="43">
-        <f t="shared" si="18"/>
-        <v>0.64491566965213509</v>
-      </c>
-      <c r="BG11" s="43">
-        <f t="shared" si="19"/>
-        <v>0.75912150011414647</v>
-      </c>
-      <c r="BH11" s="34">
-        <f>ABS(AX11-U11)/U11*100</f>
         <v>3.2563076860999546E-5</v>
       </c>
-      <c r="BI11" s="36">
+      <c r="BI11" s="26">
         <f>T11-'Без ПКМ'!B11</f>
         <v>-38.961849194089297</v>
       </c>
-      <c r="BJ11" s="37">
+      <c r="BJ11" s="27">
         <f>AW11-'Без ПКМ'!E11</f>
         <v>20.839846592084029</v>
       </c>
-      <c r="BK11" s="41"/>
-      <c r="BL11" s="41"/>
+      <c r="BK11" s="31"/>
+      <c r="BL11" s="31"/>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.35">
       <c r="Q14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R14" s="35">
+      <c r="R14" s="25">
         <f>BL4</f>
         <v>50.2</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>47</v>
       </c>
       <c r="S23" s="4">
-        <f>[10]!PropsSI("Q","P",0.1*10^6,"T",S21+273.15,"REFPROP::"&amp;[10]!MixtureString($R$16:$R$20,$S$16:$S$20))</f>
+        <f>[3]!PropsSI("Q","P",0.1*10^6,"T",S21+273.15,"REFPROP::"&amp;[3]!MixtureString($R$16:$R$20,$S$16:$S$20))</f>
         <v>998</v>
       </c>
     </row>
@@ -13413,21 +13413,9 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="BG1:BG2"/>
-    <mergeCell ref="BF1:BF2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="BB1:BB2"/>
-    <mergeCell ref="BC1:BC2"/>
-    <mergeCell ref="BD1:BD2"/>
-    <mergeCell ref="BE1:BE2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AY1:AY2"/>
-    <mergeCell ref="AZ1:AZ2"/>
-    <mergeCell ref="BA1:BA2"/>
-    <mergeCell ref="AX1:AX2"/>
-    <mergeCell ref="AW1:AW2"/>
-    <mergeCell ref="AD1:AT1"/>
+    <mergeCell ref="BI1:BI2"/>
+    <mergeCell ref="BJ1:BJ2"/>
+    <mergeCell ref="BH1:BH2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="AU1:AU2"/>
     <mergeCell ref="AV1:AV2"/>
@@ -13439,9 +13427,21 @@
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="V1:V2"/>
-    <mergeCell ref="BI1:BI2"/>
-    <mergeCell ref="BJ1:BJ2"/>
-    <mergeCell ref="BH1:BH2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AY1:AY2"/>
+    <mergeCell ref="AZ1:AZ2"/>
+    <mergeCell ref="BA1:BA2"/>
+    <mergeCell ref="AX1:AX2"/>
+    <mergeCell ref="AW1:AW2"/>
+    <mergeCell ref="AD1:AT1"/>
+    <mergeCell ref="BG1:BG2"/>
+    <mergeCell ref="BF1:BF2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="BB1:BB2"/>
+    <mergeCell ref="BC1:BC2"/>
+    <mergeCell ref="BD1:BD2"/>
+    <mergeCell ref="BE1:BE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
